--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>357200</v>
+        <v>476600</v>
       </c>
       <c r="E8" s="3">
-        <v>173100</v>
+        <v>292200</v>
       </c>
       <c r="F8" s="3">
-        <v>98800</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>141800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>81400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +735,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>75400</v>
+        <v>79000</v>
       </c>
       <c r="E9" s="3">
-        <v>52300</v>
+        <v>59800</v>
       </c>
       <c r="F9" s="3">
-        <v>31100</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>24600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,23 +765,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>281800</v>
+        <v>397600</v>
       </c>
       <c r="E10" s="3">
-        <v>120800</v>
+        <v>232400</v>
       </c>
       <c r="F10" s="3">
-        <v>67700</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>100400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>56800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,23 +899,26 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8900</v>
+        <v>11700</v>
       </c>
       <c r="E15" s="3">
-        <v>6100</v>
+        <v>7100</v>
       </c>
       <c r="F15" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>195100</v>
+        <v>209300</v>
       </c>
       <c r="E17" s="3">
-        <v>145900</v>
+        <v>154600</v>
       </c>
       <c r="F17" s="3">
-        <v>80500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>115600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>63700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>162100</v>
+        <v>267400</v>
       </c>
       <c r="E18" s="3">
-        <v>27200</v>
+        <v>137600</v>
       </c>
       <c r="F18" s="3">
-        <v>18400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>26200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>17700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1017,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-58800</v>
+        <v>-65500</v>
       </c>
       <c r="E20" s="3">
-        <v>-49500</v>
+        <v>-55800</v>
       </c>
       <c r="F20" s="3">
-        <v>-53200</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-43900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-45300</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>125100</v>
+        <v>232800</v>
       </c>
       <c r="E21" s="3">
-        <v>-8800</v>
+        <v>99400</v>
       </c>
       <c r="F21" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-6900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-19500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>103300</v>
+        <v>201800</v>
       </c>
       <c r="E23" s="3">
-        <v>-22300</v>
+        <v>81800</v>
       </c>
       <c r="F23" s="3">
-        <v>-34800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-17700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-27600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,23 +1134,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32000</v>
+        <v>53000</v>
       </c>
       <c r="E24" s="3">
-        <v>2200</v>
+        <v>25400</v>
       </c>
       <c r="F24" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-5000</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71300</v>
+        <v>148800</v>
       </c>
       <c r="E26" s="3">
-        <v>-24500</v>
+        <v>56500</v>
       </c>
       <c r="F26" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-19400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-22600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>70400</v>
+        <v>148600</v>
       </c>
       <c r="E27" s="3">
-        <v>-24900</v>
+        <v>55800</v>
       </c>
       <c r="F27" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-19700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-21600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1374,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>58800</v>
+        <v>65500</v>
       </c>
       <c r="E32" s="3">
-        <v>49500</v>
+        <v>55800</v>
       </c>
       <c r="F32" s="3">
-        <v>53200</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>43900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>70400</v>
+        <v>148600</v>
       </c>
       <c r="E33" s="3">
-        <v>-24900</v>
+        <v>55800</v>
       </c>
       <c r="F33" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-19700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-21600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>70400</v>
+        <v>148600</v>
       </c>
       <c r="E35" s="3">
-        <v>-24900</v>
+        <v>55800</v>
       </c>
       <c r="F35" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-19700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-21600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>69600</v>
+        <v>181500</v>
       </c>
       <c r="E41" s="3">
-        <v>149900</v>
+        <v>55800</v>
       </c>
       <c r="F41" s="3">
-        <v>39800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>120300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>32000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,23 +1587,26 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>647000</v>
+        <v>550400</v>
       </c>
       <c r="E42" s="3">
-        <v>47100</v>
+        <v>519200</v>
       </c>
       <c r="F42" s="3">
-        <v>15500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>37800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>12400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2184100</v>
+        <v>2692300</v>
       </c>
       <c r="E43" s="3">
-        <v>1201600</v>
+        <v>1751500</v>
       </c>
       <c r="F43" s="3">
-        <v>718700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>963400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>575600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,23 +1677,26 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3800</v>
+        <v>24900</v>
       </c>
       <c r="E45" s="3">
-        <v>2400</v>
+        <v>4300</v>
       </c>
       <c r="F45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>2800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2904500</v>
+        <v>3449100</v>
       </c>
       <c r="E46" s="3">
-        <v>1401000</v>
+        <v>2330800</v>
       </c>
       <c r="F46" s="3">
-        <v>775100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>1124300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>622000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,23 +1737,26 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4400</v>
+        <v>7700</v>
       </c>
       <c r="E47" s="3">
-        <v>3300</v>
+        <v>1900</v>
       </c>
       <c r="F47" s="3">
-        <v>900</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1767,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>62200</v>
+        <v>102800</v>
       </c>
       <c r="E48" s="3">
-        <v>44300</v>
+        <v>49900</v>
       </c>
       <c r="F48" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>35500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>17500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,23 +1797,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>71800</v>
+        <v>70000</v>
       </c>
       <c r="E49" s="3">
-        <v>54700</v>
+        <v>57700</v>
       </c>
       <c r="F49" s="3">
-        <v>56000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>43900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>44900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1887,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61300</v>
+        <v>44500</v>
       </c>
       <c r="E52" s="3">
-        <v>46300</v>
+        <v>50800</v>
       </c>
       <c r="F52" s="3">
-        <v>42700</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>37800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>34300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3104200</v>
+        <v>3674100</v>
       </c>
       <c r="E54" s="3">
-        <v>1549600</v>
+        <v>2491100</v>
       </c>
       <c r="F54" s="3">
-        <v>896500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1243500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>719500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2008,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1194200</v>
+        <v>1236400</v>
       </c>
       <c r="E57" s="3">
-        <v>861900</v>
+        <v>958400</v>
       </c>
       <c r="F57" s="3">
-        <v>716300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>691600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>574800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,23 +2035,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>181600</v>
+        <v>944300</v>
       </c>
       <c r="E58" s="3">
-        <v>5300</v>
+        <v>145700</v>
       </c>
       <c r="F58" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38100</v>
+        <v>44200</v>
       </c>
       <c r="E59" s="3">
-        <v>25800</v>
+        <v>30600</v>
       </c>
       <c r="F59" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>20700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>5900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1413900</v>
+        <v>2224900</v>
       </c>
       <c r="E60" s="3">
-        <v>892900</v>
+        <v>1134700</v>
       </c>
       <c r="F60" s="3">
-        <v>729000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>716500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>585000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,23 +2125,26 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>480900</v>
+        <v>320000</v>
       </c>
       <c r="E61" s="3">
-        <v>480900</v>
+        <v>385900</v>
       </c>
       <c r="F61" s="3">
-        <v>4200</v>
+        <v>385900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2013,23 +2155,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20100</v>
+        <v>9900</v>
       </c>
       <c r="E62" s="3">
-        <v>63100</v>
+        <v>16100</v>
       </c>
       <c r="F62" s="3">
-        <v>26200</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>50600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>21000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1914800</v>
+        <v>2554900</v>
       </c>
       <c r="E66" s="3">
-        <v>1440400</v>
+        <v>1536700</v>
       </c>
       <c r="F66" s="3">
-        <v>773000</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>1156000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>620300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1202500</v>
+        <v>1132800</v>
       </c>
       <c r="E72" s="3">
-        <v>108500</v>
+        <v>965000</v>
       </c>
       <c r="F72" s="3">
-        <v>123600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>87100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>99200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1189400</v>
+        <v>1119200</v>
       </c>
       <c r="E76" s="3">
-        <v>109100</v>
+        <v>954500</v>
       </c>
       <c r="F76" s="3">
-        <v>123600</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>87600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>99200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>70400</v>
+        <v>148600</v>
       </c>
       <c r="E81" s="3">
-        <v>-24900</v>
+        <v>55800</v>
       </c>
       <c r="F81" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-19700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-21600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21600</v>
+        <v>30200</v>
       </c>
       <c r="E83" s="3">
-        <v>13400</v>
+        <v>17100</v>
       </c>
       <c r="F83" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>7900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-564100</v>
+        <v>-490700</v>
       </c>
       <c r="E89" s="3">
-        <v>-299800</v>
+        <v>-447000</v>
       </c>
       <c r="F89" s="3">
-        <v>-115200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-237600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-91300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32900</v>
+        <v>-61700</v>
       </c>
       <c r="E91" s="3">
-        <v>-32900</v>
+        <v>-26100</v>
       </c>
       <c r="F91" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-26100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-5900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-639200</v>
+        <v>-81000</v>
       </c>
       <c r="E94" s="3">
-        <v>-70000</v>
+        <v>-506400</v>
       </c>
       <c r="F94" s="3">
-        <v>44300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-55400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>35100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1119700</v>
+        <v>695300</v>
       </c>
       <c r="E100" s="3">
-        <v>479500</v>
+        <v>887200</v>
       </c>
       <c r="F100" s="3">
-        <v>88300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>379900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>69900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,23 +3206,26 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3200</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-80300</v>
+        <v>124000</v>
       </c>
       <c r="E102" s="3">
-        <v>110100</v>
+        <v>-63700</v>
       </c>
       <c r="F102" s="3">
-        <v>20300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>87200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>16100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>476600</v>
+        <v>459600</v>
       </c>
       <c r="E8" s="3">
-        <v>292200</v>
+        <v>281700</v>
       </c>
       <c r="F8" s="3">
-        <v>141800</v>
+        <v>136800</v>
       </c>
       <c r="G8" s="3">
-        <v>81400</v>
+        <v>78500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>79000</v>
+        <v>76200</v>
       </c>
       <c r="E9" s="3">
-        <v>59800</v>
+        <v>57600</v>
       </c>
       <c r="F9" s="3">
-        <v>41500</v>
+        <v>40000</v>
       </c>
       <c r="G9" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>397600</v>
+        <v>383400</v>
       </c>
       <c r="E10" s="3">
-        <v>232400</v>
+        <v>224100</v>
       </c>
       <c r="F10" s="3">
-        <v>100400</v>
+        <v>96800</v>
       </c>
       <c r="G10" s="3">
-        <v>56800</v>
+        <v>54700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="E15" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="F15" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G15" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>209300</v>
+        <v>201800</v>
       </c>
       <c r="E17" s="3">
-        <v>154600</v>
+        <v>149000</v>
       </c>
       <c r="F17" s="3">
-        <v>115600</v>
+        <v>111500</v>
       </c>
       <c r="G17" s="3">
-        <v>63700</v>
+        <v>61500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>267400</v>
+        <v>257800</v>
       </c>
       <c r="E18" s="3">
-        <v>137600</v>
+        <v>132700</v>
       </c>
       <c r="F18" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="G18" s="3">
-        <v>17700</v>
+        <v>17000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-65500</v>
+        <v>-63200</v>
       </c>
       <c r="E20" s="3">
-        <v>-55800</v>
+        <v>-53800</v>
       </c>
       <c r="F20" s="3">
-        <v>-43900</v>
+        <v>-42400</v>
       </c>
       <c r="G20" s="3">
-        <v>-45300</v>
+        <v>-43600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>232800</v>
+        <v>224200</v>
       </c>
       <c r="E21" s="3">
-        <v>99400</v>
+        <v>95700</v>
       </c>
       <c r="F21" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G21" s="3">
-        <v>-19500</v>
+        <v>-18800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>201800</v>
+        <v>194600</v>
       </c>
       <c r="E23" s="3">
-        <v>81800</v>
+        <v>78900</v>
       </c>
       <c r="F23" s="3">
-        <v>-17700</v>
+        <v>-17100</v>
       </c>
       <c r="G23" s="3">
-        <v>-27600</v>
+        <v>-26600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53000</v>
+        <v>51100</v>
       </c>
       <c r="E24" s="3">
-        <v>25400</v>
+        <v>24500</v>
       </c>
       <c r="F24" s="3">
         <v>1700</v>
       </c>
       <c r="G24" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>148800</v>
+        <v>143500</v>
       </c>
       <c r="E26" s="3">
-        <v>56500</v>
+        <v>54500</v>
       </c>
       <c r="F26" s="3">
-        <v>-19400</v>
+        <v>-18700</v>
       </c>
       <c r="G26" s="3">
-        <v>-22600</v>
+        <v>-21800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>148600</v>
+        <v>143300</v>
       </c>
       <c r="E27" s="3">
-        <v>55800</v>
+        <v>53800</v>
       </c>
       <c r="F27" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="G27" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>65500</v>
+        <v>63200</v>
       </c>
       <c r="E32" s="3">
-        <v>55800</v>
+        <v>53800</v>
       </c>
       <c r="F32" s="3">
-        <v>43900</v>
+        <v>42400</v>
       </c>
       <c r="G32" s="3">
-        <v>45300</v>
+        <v>43600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>148600</v>
+        <v>143300</v>
       </c>
       <c r="E33" s="3">
-        <v>55800</v>
+        <v>53800</v>
       </c>
       <c r="F33" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="G33" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>148600</v>
+        <v>143300</v>
       </c>
       <c r="E35" s="3">
-        <v>55800</v>
+        <v>53800</v>
       </c>
       <c r="F35" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="G35" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181500</v>
+        <v>172800</v>
       </c>
       <c r="E41" s="3">
-        <v>55800</v>
+        <v>53200</v>
       </c>
       <c r="F41" s="3">
-        <v>120300</v>
+        <v>114500</v>
       </c>
       <c r="G41" s="3">
-        <v>32000</v>
+        <v>30400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>550400</v>
+        <v>524000</v>
       </c>
       <c r="E42" s="3">
-        <v>519200</v>
+        <v>494300</v>
       </c>
       <c r="F42" s="3">
-        <v>37800</v>
+        <v>36000</v>
       </c>
       <c r="G42" s="3">
-        <v>12400</v>
+        <v>11800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2692300</v>
+        <v>2563000</v>
       </c>
       <c r="E43" s="3">
-        <v>1751500</v>
+        <v>1667400</v>
       </c>
       <c r="F43" s="3">
-        <v>963400</v>
+        <v>917100</v>
       </c>
       <c r="G43" s="3">
-        <v>575600</v>
+        <v>548000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="E45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3449100</v>
+        <v>3283400</v>
       </c>
       <c r="E46" s="3">
-        <v>2330800</v>
+        <v>2218900</v>
       </c>
       <c r="F46" s="3">
-        <v>1124300</v>
+        <v>1070300</v>
       </c>
       <c r="G46" s="3">
-        <v>622000</v>
+        <v>592100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="E47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F47" s="3">
         <v>1900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2000</v>
       </c>
       <c r="G47" s="3">
         <v>700</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>102800</v>
+        <v>97900</v>
       </c>
       <c r="E48" s="3">
-        <v>49900</v>
+        <v>47500</v>
       </c>
       <c r="F48" s="3">
-        <v>35500</v>
+        <v>33800</v>
       </c>
       <c r="G48" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70000</v>
+        <v>66700</v>
       </c>
       <c r="E49" s="3">
-        <v>57700</v>
+        <v>54900</v>
       </c>
       <c r="F49" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="G49" s="3">
-        <v>44900</v>
+        <v>42800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44500</v>
+        <v>42400</v>
       </c>
       <c r="E52" s="3">
-        <v>50800</v>
+        <v>48400</v>
       </c>
       <c r="F52" s="3">
-        <v>37800</v>
+        <v>36000</v>
       </c>
       <c r="G52" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3674100</v>
+        <v>3497700</v>
       </c>
       <c r="E54" s="3">
-        <v>2491100</v>
+        <v>2371500</v>
       </c>
       <c r="F54" s="3">
-        <v>1243500</v>
+        <v>1183800</v>
       </c>
       <c r="G54" s="3">
-        <v>719500</v>
+        <v>684900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1236400</v>
+        <v>1177100</v>
       </c>
       <c r="E57" s="3">
-        <v>958400</v>
+        <v>912300</v>
       </c>
       <c r="F57" s="3">
-        <v>691600</v>
+        <v>658400</v>
       </c>
       <c r="G57" s="3">
-        <v>574800</v>
+        <v>547200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>944300</v>
+        <v>898900</v>
       </c>
       <c r="E58" s="3">
-        <v>145700</v>
+        <v>138700</v>
       </c>
       <c r="F58" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G58" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44200</v>
+        <v>42100</v>
       </c>
       <c r="E59" s="3">
-        <v>30600</v>
+        <v>29100</v>
       </c>
       <c r="F59" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="G59" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2224900</v>
+        <v>2118100</v>
       </c>
       <c r="E60" s="3">
-        <v>1134700</v>
+        <v>1080200</v>
       </c>
       <c r="F60" s="3">
-        <v>716500</v>
+        <v>682100</v>
       </c>
       <c r="G60" s="3">
-        <v>585000</v>
+        <v>556900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>320000</v>
+        <v>304600</v>
       </c>
       <c r="E61" s="3">
-        <v>385900</v>
+        <v>367400</v>
       </c>
       <c r="F61" s="3">
-        <v>385900</v>
+        <v>367400</v>
       </c>
       <c r="G61" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="E62" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="F62" s="3">
-        <v>50600</v>
+        <v>48200</v>
       </c>
       <c r="G62" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2554900</v>
+        <v>2432200</v>
       </c>
       <c r="E66" s="3">
-        <v>1536700</v>
+        <v>1462900</v>
       </c>
       <c r="F66" s="3">
-        <v>1156000</v>
+        <v>1100400</v>
       </c>
       <c r="G66" s="3">
-        <v>620300</v>
+        <v>590500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1132800</v>
+        <v>1078400</v>
       </c>
       <c r="E72" s="3">
-        <v>965000</v>
+        <v>918700</v>
       </c>
       <c r="F72" s="3">
-        <v>87100</v>
+        <v>82900</v>
       </c>
       <c r="G72" s="3">
-        <v>99200</v>
+        <v>94400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1119200</v>
+        <v>1065500</v>
       </c>
       <c r="E76" s="3">
-        <v>954500</v>
+        <v>908600</v>
       </c>
       <c r="F76" s="3">
-        <v>87600</v>
+        <v>83400</v>
       </c>
       <c r="G76" s="3">
-        <v>99200</v>
+        <v>94400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>148600</v>
+        <v>143300</v>
       </c>
       <c r="E81" s="3">
-        <v>55800</v>
+        <v>53800</v>
       </c>
       <c r="F81" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="G81" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30200</v>
+        <v>29100</v>
       </c>
       <c r="E83" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="F83" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="G83" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-490700</v>
+        <v>-473100</v>
       </c>
       <c r="E89" s="3">
-        <v>-447000</v>
+        <v>-430900</v>
       </c>
       <c r="F89" s="3">
-        <v>-237600</v>
+        <v>-229100</v>
       </c>
       <c r="G89" s="3">
-        <v>-91300</v>
+        <v>-88000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61700</v>
+        <v>-59500</v>
       </c>
       <c r="E91" s="3">
-        <v>-26100</v>
+        <v>-25100</v>
       </c>
       <c r="F91" s="3">
-        <v>-26100</v>
+        <v>-25200</v>
       </c>
       <c r="G91" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81000</v>
+        <v>-78100</v>
       </c>
       <c r="E94" s="3">
-        <v>-506400</v>
+        <v>-488300</v>
       </c>
       <c r="F94" s="3">
-        <v>-55400</v>
+        <v>-53500</v>
       </c>
       <c r="G94" s="3">
-        <v>35100</v>
+        <v>33900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>695300</v>
+        <v>670400</v>
       </c>
       <c r="E100" s="3">
-        <v>887200</v>
+        <v>855400</v>
       </c>
       <c r="F100" s="3">
-        <v>379900</v>
+        <v>366300</v>
       </c>
       <c r="G100" s="3">
-        <v>69900</v>
+        <v>67400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3225,7 +3225,7 @@
         <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>124000</v>
+        <v>119600</v>
       </c>
       <c r="E102" s="3">
-        <v>-63700</v>
+        <v>-61400</v>
       </c>
       <c r="F102" s="3">
-        <v>87200</v>
+        <v>84100</v>
       </c>
       <c r="G102" s="3">
-        <v>16100</v>
+        <v>15500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>459600</v>
+        <v>482000</v>
       </c>
       <c r="E8" s="3">
-        <v>281700</v>
+        <v>295500</v>
       </c>
       <c r="F8" s="3">
-        <v>136800</v>
+        <v>143500</v>
       </c>
       <c r="G8" s="3">
-        <v>78500</v>
+        <v>82300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>76200</v>
+        <v>79900</v>
       </c>
       <c r="E9" s="3">
-        <v>57600</v>
+        <v>60500</v>
       </c>
       <c r="F9" s="3">
-        <v>40000</v>
+        <v>41900</v>
       </c>
       <c r="G9" s="3">
-        <v>23800</v>
+        <v>24900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>383400</v>
+        <v>402100</v>
       </c>
       <c r="E10" s="3">
-        <v>224100</v>
+        <v>235100</v>
       </c>
       <c r="F10" s="3">
-        <v>96800</v>
+        <v>101500</v>
       </c>
       <c r="G10" s="3">
-        <v>54700</v>
+        <v>57400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11300</v>
+        <v>11900</v>
       </c>
       <c r="E15" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="F15" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="G15" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>201800</v>
+        <v>211700</v>
       </c>
       <c r="E17" s="3">
-        <v>149000</v>
+        <v>156300</v>
       </c>
       <c r="F17" s="3">
-        <v>111500</v>
+        <v>116900</v>
       </c>
       <c r="G17" s="3">
-        <v>61500</v>
+        <v>64500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>257800</v>
+        <v>270400</v>
       </c>
       <c r="E18" s="3">
-        <v>132700</v>
+        <v>139200</v>
       </c>
       <c r="F18" s="3">
-        <v>25300</v>
+        <v>26500</v>
       </c>
       <c r="G18" s="3">
-        <v>17000</v>
+        <v>17900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-63200</v>
+        <v>-66300</v>
       </c>
       <c r="E20" s="3">
-        <v>-53800</v>
+        <v>-56400</v>
       </c>
       <c r="F20" s="3">
-        <v>-42400</v>
+        <v>-44400</v>
       </c>
       <c r="G20" s="3">
-        <v>-43600</v>
+        <v>-45800</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>224200</v>
+        <v>234700</v>
       </c>
       <c r="E21" s="3">
-        <v>95700</v>
+        <v>100100</v>
       </c>
       <c r="F21" s="3">
-        <v>-6700</v>
+        <v>-7200</v>
       </c>
       <c r="G21" s="3">
-        <v>-18800</v>
+        <v>-19900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>194600</v>
+        <v>204100</v>
       </c>
       <c r="E23" s="3">
-        <v>78900</v>
+        <v>82800</v>
       </c>
       <c r="F23" s="3">
-        <v>-17100</v>
+        <v>-17900</v>
       </c>
       <c r="G23" s="3">
-        <v>-26600</v>
+        <v>-27900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51100</v>
+        <v>53600</v>
       </c>
       <c r="E24" s="3">
-        <v>24500</v>
+        <v>25700</v>
       </c>
       <c r="F24" s="3">
         <v>1700</v>
       </c>
       <c r="G24" s="3">
-        <v>-4800</v>
+        <v>-5100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>143500</v>
+        <v>150500</v>
       </c>
       <c r="E26" s="3">
-        <v>54500</v>
+        <v>57100</v>
       </c>
       <c r="F26" s="3">
-        <v>-18700</v>
+        <v>-19600</v>
       </c>
       <c r="G26" s="3">
-        <v>-21800</v>
+        <v>-22900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>143300</v>
+        <v>150300</v>
       </c>
       <c r="E27" s="3">
-        <v>53800</v>
+        <v>56400</v>
       </c>
       <c r="F27" s="3">
-        <v>-19000</v>
+        <v>-20000</v>
       </c>
       <c r="G27" s="3">
-        <v>-20900</v>
+        <v>-21900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>63200</v>
+        <v>66300</v>
       </c>
       <c r="E32" s="3">
-        <v>53800</v>
+        <v>56400</v>
       </c>
       <c r="F32" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="G32" s="3">
-        <v>43600</v>
+        <v>45800</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>143300</v>
+        <v>150300</v>
       </c>
       <c r="E33" s="3">
-        <v>53800</v>
+        <v>56400</v>
       </c>
       <c r="F33" s="3">
-        <v>-19000</v>
+        <v>-20000</v>
       </c>
       <c r="G33" s="3">
-        <v>-20900</v>
+        <v>-21900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>143300</v>
+        <v>150300</v>
       </c>
       <c r="E35" s="3">
-        <v>53800</v>
+        <v>56400</v>
       </c>
       <c r="F35" s="3">
-        <v>-19000</v>
+        <v>-20000</v>
       </c>
       <c r="G35" s="3">
-        <v>-20900</v>
+        <v>-21900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>172800</v>
+        <v>181200</v>
       </c>
       <c r="E41" s="3">
-        <v>53200</v>
+        <v>55800</v>
       </c>
       <c r="F41" s="3">
-        <v>114500</v>
+        <v>120100</v>
       </c>
       <c r="G41" s="3">
-        <v>30400</v>
+        <v>31900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>524000</v>
+        <v>549600</v>
       </c>
       <c r="E42" s="3">
-        <v>494300</v>
+        <v>518500</v>
       </c>
       <c r="F42" s="3">
-        <v>36000</v>
+        <v>37800</v>
       </c>
       <c r="G42" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2563000</v>
+        <v>2688400</v>
       </c>
       <c r="E43" s="3">
-        <v>1667400</v>
+        <v>1748900</v>
       </c>
       <c r="F43" s="3">
-        <v>917100</v>
+        <v>962000</v>
       </c>
       <c r="G43" s="3">
-        <v>548000</v>
+        <v>574800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23700</v>
+        <v>24900</v>
       </c>
       <c r="E45" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="F45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3283400</v>
+        <v>3444100</v>
       </c>
       <c r="E46" s="3">
-        <v>2218900</v>
+        <v>2327500</v>
       </c>
       <c r="F46" s="3">
-        <v>1070300</v>
+        <v>1122700</v>
       </c>
       <c r="G46" s="3">
-        <v>592100</v>
+        <v>621100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="E47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="3">
         <v>700</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97900</v>
+        <v>102700</v>
       </c>
       <c r="E48" s="3">
-        <v>47500</v>
+        <v>49800</v>
       </c>
       <c r="F48" s="3">
-        <v>33800</v>
+        <v>35500</v>
       </c>
       <c r="G48" s="3">
-        <v>16700</v>
+        <v>17500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>66700</v>
+        <v>69900</v>
       </c>
       <c r="E49" s="3">
-        <v>54900</v>
+        <v>57600</v>
       </c>
       <c r="F49" s="3">
-        <v>41800</v>
+        <v>43800</v>
       </c>
       <c r="G49" s="3">
-        <v>42800</v>
+        <v>44900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="E52" s="3">
-        <v>48400</v>
+        <v>50700</v>
       </c>
       <c r="F52" s="3">
-        <v>36000</v>
+        <v>37700</v>
       </c>
       <c r="G52" s="3">
-        <v>32700</v>
+        <v>34300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3497700</v>
+        <v>3668800</v>
       </c>
       <c r="E54" s="3">
-        <v>2371500</v>
+        <v>2487600</v>
       </c>
       <c r="F54" s="3">
-        <v>1183800</v>
+        <v>1241700</v>
       </c>
       <c r="G54" s="3">
-        <v>684900</v>
+        <v>718400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1177100</v>
+        <v>1234700</v>
       </c>
       <c r="E57" s="3">
-        <v>912300</v>
+        <v>957000</v>
       </c>
       <c r="F57" s="3">
-        <v>658400</v>
+        <v>690600</v>
       </c>
       <c r="G57" s="3">
-        <v>547200</v>
+        <v>574000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>898900</v>
+        <v>942900</v>
       </c>
       <c r="E58" s="3">
-        <v>138700</v>
+        <v>145500</v>
       </c>
       <c r="F58" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G58" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42100</v>
+        <v>44100</v>
       </c>
       <c r="E59" s="3">
-        <v>29100</v>
+        <v>30500</v>
       </c>
       <c r="F59" s="3">
-        <v>19700</v>
+        <v>20600</v>
       </c>
       <c r="G59" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2118100</v>
+        <v>2221700</v>
       </c>
       <c r="E60" s="3">
-        <v>1080200</v>
+        <v>1133000</v>
       </c>
       <c r="F60" s="3">
-        <v>682100</v>
+        <v>715500</v>
       </c>
       <c r="G60" s="3">
-        <v>556900</v>
+        <v>584200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>304600</v>
+        <v>319500</v>
       </c>
       <c r="E61" s="3">
-        <v>367400</v>
+        <v>385400</v>
       </c>
       <c r="F61" s="3">
-        <v>367400</v>
+        <v>385400</v>
       </c>
       <c r="G61" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="E62" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="F62" s="3">
-        <v>48200</v>
+        <v>50600</v>
       </c>
       <c r="G62" s="3">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2432200</v>
+        <v>2551200</v>
       </c>
       <c r="E66" s="3">
-        <v>1462900</v>
+        <v>1534400</v>
       </c>
       <c r="F66" s="3">
-        <v>1100400</v>
+        <v>1154300</v>
       </c>
       <c r="G66" s="3">
-        <v>590500</v>
+        <v>619400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1078400</v>
+        <v>1131200</v>
       </c>
       <c r="E72" s="3">
-        <v>918700</v>
+        <v>963600</v>
       </c>
       <c r="F72" s="3">
-        <v>82900</v>
+        <v>87000</v>
       </c>
       <c r="G72" s="3">
-        <v>94400</v>
+        <v>99000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1065500</v>
+        <v>1117600</v>
       </c>
       <c r="E76" s="3">
-        <v>908600</v>
+        <v>953100</v>
       </c>
       <c r="F76" s="3">
-        <v>83400</v>
+        <v>87500</v>
       </c>
       <c r="G76" s="3">
-        <v>94400</v>
+        <v>99000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>143300</v>
+        <v>150300</v>
       </c>
       <c r="E81" s="3">
-        <v>53800</v>
+        <v>56400</v>
       </c>
       <c r="F81" s="3">
-        <v>-19000</v>
+        <v>-20000</v>
       </c>
       <c r="G81" s="3">
-        <v>-20900</v>
+        <v>-21900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29100</v>
+        <v>30600</v>
       </c>
       <c r="E83" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="F83" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="G83" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-473100</v>
+        <v>-496200</v>
       </c>
       <c r="E89" s="3">
-        <v>-430900</v>
+        <v>-452000</v>
       </c>
       <c r="F89" s="3">
-        <v>-229100</v>
+        <v>-240300</v>
       </c>
       <c r="G89" s="3">
-        <v>-88000</v>
+        <v>-92300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-59500</v>
+        <v>-62400</v>
       </c>
       <c r="E91" s="3">
-        <v>-25100</v>
+        <v>-26400</v>
       </c>
       <c r="F91" s="3">
-        <v>-25200</v>
+        <v>-26400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78100</v>
+        <v>-81900</v>
       </c>
       <c r="E94" s="3">
-        <v>-488300</v>
+        <v>-512200</v>
       </c>
       <c r="F94" s="3">
-        <v>-53500</v>
+        <v>-56100</v>
       </c>
       <c r="G94" s="3">
-        <v>33900</v>
+        <v>35500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>670400</v>
+        <v>703200</v>
       </c>
       <c r="E100" s="3">
-        <v>855400</v>
+        <v>897300</v>
       </c>
       <c r="F100" s="3">
-        <v>366300</v>
+        <v>384300</v>
       </c>
       <c r="G100" s="3">
-        <v>67400</v>
+        <v>70700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3219,13 +3219,13 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F101" s="3">
         <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>119600</v>
+        <v>125500</v>
       </c>
       <c r="E102" s="3">
-        <v>-61400</v>
+        <v>-64400</v>
       </c>
       <c r="F102" s="3">
-        <v>84100</v>
+        <v>88200</v>
       </c>
       <c r="G102" s="3">
-        <v>15500</v>
+        <v>16300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>482000</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>295500</v>
+        <v>456100</v>
       </c>
       <c r="F8" s="3">
-        <v>143500</v>
+        <v>279600</v>
       </c>
       <c r="G8" s="3">
-        <v>82300</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>135700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>77900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>79900</v>
+        <v>136300</v>
       </c>
       <c r="E9" s="3">
-        <v>60500</v>
+        <v>75600</v>
       </c>
       <c r="F9" s="3">
-        <v>41900</v>
+        <v>57200</v>
       </c>
       <c r="G9" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>39700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>23600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,26 +774,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>402100</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>235100</v>
+        <v>380500</v>
       </c>
       <c r="F10" s="3">
-        <v>101500</v>
+        <v>222400</v>
       </c>
       <c r="G10" s="3">
-        <v>57400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>96100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>54300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,26 +921,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>11900</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>7100</v>
+        <v>11200</v>
       </c>
       <c r="F15" s="3">
-        <v>4900</v>
+        <v>6800</v>
       </c>
       <c r="G15" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>211700</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>156300</v>
+        <v>200300</v>
       </c>
       <c r="F17" s="3">
-        <v>116900</v>
+        <v>147900</v>
       </c>
       <c r="G17" s="3">
-        <v>64500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>110600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>61000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>270400</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>139200</v>
+        <v>255900</v>
       </c>
       <c r="F18" s="3">
-        <v>26500</v>
+        <v>131700</v>
       </c>
       <c r="G18" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>16900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-66300</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-56400</v>
+        <v>-61900</v>
       </c>
       <c r="F20" s="3">
-        <v>-44400</v>
+        <v>-53400</v>
       </c>
       <c r="G20" s="3">
-        <v>-45800</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>-42000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-43300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>234700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>100100</v>
+        <v>223100</v>
       </c>
       <c r="F21" s="3">
-        <v>-7200</v>
+        <v>94800</v>
       </c>
       <c r="G21" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-18800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,56 +1113,62 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>204100</v>
+        <v>199700</v>
       </c>
       <c r="E23" s="3">
-        <v>82800</v>
+        <v>193100</v>
       </c>
       <c r="F23" s="3">
-        <v>-17900</v>
+        <v>78300</v>
       </c>
       <c r="G23" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-16900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-26400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,26 +1179,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>53600</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>25700</v>
+        <v>50700</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>24300</v>
       </c>
       <c r="G24" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-4800</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>150500</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>57100</v>
+        <v>142400</v>
       </c>
       <c r="F26" s="3">
-        <v>-19600</v>
+        <v>54000</v>
       </c>
       <c r="G26" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-18600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-21600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>150300</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>56400</v>
+        <v>142200</v>
       </c>
       <c r="F27" s="3">
-        <v>-20000</v>
+        <v>53400</v>
       </c>
       <c r="G27" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-20700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>66300</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>56400</v>
+        <v>61900</v>
       </c>
       <c r="F32" s="3">
-        <v>44400</v>
+        <v>53400</v>
       </c>
       <c r="G32" s="3">
-        <v>45800</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>42000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43300</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>150300</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>56400</v>
+        <v>142200</v>
       </c>
       <c r="F33" s="3">
-        <v>-20000</v>
+        <v>53400</v>
       </c>
       <c r="G33" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-20700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>150300</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>56400</v>
+        <v>142200</v>
       </c>
       <c r="F35" s="3">
-        <v>-20000</v>
+        <v>53400</v>
       </c>
       <c r="G35" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-20700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181200</v>
+        <v>433300</v>
       </c>
       <c r="E41" s="3">
-        <v>55800</v>
+        <v>171500</v>
       </c>
       <c r="F41" s="3">
-        <v>120100</v>
+        <v>52800</v>
       </c>
       <c r="G41" s="3">
-        <v>31900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>113700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>30200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,26 +1676,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>549600</v>
+        <v>1439200</v>
       </c>
       <c r="E42" s="3">
-        <v>518500</v>
+        <v>520100</v>
       </c>
       <c r="F42" s="3">
-        <v>37800</v>
+        <v>490600</v>
       </c>
       <c r="G42" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>35700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>11700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2688400</v>
+        <v>3148200</v>
       </c>
       <c r="E43" s="3">
-        <v>1748900</v>
+        <v>2543900</v>
       </c>
       <c r="F43" s="3">
-        <v>962000</v>
+        <v>1654900</v>
       </c>
       <c r="G43" s="3">
-        <v>574800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>910300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>543900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,26 +1775,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24900</v>
+        <v>162900</v>
       </c>
       <c r="E45" s="3">
-        <v>4300</v>
+        <v>23500</v>
       </c>
       <c r="F45" s="3">
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3444100</v>
+        <v>5183700</v>
       </c>
       <c r="E46" s="3">
-        <v>2327500</v>
+        <v>3259000</v>
       </c>
       <c r="F46" s="3">
-        <v>1122700</v>
+        <v>2202400</v>
       </c>
       <c r="G46" s="3">
-        <v>621100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>1062300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>587700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,27 +1841,30 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7700</v>
+        <v>78100</v>
       </c>
       <c r="E47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G47" s="3">
         <v>1900</v>
       </c>
-      <c r="F47" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,26 +1874,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>102700</v>
+        <v>127000</v>
       </c>
       <c r="E48" s="3">
-        <v>49800</v>
+        <v>97100</v>
       </c>
       <c r="F48" s="3">
-        <v>35500</v>
+        <v>47100</v>
       </c>
       <c r="G48" s="3">
-        <v>17500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>33600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>16500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,26 +1907,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>69900</v>
+        <v>184100</v>
       </c>
       <c r="E49" s="3">
-        <v>57600</v>
+        <v>66200</v>
       </c>
       <c r="F49" s="3">
-        <v>43800</v>
+        <v>54500</v>
       </c>
       <c r="G49" s="3">
-        <v>44900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>41400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>42400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44400</v>
+        <v>48800</v>
       </c>
       <c r="E52" s="3">
-        <v>50700</v>
+        <v>42000</v>
       </c>
       <c r="F52" s="3">
-        <v>37700</v>
+        <v>48000</v>
       </c>
       <c r="G52" s="3">
-        <v>34300</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>35700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>32400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3668800</v>
+        <v>5621700</v>
       </c>
       <c r="E54" s="3">
-        <v>2487600</v>
+        <v>3471600</v>
       </c>
       <c r="F54" s="3">
-        <v>1241700</v>
+        <v>2353800</v>
       </c>
       <c r="G54" s="3">
-        <v>718400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1175000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>679800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1234700</v>
+        <v>1656100</v>
       </c>
       <c r="E57" s="3">
-        <v>957000</v>
+        <v>1168300</v>
       </c>
       <c r="F57" s="3">
-        <v>690600</v>
+        <v>905500</v>
       </c>
       <c r="G57" s="3">
-        <v>574000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>653500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>543200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>942900</v>
+        <v>556800</v>
       </c>
       <c r="E58" s="3">
-        <v>145500</v>
+        <v>892200</v>
       </c>
       <c r="F58" s="3">
-        <v>4200</v>
+        <v>137700</v>
       </c>
       <c r="G58" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>4000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44100</v>
+        <v>156300</v>
       </c>
       <c r="E59" s="3">
-        <v>30500</v>
+        <v>41800</v>
       </c>
       <c r="F59" s="3">
-        <v>20600</v>
+        <v>28900</v>
       </c>
       <c r="G59" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2221700</v>
+        <v>2369300</v>
       </c>
       <c r="E60" s="3">
-        <v>1133000</v>
+        <v>2102300</v>
       </c>
       <c r="F60" s="3">
-        <v>715500</v>
+        <v>1072100</v>
       </c>
       <c r="G60" s="3">
-        <v>584200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>677000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>552800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,26 +2267,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>319500</v>
+        <v>520400</v>
       </c>
       <c r="E61" s="3">
-        <v>385400</v>
+        <v>302300</v>
       </c>
       <c r="F61" s="3">
-        <v>385400</v>
+        <v>364600</v>
       </c>
       <c r="G61" s="3">
-        <v>3400</v>
+        <v>364700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9900</v>
+        <v>77500</v>
       </c>
       <c r="E62" s="3">
-        <v>16100</v>
+        <v>9300</v>
       </c>
       <c r="F62" s="3">
-        <v>50600</v>
+        <v>15300</v>
       </c>
       <c r="G62" s="3">
-        <v>21000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>47900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2551200</v>
+        <v>2991600</v>
       </c>
       <c r="E66" s="3">
-        <v>1534400</v>
+        <v>2414100</v>
       </c>
       <c r="F66" s="3">
-        <v>1154300</v>
+        <v>1452000</v>
       </c>
       <c r="G66" s="3">
-        <v>619400</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>1092200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>586100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1131200</v>
+        <v>2644500</v>
       </c>
       <c r="E72" s="3">
-        <v>963600</v>
+        <v>1070300</v>
       </c>
       <c r="F72" s="3">
-        <v>87000</v>
+        <v>911800</v>
       </c>
       <c r="G72" s="3">
-        <v>99000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>82300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>93700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1117600</v>
+        <v>2630100</v>
       </c>
       <c r="E76" s="3">
-        <v>953100</v>
+        <v>1057500</v>
       </c>
       <c r="F76" s="3">
-        <v>87500</v>
+        <v>901900</v>
       </c>
       <c r="G76" s="3">
-        <v>99000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>82800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>93700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>150300</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>56400</v>
+        <v>142200</v>
       </c>
       <c r="F81" s="3">
-        <v>-20000</v>
+        <v>53400</v>
       </c>
       <c r="G81" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-20700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30600</v>
+        <v>45400</v>
       </c>
       <c r="E83" s="3">
-        <v>17300</v>
+        <v>28900</v>
       </c>
       <c r="F83" s="3">
-        <v>10700</v>
+        <v>16300</v>
       </c>
       <c r="G83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>10100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7600</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-496200</v>
+        <v>10000</v>
       </c>
       <c r="E89" s="3">
-        <v>-452000</v>
+        <v>-469600</v>
       </c>
       <c r="F89" s="3">
-        <v>-240300</v>
+        <v>-427700</v>
       </c>
       <c r="G89" s="3">
-        <v>-92300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-227300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-87400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62400</v>
+        <v>-65900</v>
       </c>
       <c r="E91" s="3">
-        <v>-26400</v>
+        <v>-59100</v>
       </c>
       <c r="F91" s="3">
-        <v>-26400</v>
+        <v>-24900</v>
       </c>
       <c r="G91" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-25000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81900</v>
+        <v>-1028600</v>
       </c>
       <c r="E94" s="3">
-        <v>-512200</v>
+        <v>-77500</v>
       </c>
       <c r="F94" s="3">
-        <v>-56100</v>
+        <v>-484700</v>
       </c>
       <c r="G94" s="3">
-        <v>35500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-53100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>33600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>703200</v>
+        <v>1277800</v>
       </c>
       <c r="E100" s="3">
-        <v>897300</v>
+        <v>665400</v>
       </c>
       <c r="F100" s="3">
-        <v>384300</v>
+        <v>849000</v>
       </c>
       <c r="G100" s="3">
-        <v>70700</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>363600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>66900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,26 +3454,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>2600</v>
-      </c>
       <c r="F101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>2200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>125500</v>
+        <v>261800</v>
       </c>
       <c r="E102" s="3">
-        <v>-64400</v>
+        <v>118700</v>
       </c>
       <c r="F102" s="3">
-        <v>88200</v>
+        <v>-60900</v>
       </c>
       <c r="G102" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>83500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>15400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -717,20 +717,20 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>620400</v>
       </c>
       <c r="E8" s="3">
-        <v>456100</v>
+        <v>483200</v>
       </c>
       <c r="F8" s="3">
-        <v>279600</v>
+        <v>296200</v>
       </c>
       <c r="G8" s="3">
-        <v>135700</v>
+        <v>143800</v>
       </c>
       <c r="H8" s="3">
-        <v>77900</v>
+        <v>82500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>136300</v>
+        <v>144400</v>
       </c>
       <c r="E9" s="3">
-        <v>75600</v>
+        <v>80100</v>
       </c>
       <c r="F9" s="3">
-        <v>57200</v>
+        <v>60600</v>
       </c>
       <c r="G9" s="3">
-        <v>39700</v>
+        <v>42000</v>
       </c>
       <c r="H9" s="3">
-        <v>23600</v>
+        <v>25000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -783,20 +783,20 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>476000</v>
       </c>
       <c r="E10" s="3">
-        <v>380500</v>
+        <v>403100</v>
       </c>
       <c r="F10" s="3">
-        <v>222400</v>
+        <v>235600</v>
       </c>
       <c r="G10" s="3">
-        <v>96100</v>
+        <v>101800</v>
       </c>
       <c r="H10" s="3">
-        <v>54300</v>
+        <v>57500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -930,20 +930,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>17600</v>
       </c>
       <c r="E15" s="3">
-        <v>11200</v>
+        <v>11900</v>
       </c>
       <c r="F15" s="3">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="G15" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="H15" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -975,20 +975,20 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>346200</v>
       </c>
       <c r="E17" s="3">
-        <v>200300</v>
+        <v>212200</v>
       </c>
       <c r="F17" s="3">
-        <v>147900</v>
+        <v>156700</v>
       </c>
       <c r="G17" s="3">
-        <v>110600</v>
+        <v>117200</v>
       </c>
       <c r="H17" s="3">
-        <v>61000</v>
+        <v>64600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1008,20 +1008,20 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>274200</v>
       </c>
       <c r="E18" s="3">
-        <v>255900</v>
+        <v>271000</v>
       </c>
       <c r="F18" s="3">
-        <v>131700</v>
+        <v>139500</v>
       </c>
       <c r="G18" s="3">
-        <v>25100</v>
+        <v>26600</v>
       </c>
       <c r="H18" s="3">
-        <v>16900</v>
+        <v>17900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1056,20 +1056,20 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-62700</v>
       </c>
       <c r="E20" s="3">
-        <v>-61900</v>
+        <v>-65500</v>
       </c>
       <c r="F20" s="3">
-        <v>-53400</v>
+        <v>-56600</v>
       </c>
       <c r="G20" s="3">
-        <v>-42000</v>
+        <v>-44500</v>
       </c>
       <c r="H20" s="3">
-        <v>-43300</v>
+        <v>-45900</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1089,20 +1089,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>259700</v>
       </c>
       <c r="E21" s="3">
-        <v>223100</v>
+        <v>236200</v>
       </c>
       <c r="F21" s="3">
-        <v>94800</v>
+        <v>100300</v>
       </c>
       <c r="G21" s="3">
-        <v>-6800</v>
+        <v>-7200</v>
       </c>
       <c r="H21" s="3">
-        <v>-18800</v>
+        <v>-19900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>199700</v>
+        <v>211500</v>
       </c>
       <c r="E23" s="3">
-        <v>193100</v>
+        <v>204600</v>
       </c>
       <c r="F23" s="3">
-        <v>78300</v>
+        <v>83000</v>
       </c>
       <c r="G23" s="3">
-        <v>-16900</v>
+        <v>-17900</v>
       </c>
       <c r="H23" s="3">
-        <v>-26400</v>
+        <v>-28000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1188,20 +1188,20 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>54400</v>
       </c>
       <c r="E24" s="3">
-        <v>50700</v>
+        <v>53700</v>
       </c>
       <c r="F24" s="3">
-        <v>24300</v>
+        <v>25700</v>
       </c>
       <c r="G24" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H24" s="3">
-        <v>-4800</v>
+        <v>-5100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1254,20 +1254,20 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>157100</v>
       </c>
       <c r="E26" s="3">
-        <v>142400</v>
+        <v>150900</v>
       </c>
       <c r="F26" s="3">
-        <v>54000</v>
+        <v>57300</v>
       </c>
       <c r="G26" s="3">
-        <v>-18600</v>
+        <v>-19700</v>
       </c>
       <c r="H26" s="3">
-        <v>-21600</v>
+        <v>-22900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1287,20 +1287,20 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>160200</v>
       </c>
       <c r="E27" s="3">
-        <v>142200</v>
+        <v>150700</v>
       </c>
       <c r="F27" s="3">
-        <v>53400</v>
+        <v>56500</v>
       </c>
       <c r="G27" s="3">
-        <v>-18900</v>
+        <v>-20000</v>
       </c>
       <c r="H27" s="3">
-        <v>-20700</v>
+        <v>-21900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1452,20 +1452,20 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>62700</v>
       </c>
       <c r="E32" s="3">
-        <v>61900</v>
+        <v>65500</v>
       </c>
       <c r="F32" s="3">
-        <v>53400</v>
+        <v>56600</v>
       </c>
       <c r="G32" s="3">
-        <v>42000</v>
+        <v>44500</v>
       </c>
       <c r="H32" s="3">
-        <v>43300</v>
+        <v>45900</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1485,20 +1485,20 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>160200</v>
       </c>
       <c r="E33" s="3">
-        <v>142200</v>
+        <v>150700</v>
       </c>
       <c r="F33" s="3">
-        <v>53400</v>
+        <v>56500</v>
       </c>
       <c r="G33" s="3">
-        <v>-18900</v>
+        <v>-20000</v>
       </c>
       <c r="H33" s="3">
-        <v>-20700</v>
+        <v>-21900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1551,20 +1551,20 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>160200</v>
       </c>
       <c r="E35" s="3">
-        <v>142200</v>
+        <v>150700</v>
       </c>
       <c r="F35" s="3">
-        <v>53400</v>
+        <v>56500</v>
       </c>
       <c r="G35" s="3">
-        <v>-18900</v>
+        <v>-20000</v>
       </c>
       <c r="H35" s="3">
-        <v>-20700</v>
+        <v>-21900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>433300</v>
+        <v>459000</v>
       </c>
       <c r="E41" s="3">
-        <v>171500</v>
+        <v>181600</v>
       </c>
       <c r="F41" s="3">
-        <v>52800</v>
+        <v>55900</v>
       </c>
       <c r="G41" s="3">
-        <v>113700</v>
+        <v>120400</v>
       </c>
       <c r="H41" s="3">
-        <v>30200</v>
+        <v>32000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1439200</v>
+        <v>1524700</v>
       </c>
       <c r="E42" s="3">
-        <v>520100</v>
+        <v>550900</v>
       </c>
       <c r="F42" s="3">
-        <v>490600</v>
+        <v>519700</v>
       </c>
       <c r="G42" s="3">
-        <v>35700</v>
+        <v>37800</v>
       </c>
       <c r="H42" s="3">
-        <v>11700</v>
+        <v>12400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3148200</v>
+        <v>3335100</v>
       </c>
       <c r="E43" s="3">
-        <v>2543900</v>
+        <v>2694900</v>
       </c>
       <c r="F43" s="3">
-        <v>1654900</v>
+        <v>1753100</v>
       </c>
       <c r="G43" s="3">
-        <v>910300</v>
+        <v>964300</v>
       </c>
       <c r="H43" s="3">
-        <v>543900</v>
+        <v>576200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>162900</v>
+        <v>172600</v>
       </c>
       <c r="E45" s="3">
-        <v>23500</v>
+        <v>24900</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5183700</v>
+        <v>5491400</v>
       </c>
       <c r="E46" s="3">
-        <v>3259000</v>
+        <v>3452400</v>
       </c>
       <c r="F46" s="3">
-        <v>2202400</v>
+        <v>2333100</v>
       </c>
       <c r="G46" s="3">
-        <v>1062300</v>
+        <v>1125400</v>
       </c>
       <c r="H46" s="3">
-        <v>587700</v>
+        <v>622600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78100</v>
+        <v>82800</v>
       </c>
       <c r="E47" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="F47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
         <v>700</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>127000</v>
+        <v>134500</v>
       </c>
       <c r="E48" s="3">
-        <v>97100</v>
+        <v>102900</v>
       </c>
       <c r="F48" s="3">
-        <v>47100</v>
+        <v>49900</v>
       </c>
       <c r="G48" s="3">
-        <v>33600</v>
+        <v>35600</v>
       </c>
       <c r="H48" s="3">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>184100</v>
+        <v>195100</v>
       </c>
       <c r="E49" s="3">
-        <v>66200</v>
+        <v>70100</v>
       </c>
       <c r="F49" s="3">
-        <v>54500</v>
+        <v>57700</v>
       </c>
       <c r="G49" s="3">
-        <v>41400</v>
+        <v>43900</v>
       </c>
       <c r="H49" s="3">
-        <v>42400</v>
+        <v>45000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48800</v>
+        <v>51700</v>
       </c>
       <c r="E52" s="3">
-        <v>42000</v>
+        <v>44500</v>
       </c>
       <c r="F52" s="3">
-        <v>48000</v>
+        <v>50900</v>
       </c>
       <c r="G52" s="3">
-        <v>35700</v>
+        <v>37800</v>
       </c>
       <c r="H52" s="3">
-        <v>32400</v>
+        <v>34300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5621700</v>
+        <v>5955400</v>
       </c>
       <c r="E54" s="3">
-        <v>3471600</v>
+        <v>3677600</v>
       </c>
       <c r="F54" s="3">
-        <v>2353800</v>
+        <v>2493500</v>
       </c>
       <c r="G54" s="3">
-        <v>1175000</v>
+        <v>1244700</v>
       </c>
       <c r="H54" s="3">
-        <v>679800</v>
+        <v>720200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1656100</v>
+        <v>1754400</v>
       </c>
       <c r="E57" s="3">
-        <v>1168300</v>
+        <v>1237600</v>
       </c>
       <c r="F57" s="3">
-        <v>905500</v>
+        <v>959300</v>
       </c>
       <c r="G57" s="3">
-        <v>653500</v>
+        <v>692300</v>
       </c>
       <c r="H57" s="3">
-        <v>543200</v>
+        <v>575400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>556800</v>
+        <v>589900</v>
       </c>
       <c r="E58" s="3">
-        <v>892200</v>
+        <v>945200</v>
       </c>
       <c r="F58" s="3">
-        <v>137700</v>
+        <v>145900</v>
       </c>
       <c r="G58" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H58" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>156300</v>
+        <v>165600</v>
       </c>
       <c r="E59" s="3">
-        <v>41800</v>
+        <v>44300</v>
       </c>
       <c r="F59" s="3">
-        <v>28900</v>
+        <v>30600</v>
       </c>
       <c r="G59" s="3">
-        <v>19500</v>
+        <v>20700</v>
       </c>
       <c r="H59" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2369300</v>
+        <v>2509900</v>
       </c>
       <c r="E60" s="3">
-        <v>2102300</v>
+        <v>2227000</v>
       </c>
       <c r="F60" s="3">
-        <v>1072100</v>
+        <v>1135800</v>
       </c>
       <c r="G60" s="3">
-        <v>677000</v>
+        <v>717200</v>
       </c>
       <c r="H60" s="3">
-        <v>552800</v>
+        <v>585600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>520400</v>
+        <v>551300</v>
       </c>
       <c r="E61" s="3">
-        <v>302300</v>
+        <v>320300</v>
       </c>
       <c r="F61" s="3">
-        <v>364600</v>
+        <v>386300</v>
       </c>
       <c r="G61" s="3">
-        <v>364700</v>
+        <v>386300</v>
       </c>
       <c r="H61" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>77500</v>
+        <v>82100</v>
       </c>
       <c r="E62" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="F62" s="3">
-        <v>15300</v>
+        <v>16200</v>
       </c>
       <c r="G62" s="3">
-        <v>47900</v>
+        <v>50700</v>
       </c>
       <c r="H62" s="3">
-        <v>19800</v>
+        <v>21000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2991600</v>
+        <v>3169200</v>
       </c>
       <c r="E66" s="3">
-        <v>2414100</v>
+        <v>2557300</v>
       </c>
       <c r="F66" s="3">
-        <v>1452000</v>
+        <v>1538100</v>
       </c>
       <c r="G66" s="3">
-        <v>1092200</v>
+        <v>1157100</v>
       </c>
       <c r="H66" s="3">
-        <v>586100</v>
+        <v>620900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2644500</v>
+        <v>2801500</v>
       </c>
       <c r="E72" s="3">
-        <v>1070300</v>
+        <v>1133900</v>
       </c>
       <c r="F72" s="3">
-        <v>911800</v>
+        <v>966000</v>
       </c>
       <c r="G72" s="3">
-        <v>82300</v>
+        <v>87200</v>
       </c>
       <c r="H72" s="3">
-        <v>93700</v>
+        <v>99200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2630100</v>
+        <v>2786200</v>
       </c>
       <c r="E76" s="3">
-        <v>1057500</v>
+        <v>1120300</v>
       </c>
       <c r="F76" s="3">
-        <v>901900</v>
+        <v>955400</v>
       </c>
       <c r="G76" s="3">
-        <v>82800</v>
+        <v>87700</v>
       </c>
       <c r="H76" s="3">
-        <v>93700</v>
+        <v>99300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2857,20 +2857,20 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>160200</v>
       </c>
       <c r="E81" s="3">
-        <v>142200</v>
+        <v>150700</v>
       </c>
       <c r="F81" s="3">
-        <v>53400</v>
+        <v>56500</v>
       </c>
       <c r="G81" s="3">
-        <v>-18900</v>
+        <v>-20000</v>
       </c>
       <c r="H81" s="3">
-        <v>-20700</v>
+        <v>-21900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45400</v>
+        <v>48100</v>
       </c>
       <c r="E83" s="3">
-        <v>28900</v>
+        <v>30600</v>
       </c>
       <c r="F83" s="3">
-        <v>16300</v>
+        <v>17300</v>
       </c>
       <c r="G83" s="3">
-        <v>10100</v>
+        <v>10700</v>
       </c>
       <c r="H83" s="3">
-        <v>7600</v>
+        <v>8100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="E89" s="3">
-        <v>-469600</v>
+        <v>-497400</v>
       </c>
       <c r="F89" s="3">
-        <v>-427700</v>
+        <v>-453100</v>
       </c>
       <c r="G89" s="3">
-        <v>-227300</v>
+        <v>-240800</v>
       </c>
       <c r="H89" s="3">
-        <v>-87400</v>
+        <v>-92600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65900</v>
+        <v>-69800</v>
       </c>
       <c r="E91" s="3">
-        <v>-59100</v>
+        <v>-62600</v>
       </c>
       <c r="F91" s="3">
-        <v>-24900</v>
+        <v>-26400</v>
       </c>
       <c r="G91" s="3">
-        <v>-25000</v>
+        <v>-26400</v>
       </c>
       <c r="H91" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1028600</v>
+        <v>-1089600</v>
       </c>
       <c r="E94" s="3">
-        <v>-77500</v>
+        <v>-82100</v>
       </c>
       <c r="F94" s="3">
-        <v>-484700</v>
+        <v>-513400</v>
       </c>
       <c r="G94" s="3">
-        <v>-53100</v>
+        <v>-56200</v>
       </c>
       <c r="H94" s="3">
-        <v>33600</v>
+        <v>35600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1277800</v>
+        <v>1353600</v>
       </c>
       <c r="E100" s="3">
-        <v>665400</v>
+        <v>704900</v>
       </c>
       <c r="F100" s="3">
-        <v>849000</v>
+        <v>899400</v>
       </c>
       <c r="G100" s="3">
-        <v>363600</v>
+        <v>385200</v>
       </c>
       <c r="H100" s="3">
-        <v>66900</v>
+        <v>70900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>261800</v>
+        <v>277400</v>
       </c>
       <c r="E102" s="3">
-        <v>118700</v>
+        <v>125800</v>
       </c>
       <c r="F102" s="3">
-        <v>-60900</v>
+        <v>-64500</v>
       </c>
       <c r="G102" s="3">
-        <v>83500</v>
+        <v>88400</v>
       </c>
       <c r="H102" s="3">
-        <v>15400</v>
+        <v>16300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>620400</v>
+        <v>610900</v>
       </c>
       <c r="E8" s="3">
-        <v>483200</v>
+        <v>475800</v>
       </c>
       <c r="F8" s="3">
-        <v>296200</v>
+        <v>291700</v>
       </c>
       <c r="G8" s="3">
-        <v>143800</v>
+        <v>141600</v>
       </c>
       <c r="H8" s="3">
-        <v>82500</v>
+        <v>81300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>144400</v>
+        <v>142200</v>
       </c>
       <c r="E9" s="3">
-        <v>80100</v>
+        <v>78900</v>
       </c>
       <c r="F9" s="3">
-        <v>60600</v>
+        <v>59700</v>
       </c>
       <c r="G9" s="3">
-        <v>42000</v>
+        <v>41400</v>
       </c>
       <c r="H9" s="3">
-        <v>25000</v>
+        <v>24600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>476000</v>
+        <v>468700</v>
       </c>
       <c r="E10" s="3">
-        <v>403100</v>
+        <v>396900</v>
       </c>
       <c r="F10" s="3">
-        <v>235600</v>
+        <v>232000</v>
       </c>
       <c r="G10" s="3">
-        <v>101800</v>
+        <v>100200</v>
       </c>
       <c r="H10" s="3">
-        <v>57500</v>
+        <v>56700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="E15" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="F15" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="G15" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="H15" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>346200</v>
+        <v>340800</v>
       </c>
       <c r="E17" s="3">
-        <v>212200</v>
+        <v>208900</v>
       </c>
       <c r="F17" s="3">
-        <v>156700</v>
+        <v>154300</v>
       </c>
       <c r="G17" s="3">
-        <v>117200</v>
+        <v>115400</v>
       </c>
       <c r="H17" s="3">
-        <v>64600</v>
+        <v>63600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>274200</v>
+        <v>270000</v>
       </c>
       <c r="E18" s="3">
-        <v>271000</v>
+        <v>266900</v>
       </c>
       <c r="F18" s="3">
-        <v>139500</v>
+        <v>137400</v>
       </c>
       <c r="G18" s="3">
-        <v>26600</v>
+        <v>26200</v>
       </c>
       <c r="H18" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-62700</v>
+        <v>-61700</v>
       </c>
       <c r="E20" s="3">
-        <v>-65500</v>
+        <v>-64500</v>
       </c>
       <c r="F20" s="3">
-        <v>-56600</v>
+        <v>-55700</v>
       </c>
       <c r="G20" s="3">
-        <v>-44500</v>
+        <v>-43800</v>
       </c>
       <c r="H20" s="3">
-        <v>-45900</v>
+        <v>-45200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>259700</v>
+        <v>255900</v>
       </c>
       <c r="E21" s="3">
-        <v>236200</v>
+        <v>232700</v>
       </c>
       <c r="F21" s="3">
-        <v>100300</v>
+        <v>98900</v>
       </c>
       <c r="G21" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="H21" s="3">
-        <v>-19900</v>
+        <v>-19600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>211500</v>
+        <v>208300</v>
       </c>
       <c r="E23" s="3">
-        <v>204600</v>
+        <v>201400</v>
       </c>
       <c r="F23" s="3">
-        <v>83000</v>
+        <v>81700</v>
       </c>
       <c r="G23" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="H23" s="3">
-        <v>-28000</v>
+        <v>-27600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54400</v>
+        <v>53600</v>
       </c>
       <c r="E24" s="3">
-        <v>53700</v>
+        <v>52900</v>
       </c>
       <c r="F24" s="3">
-        <v>25700</v>
+        <v>25300</v>
       </c>
       <c r="G24" s="3">
         <v>1700</v>
       </c>
       <c r="H24" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>157100</v>
+        <v>154700</v>
       </c>
       <c r="E26" s="3">
-        <v>150900</v>
+        <v>148500</v>
       </c>
       <c r="F26" s="3">
-        <v>57300</v>
+        <v>56400</v>
       </c>
       <c r="G26" s="3">
-        <v>-19700</v>
+        <v>-19400</v>
       </c>
       <c r="H26" s="3">
-        <v>-22900</v>
+        <v>-22600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>160200</v>
+        <v>157700</v>
       </c>
       <c r="E27" s="3">
-        <v>150700</v>
+        <v>148400</v>
       </c>
       <c r="F27" s="3">
-        <v>56500</v>
+        <v>55700</v>
       </c>
       <c r="G27" s="3">
-        <v>-20000</v>
+        <v>-19700</v>
       </c>
       <c r="H27" s="3">
-        <v>-21900</v>
+        <v>-21600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>62700</v>
+        <v>61700</v>
       </c>
       <c r="E32" s="3">
-        <v>65500</v>
+        <v>64500</v>
       </c>
       <c r="F32" s="3">
-        <v>56600</v>
+        <v>55700</v>
       </c>
       <c r="G32" s="3">
-        <v>44500</v>
+        <v>43800</v>
       </c>
       <c r="H32" s="3">
-        <v>45900</v>
+        <v>45200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>160200</v>
+        <v>157700</v>
       </c>
       <c r="E33" s="3">
-        <v>150700</v>
+        <v>148400</v>
       </c>
       <c r="F33" s="3">
-        <v>56500</v>
+        <v>55700</v>
       </c>
       <c r="G33" s="3">
-        <v>-20000</v>
+        <v>-19700</v>
       </c>
       <c r="H33" s="3">
-        <v>-21900</v>
+        <v>-21600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>160200</v>
+        <v>157700</v>
       </c>
       <c r="E35" s="3">
-        <v>150700</v>
+        <v>148400</v>
       </c>
       <c r="F35" s="3">
-        <v>56500</v>
+        <v>55700</v>
       </c>
       <c r="G35" s="3">
-        <v>-20000</v>
+        <v>-19700</v>
       </c>
       <c r="H35" s="3">
-        <v>-21900</v>
+        <v>-21600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>459000</v>
+        <v>452000</v>
       </c>
       <c r="E41" s="3">
-        <v>181600</v>
+        <v>178900</v>
       </c>
       <c r="F41" s="3">
-        <v>55900</v>
+        <v>55000</v>
       </c>
       <c r="G41" s="3">
-        <v>120400</v>
+        <v>118600</v>
       </c>
       <c r="H41" s="3">
-        <v>32000</v>
+        <v>31500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1524700</v>
+        <v>1501300</v>
       </c>
       <c r="E42" s="3">
-        <v>550900</v>
+        <v>542500</v>
       </c>
       <c r="F42" s="3">
-        <v>519700</v>
+        <v>511700</v>
       </c>
       <c r="G42" s="3">
-        <v>37800</v>
+        <v>37300</v>
       </c>
       <c r="H42" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3335100</v>
+        <v>3283800</v>
       </c>
       <c r="E43" s="3">
-        <v>2694900</v>
+        <v>2653500</v>
       </c>
       <c r="F43" s="3">
-        <v>1753100</v>
+        <v>1726200</v>
       </c>
       <c r="G43" s="3">
-        <v>964300</v>
+        <v>949500</v>
       </c>
       <c r="H43" s="3">
-        <v>576200</v>
+        <v>567300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,10 +1785,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>172600</v>
+        <v>170000</v>
       </c>
       <c r="E45" s="3">
-        <v>24900</v>
+        <v>24500</v>
       </c>
       <c r="F45" s="3">
         <v>4300</v>
@@ -1797,7 +1797,7 @@
         <v>2800</v>
       </c>
       <c r="H45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5491400</v>
+        <v>5407100</v>
       </c>
       <c r="E46" s="3">
-        <v>3452400</v>
+        <v>3399400</v>
       </c>
       <c r="F46" s="3">
-        <v>2333100</v>
+        <v>2297300</v>
       </c>
       <c r="G46" s="3">
-        <v>1125400</v>
+        <v>1108100</v>
       </c>
       <c r="H46" s="3">
-        <v>622600</v>
+        <v>613000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82800</v>
+        <v>81500</v>
       </c>
       <c r="E47" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F47" s="3">
         <v>1900</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>134500</v>
+        <v>132500</v>
       </c>
       <c r="E48" s="3">
-        <v>102900</v>
+        <v>101300</v>
       </c>
       <c r="F48" s="3">
-        <v>49900</v>
+        <v>49200</v>
       </c>
       <c r="G48" s="3">
-        <v>35600</v>
+        <v>35000</v>
       </c>
       <c r="H48" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>195100</v>
+        <v>192100</v>
       </c>
       <c r="E49" s="3">
-        <v>70100</v>
+        <v>69000</v>
       </c>
       <c r="F49" s="3">
-        <v>57700</v>
+        <v>56800</v>
       </c>
       <c r="G49" s="3">
-        <v>43900</v>
+        <v>43200</v>
       </c>
       <c r="H49" s="3">
-        <v>45000</v>
+        <v>44300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>51700</v>
+        <v>50900</v>
       </c>
       <c r="E52" s="3">
-        <v>44500</v>
+        <v>43900</v>
       </c>
       <c r="F52" s="3">
-        <v>50900</v>
+        <v>50100</v>
       </c>
       <c r="G52" s="3">
-        <v>37800</v>
+        <v>37300</v>
       </c>
       <c r="H52" s="3">
-        <v>34300</v>
+        <v>33800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5955400</v>
+        <v>5864000</v>
       </c>
       <c r="E54" s="3">
-        <v>3677600</v>
+        <v>3621200</v>
       </c>
       <c r="F54" s="3">
-        <v>2493500</v>
+        <v>2455300</v>
       </c>
       <c r="G54" s="3">
-        <v>1244700</v>
+        <v>1225600</v>
       </c>
       <c r="H54" s="3">
-        <v>720200</v>
+        <v>709100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1754400</v>
+        <v>1727500</v>
       </c>
       <c r="E57" s="3">
-        <v>1237600</v>
+        <v>1218600</v>
       </c>
       <c r="F57" s="3">
-        <v>959300</v>
+        <v>944500</v>
       </c>
       <c r="G57" s="3">
-        <v>692300</v>
+        <v>681700</v>
       </c>
       <c r="H57" s="3">
-        <v>575400</v>
+        <v>566600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>589900</v>
+        <v>580900</v>
       </c>
       <c r="E58" s="3">
-        <v>945200</v>
+        <v>930600</v>
       </c>
       <c r="F58" s="3">
-        <v>145900</v>
+        <v>143600</v>
       </c>
       <c r="G58" s="3">
         <v>4200</v>
       </c>
       <c r="H58" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>165600</v>
+        <v>163000</v>
       </c>
       <c r="E59" s="3">
-        <v>44300</v>
+        <v>43600</v>
       </c>
       <c r="F59" s="3">
-        <v>30600</v>
+        <v>30100</v>
       </c>
       <c r="G59" s="3">
-        <v>20700</v>
+        <v>20400</v>
       </c>
       <c r="H59" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2509900</v>
+        <v>2471400</v>
       </c>
       <c r="E60" s="3">
-        <v>2227000</v>
+        <v>2192900</v>
       </c>
       <c r="F60" s="3">
-        <v>1135800</v>
+        <v>1118300</v>
       </c>
       <c r="G60" s="3">
-        <v>717200</v>
+        <v>706200</v>
       </c>
       <c r="H60" s="3">
-        <v>585600</v>
+        <v>576600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>551300</v>
+        <v>542800</v>
       </c>
       <c r="E61" s="3">
-        <v>320300</v>
+        <v>315400</v>
       </c>
       <c r="F61" s="3">
-        <v>386300</v>
+        <v>380400</v>
       </c>
       <c r="G61" s="3">
-        <v>386300</v>
+        <v>380400</v>
       </c>
       <c r="H61" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>82100</v>
+        <v>80800</v>
       </c>
       <c r="E62" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="F62" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="G62" s="3">
-        <v>50700</v>
+        <v>49900</v>
       </c>
       <c r="H62" s="3">
-        <v>21000</v>
+        <v>20700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3169200</v>
+        <v>3120500</v>
       </c>
       <c r="E66" s="3">
-        <v>2557300</v>
+        <v>2518100</v>
       </c>
       <c r="F66" s="3">
-        <v>1538100</v>
+        <v>1514500</v>
       </c>
       <c r="G66" s="3">
-        <v>1157100</v>
+        <v>1139300</v>
       </c>
       <c r="H66" s="3">
-        <v>620900</v>
+        <v>611400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2801500</v>
+        <v>2758400</v>
       </c>
       <c r="E72" s="3">
-        <v>1133900</v>
+        <v>1116500</v>
       </c>
       <c r="F72" s="3">
-        <v>966000</v>
+        <v>951100</v>
       </c>
       <c r="G72" s="3">
-        <v>87200</v>
+        <v>85800</v>
       </c>
       <c r="H72" s="3">
-        <v>99200</v>
+        <v>97700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2786200</v>
+        <v>2743400</v>
       </c>
       <c r="E76" s="3">
-        <v>1120300</v>
+        <v>1103100</v>
       </c>
       <c r="F76" s="3">
-        <v>955400</v>
+        <v>940700</v>
       </c>
       <c r="G76" s="3">
-        <v>87700</v>
+        <v>86300</v>
       </c>
       <c r="H76" s="3">
-        <v>99300</v>
+        <v>97700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>160200</v>
+        <v>157700</v>
       </c>
       <c r="E81" s="3">
-        <v>150700</v>
+        <v>148400</v>
       </c>
       <c r="F81" s="3">
-        <v>56500</v>
+        <v>55700</v>
       </c>
       <c r="G81" s="3">
-        <v>-20000</v>
+        <v>-19700</v>
       </c>
       <c r="H81" s="3">
-        <v>-21900</v>
+        <v>-21600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48100</v>
+        <v>47300</v>
       </c>
       <c r="E83" s="3">
-        <v>30600</v>
+        <v>30200</v>
       </c>
       <c r="F83" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="G83" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="H83" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="E89" s="3">
-        <v>-497400</v>
+        <v>-489800</v>
       </c>
       <c r="F89" s="3">
-        <v>-453100</v>
+        <v>-446200</v>
       </c>
       <c r="G89" s="3">
-        <v>-240800</v>
+        <v>-237100</v>
       </c>
       <c r="H89" s="3">
-        <v>-92600</v>
+        <v>-91100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-69800</v>
+        <v>-68700</v>
       </c>
       <c r="E91" s="3">
-        <v>-62600</v>
+        <v>-61600</v>
       </c>
       <c r="F91" s="3">
-        <v>-26400</v>
+        <v>-26000</v>
       </c>
       <c r="G91" s="3">
-        <v>-26400</v>
+        <v>-26000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1089600</v>
+        <v>-1072900</v>
       </c>
       <c r="E94" s="3">
-        <v>-82100</v>
+        <v>-80800</v>
       </c>
       <c r="F94" s="3">
-        <v>-513400</v>
+        <v>-505500</v>
       </c>
       <c r="G94" s="3">
-        <v>-56200</v>
+        <v>-55300</v>
       </c>
       <c r="H94" s="3">
-        <v>35600</v>
+        <v>35100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1353600</v>
+        <v>1332800</v>
       </c>
       <c r="E100" s="3">
-        <v>704900</v>
+        <v>694100</v>
       </c>
       <c r="F100" s="3">
-        <v>899400</v>
+        <v>885600</v>
       </c>
       <c r="G100" s="3">
-        <v>385200</v>
+        <v>379300</v>
       </c>
       <c r="H100" s="3">
-        <v>70900</v>
+        <v>69800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3470,13 +3470,13 @@
         <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>277400</v>
+        <v>273100</v>
       </c>
       <c r="E102" s="3">
-        <v>125800</v>
+        <v>123800</v>
       </c>
       <c r="F102" s="3">
-        <v>-64500</v>
+        <v>-63500</v>
       </c>
       <c r="G102" s="3">
-        <v>88400</v>
+        <v>87100</v>
       </c>
       <c r="H102" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>610900</v>
+        <v>590400</v>
       </c>
       <c r="E8" s="3">
-        <v>475800</v>
+        <v>459900</v>
       </c>
       <c r="F8" s="3">
-        <v>291700</v>
+        <v>281900</v>
       </c>
       <c r="G8" s="3">
-        <v>141600</v>
+        <v>136900</v>
       </c>
       <c r="H8" s="3">
-        <v>81300</v>
+        <v>78500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>142200</v>
+        <v>137500</v>
       </c>
       <c r="E9" s="3">
-        <v>78900</v>
+        <v>76200</v>
       </c>
       <c r="F9" s="3">
-        <v>59700</v>
+        <v>57700</v>
       </c>
       <c r="G9" s="3">
-        <v>41400</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>468700</v>
+        <v>453000</v>
       </c>
       <c r="E10" s="3">
-        <v>396900</v>
+        <v>383600</v>
       </c>
       <c r="F10" s="3">
-        <v>232000</v>
+        <v>224200</v>
       </c>
       <c r="G10" s="3">
-        <v>100200</v>
+        <v>96800</v>
       </c>
       <c r="H10" s="3">
-        <v>56700</v>
+        <v>54800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="E15" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="F15" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G15" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="H15" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>340800</v>
+        <v>329400</v>
       </c>
       <c r="E17" s="3">
-        <v>208900</v>
+        <v>201900</v>
       </c>
       <c r="F17" s="3">
-        <v>154300</v>
+        <v>149100</v>
       </c>
       <c r="G17" s="3">
-        <v>115400</v>
+        <v>111600</v>
       </c>
       <c r="H17" s="3">
-        <v>63600</v>
+        <v>61500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>270000</v>
+        <v>261000</v>
       </c>
       <c r="E18" s="3">
-        <v>266900</v>
+        <v>257900</v>
       </c>
       <c r="F18" s="3">
-        <v>137400</v>
+        <v>132800</v>
       </c>
       <c r="G18" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="H18" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-61700</v>
+        <v>-59700</v>
       </c>
       <c r="E20" s="3">
-        <v>-64500</v>
+        <v>-62400</v>
       </c>
       <c r="F20" s="3">
-        <v>-55700</v>
+        <v>-53800</v>
       </c>
       <c r="G20" s="3">
-        <v>-43800</v>
+        <v>-42400</v>
       </c>
       <c r="H20" s="3">
-        <v>-45200</v>
+        <v>-43700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>255900</v>
+        <v>247000</v>
       </c>
       <c r="E21" s="3">
-        <v>232700</v>
+        <v>224700</v>
       </c>
       <c r="F21" s="3">
-        <v>98900</v>
+        <v>95400</v>
       </c>
       <c r="G21" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="H21" s="3">
-        <v>-19600</v>
+        <v>-19000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>208300</v>
+        <v>201300</v>
       </c>
       <c r="E23" s="3">
-        <v>201400</v>
+        <v>194700</v>
       </c>
       <c r="F23" s="3">
-        <v>81700</v>
+        <v>79000</v>
       </c>
       <c r="G23" s="3">
-        <v>-17700</v>
+        <v>-17100</v>
       </c>
       <c r="H23" s="3">
-        <v>-27600</v>
+        <v>-26600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53600</v>
+        <v>51800</v>
       </c>
       <c r="E24" s="3">
-        <v>52900</v>
+        <v>51100</v>
       </c>
       <c r="F24" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="G24" s="3">
         <v>1700</v>
       </c>
       <c r="H24" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>154700</v>
+        <v>149500</v>
       </c>
       <c r="E26" s="3">
-        <v>148500</v>
+        <v>143600</v>
       </c>
       <c r="F26" s="3">
-        <v>56400</v>
+        <v>54500</v>
       </c>
       <c r="G26" s="3">
-        <v>-19400</v>
+        <v>-18700</v>
       </c>
       <c r="H26" s="3">
-        <v>-22600</v>
+        <v>-21800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>157700</v>
+        <v>152500</v>
       </c>
       <c r="E27" s="3">
-        <v>148400</v>
+        <v>143400</v>
       </c>
       <c r="F27" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="G27" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="H27" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>61700</v>
+        <v>59700</v>
       </c>
       <c r="E32" s="3">
-        <v>64500</v>
+        <v>62400</v>
       </c>
       <c r="F32" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="G32" s="3">
-        <v>43800</v>
+        <v>42400</v>
       </c>
       <c r="H32" s="3">
-        <v>45200</v>
+        <v>43700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>157700</v>
+        <v>152500</v>
       </c>
       <c r="E33" s="3">
-        <v>148400</v>
+        <v>143400</v>
       </c>
       <c r="F33" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="G33" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="H33" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>157700</v>
+        <v>152500</v>
       </c>
       <c r="E35" s="3">
-        <v>148400</v>
+        <v>143400</v>
       </c>
       <c r="F35" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="G35" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="H35" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>452000</v>
+        <v>436800</v>
       </c>
       <c r="E41" s="3">
-        <v>178900</v>
+        <v>172900</v>
       </c>
       <c r="F41" s="3">
-        <v>55000</v>
+        <v>53200</v>
       </c>
       <c r="G41" s="3">
-        <v>118600</v>
+        <v>114600</v>
       </c>
       <c r="H41" s="3">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1501300</v>
+        <v>1451000</v>
       </c>
       <c r="E42" s="3">
-        <v>542500</v>
+        <v>524300</v>
       </c>
       <c r="F42" s="3">
-        <v>511700</v>
+        <v>494600</v>
       </c>
       <c r="G42" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="H42" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3283800</v>
+        <v>3174000</v>
       </c>
       <c r="E43" s="3">
-        <v>2653500</v>
+        <v>2564700</v>
       </c>
       <c r="F43" s="3">
-        <v>1726200</v>
+        <v>1668500</v>
       </c>
       <c r="G43" s="3">
-        <v>949500</v>
+        <v>917700</v>
       </c>
       <c r="H43" s="3">
-        <v>567300</v>
+        <v>548300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>170000</v>
+        <v>164300</v>
       </c>
       <c r="E45" s="3">
-        <v>24500</v>
+        <v>23700</v>
       </c>
       <c r="F45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H45" s="3">
         <v>1900</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5407100</v>
+        <v>5226100</v>
       </c>
       <c r="E46" s="3">
-        <v>3399400</v>
+        <v>3285600</v>
       </c>
       <c r="F46" s="3">
-        <v>2297300</v>
+        <v>2220400</v>
       </c>
       <c r="G46" s="3">
-        <v>1108100</v>
+        <v>1071000</v>
       </c>
       <c r="H46" s="3">
-        <v>613000</v>
+        <v>592500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81500</v>
+        <v>78800</v>
       </c>
       <c r="E47" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="F47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G47" s="3">
         <v>1900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2000</v>
       </c>
       <c r="H47" s="3">
         <v>700</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>132500</v>
+        <v>128000</v>
       </c>
       <c r="E48" s="3">
-        <v>101300</v>
+        <v>97900</v>
       </c>
       <c r="F48" s="3">
-        <v>49200</v>
+        <v>47500</v>
       </c>
       <c r="G48" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="H48" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>192100</v>
+        <v>185600</v>
       </c>
       <c r="E49" s="3">
-        <v>69000</v>
+        <v>66700</v>
       </c>
       <c r="F49" s="3">
-        <v>56800</v>
+        <v>54900</v>
       </c>
       <c r="G49" s="3">
-        <v>43200</v>
+        <v>41800</v>
       </c>
       <c r="H49" s="3">
-        <v>44300</v>
+        <v>42800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50900</v>
+        <v>49200</v>
       </c>
       <c r="E52" s="3">
-        <v>43900</v>
+        <v>42400</v>
       </c>
       <c r="F52" s="3">
-        <v>50100</v>
+        <v>48400</v>
       </c>
       <c r="G52" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="H52" s="3">
-        <v>33800</v>
+        <v>32700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5864000</v>
+        <v>5667800</v>
       </c>
       <c r="E54" s="3">
-        <v>3621200</v>
+        <v>3500000</v>
       </c>
       <c r="F54" s="3">
-        <v>2455300</v>
+        <v>2373100</v>
       </c>
       <c r="G54" s="3">
-        <v>1225600</v>
+        <v>1184600</v>
       </c>
       <c r="H54" s="3">
-        <v>709100</v>
+        <v>685400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1727500</v>
+        <v>1669700</v>
       </c>
       <c r="E57" s="3">
-        <v>1218600</v>
+        <v>1177900</v>
       </c>
       <c r="F57" s="3">
-        <v>944500</v>
+        <v>912900</v>
       </c>
       <c r="G57" s="3">
-        <v>681700</v>
+        <v>658900</v>
       </c>
       <c r="H57" s="3">
-        <v>566600</v>
+        <v>547600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>580900</v>
+        <v>561400</v>
       </c>
       <c r="E58" s="3">
-        <v>930600</v>
+        <v>899500</v>
       </c>
       <c r="F58" s="3">
-        <v>143600</v>
+        <v>138800</v>
       </c>
       <c r="G58" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H58" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>163000</v>
+        <v>157600</v>
       </c>
       <c r="E59" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="F59" s="3">
-        <v>30100</v>
+        <v>29100</v>
       </c>
       <c r="G59" s="3">
-        <v>20400</v>
+        <v>19700</v>
       </c>
       <c r="H59" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2471400</v>
+        <v>2388700</v>
       </c>
       <c r="E60" s="3">
-        <v>2192900</v>
+        <v>2119500</v>
       </c>
       <c r="F60" s="3">
-        <v>1118300</v>
+        <v>1080900</v>
       </c>
       <c r="G60" s="3">
-        <v>706200</v>
+        <v>682600</v>
       </c>
       <c r="H60" s="3">
-        <v>576600</v>
+        <v>557300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>542800</v>
+        <v>524600</v>
       </c>
       <c r="E61" s="3">
-        <v>315400</v>
+        <v>304800</v>
       </c>
       <c r="F61" s="3">
-        <v>380400</v>
+        <v>367600</v>
       </c>
       <c r="G61" s="3">
-        <v>380400</v>
+        <v>367600</v>
       </c>
       <c r="H61" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80800</v>
+        <v>78100</v>
       </c>
       <c r="E62" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="F62" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="G62" s="3">
-        <v>49900</v>
+        <v>48200</v>
       </c>
       <c r="H62" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3120500</v>
+        <v>3016100</v>
       </c>
       <c r="E66" s="3">
-        <v>2518100</v>
+        <v>2433800</v>
       </c>
       <c r="F66" s="3">
-        <v>1514500</v>
+        <v>1463800</v>
       </c>
       <c r="G66" s="3">
-        <v>1139300</v>
+        <v>1101200</v>
       </c>
       <c r="H66" s="3">
-        <v>611400</v>
+        <v>590900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2758400</v>
+        <v>2666200</v>
       </c>
       <c r="E72" s="3">
-        <v>1116500</v>
+        <v>1079100</v>
       </c>
       <c r="F72" s="3">
-        <v>951100</v>
+        <v>919300</v>
       </c>
       <c r="G72" s="3">
-        <v>85800</v>
+        <v>83000</v>
       </c>
       <c r="H72" s="3">
-        <v>97700</v>
+        <v>94500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2743400</v>
+        <v>2651600</v>
       </c>
       <c r="E76" s="3">
-        <v>1103100</v>
+        <v>1066200</v>
       </c>
       <c r="F76" s="3">
-        <v>940700</v>
+        <v>909300</v>
       </c>
       <c r="G76" s="3">
-        <v>86300</v>
+        <v>83400</v>
       </c>
       <c r="H76" s="3">
-        <v>97700</v>
+        <v>94500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>157700</v>
+        <v>152500</v>
       </c>
       <c r="E81" s="3">
-        <v>148400</v>
+        <v>143400</v>
       </c>
       <c r="F81" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="G81" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="H81" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47300</v>
+        <v>45800</v>
       </c>
       <c r="E83" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="F83" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="G83" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="H83" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="E89" s="3">
-        <v>-489800</v>
+        <v>-473400</v>
       </c>
       <c r="F89" s="3">
-        <v>-446200</v>
+        <v>-431200</v>
       </c>
       <c r="G89" s="3">
-        <v>-237100</v>
+        <v>-229200</v>
       </c>
       <c r="H89" s="3">
-        <v>-91100</v>
+        <v>-88100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-68700</v>
+        <v>-66400</v>
       </c>
       <c r="E91" s="3">
-        <v>-61600</v>
+        <v>-59500</v>
       </c>
       <c r="F91" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="G91" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1072900</v>
+        <v>-1037000</v>
       </c>
       <c r="E94" s="3">
-        <v>-80800</v>
+        <v>-78100</v>
       </c>
       <c r="F94" s="3">
-        <v>-505500</v>
+        <v>-488600</v>
       </c>
       <c r="G94" s="3">
-        <v>-55300</v>
+        <v>-53500</v>
       </c>
       <c r="H94" s="3">
-        <v>35100</v>
+        <v>33900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1332800</v>
+        <v>1288200</v>
       </c>
       <c r="E100" s="3">
-        <v>694100</v>
+        <v>670900</v>
       </c>
       <c r="F100" s="3">
-        <v>885600</v>
+        <v>856000</v>
       </c>
       <c r="G100" s="3">
-        <v>379300</v>
+        <v>366600</v>
       </c>
       <c r="H100" s="3">
-        <v>69800</v>
+        <v>67500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>273100</v>
+        <v>264000</v>
       </c>
       <c r="E102" s="3">
-        <v>123800</v>
+        <v>119700</v>
       </c>
       <c r="F102" s="3">
-        <v>-63500</v>
+        <v>-61400</v>
       </c>
       <c r="G102" s="3">
-        <v>87100</v>
+        <v>84100</v>
       </c>
       <c r="H102" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>590400</v>
+        <v>651700</v>
       </c>
       <c r="E8" s="3">
-        <v>459900</v>
+        <v>507600</v>
       </c>
       <c r="F8" s="3">
-        <v>281900</v>
+        <v>311200</v>
       </c>
       <c r="G8" s="3">
-        <v>136900</v>
+        <v>151100</v>
       </c>
       <c r="H8" s="3">
-        <v>78500</v>
+        <v>86700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>137500</v>
+        <v>151700</v>
       </c>
       <c r="E9" s="3">
-        <v>76200</v>
+        <v>84100</v>
       </c>
       <c r="F9" s="3">
-        <v>57700</v>
+        <v>63700</v>
       </c>
       <c r="G9" s="3">
-        <v>40000</v>
+        <v>44200</v>
       </c>
       <c r="H9" s="3">
-        <v>23800</v>
+        <v>26200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>453000</v>
+        <v>500000</v>
       </c>
       <c r="E10" s="3">
-        <v>383600</v>
+        <v>423500</v>
       </c>
       <c r="F10" s="3">
-        <v>224200</v>
+        <v>247500</v>
       </c>
       <c r="G10" s="3">
-        <v>96800</v>
+        <v>106900</v>
       </c>
       <c r="H10" s="3">
-        <v>54800</v>
+        <v>60400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16800</v>
+        <v>18500</v>
       </c>
       <c r="E15" s="3">
-        <v>11300</v>
+        <v>12500</v>
       </c>
       <c r="F15" s="3">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="G15" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="H15" s="3">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>329400</v>
+        <v>363700</v>
       </c>
       <c r="E17" s="3">
-        <v>201900</v>
+        <v>222900</v>
       </c>
       <c r="F17" s="3">
-        <v>149100</v>
+        <v>164600</v>
       </c>
       <c r="G17" s="3">
-        <v>111600</v>
+        <v>123100</v>
       </c>
       <c r="H17" s="3">
-        <v>61500</v>
+        <v>67900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>261000</v>
+        <v>288100</v>
       </c>
       <c r="E18" s="3">
-        <v>257900</v>
+        <v>284700</v>
       </c>
       <c r="F18" s="3">
-        <v>132800</v>
+        <v>146600</v>
       </c>
       <c r="G18" s="3">
-        <v>25300</v>
+        <v>27900</v>
       </c>
       <c r="H18" s="3">
-        <v>17000</v>
+        <v>18800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-59700</v>
+        <v>-65900</v>
       </c>
       <c r="E20" s="3">
-        <v>-62400</v>
+        <v>-68800</v>
       </c>
       <c r="F20" s="3">
-        <v>-53800</v>
+        <v>-59400</v>
       </c>
       <c r="G20" s="3">
-        <v>-42400</v>
+        <v>-46800</v>
       </c>
       <c r="H20" s="3">
-        <v>-43700</v>
+        <v>-48200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>247000</v>
+        <v>273400</v>
       </c>
       <c r="E21" s="3">
-        <v>224700</v>
+        <v>248500</v>
       </c>
       <c r="F21" s="3">
-        <v>95400</v>
+        <v>105600</v>
       </c>
       <c r="G21" s="3">
-        <v>-6900</v>
+        <v>-7400</v>
       </c>
       <c r="H21" s="3">
-        <v>-19000</v>
+        <v>-20800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>201300</v>
+        <v>222200</v>
       </c>
       <c r="E23" s="3">
-        <v>194700</v>
+        <v>214900</v>
       </c>
       <c r="F23" s="3">
-        <v>79000</v>
+        <v>87200</v>
       </c>
       <c r="G23" s="3">
-        <v>-17100</v>
+        <v>-18900</v>
       </c>
       <c r="H23" s="3">
-        <v>-26600</v>
+        <v>-29400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51800</v>
+        <v>57200</v>
       </c>
       <c r="E24" s="3">
-        <v>51100</v>
+        <v>56400</v>
       </c>
       <c r="F24" s="3">
-        <v>24500</v>
+        <v>27000</v>
       </c>
       <c r="G24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H24" s="3">
-        <v>-4800</v>
+        <v>-5300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>149500</v>
+        <v>165000</v>
       </c>
       <c r="E26" s="3">
-        <v>143600</v>
+        <v>158500</v>
       </c>
       <c r="F26" s="3">
-        <v>54500</v>
+        <v>60100</v>
       </c>
       <c r="G26" s="3">
-        <v>-18700</v>
+        <v>-20700</v>
       </c>
       <c r="H26" s="3">
-        <v>-21800</v>
+        <v>-24100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>152500</v>
+        <v>168300</v>
       </c>
       <c r="E27" s="3">
-        <v>143400</v>
+        <v>158300</v>
       </c>
       <c r="F27" s="3">
-        <v>53800</v>
+        <v>59400</v>
       </c>
       <c r="G27" s="3">
-        <v>-19000</v>
+        <v>-21000</v>
       </c>
       <c r="H27" s="3">
-        <v>-20900</v>
+        <v>-23000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>59700</v>
+        <v>65900</v>
       </c>
       <c r="E32" s="3">
-        <v>62400</v>
+        <v>68800</v>
       </c>
       <c r="F32" s="3">
-        <v>53800</v>
+        <v>59400</v>
       </c>
       <c r="G32" s="3">
-        <v>42400</v>
+        <v>46800</v>
       </c>
       <c r="H32" s="3">
-        <v>43700</v>
+        <v>48200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>152500</v>
+        <v>168300</v>
       </c>
       <c r="E33" s="3">
-        <v>143400</v>
+        <v>158300</v>
       </c>
       <c r="F33" s="3">
-        <v>53800</v>
+        <v>59400</v>
       </c>
       <c r="G33" s="3">
-        <v>-19000</v>
+        <v>-21000</v>
       </c>
       <c r="H33" s="3">
-        <v>-20900</v>
+        <v>-23000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>152500</v>
+        <v>168300</v>
       </c>
       <c r="E35" s="3">
-        <v>143400</v>
+        <v>158300</v>
       </c>
       <c r="F35" s="3">
-        <v>53800</v>
+        <v>59400</v>
       </c>
       <c r="G35" s="3">
-        <v>-19000</v>
+        <v>-21000</v>
       </c>
       <c r="H35" s="3">
-        <v>-20900</v>
+        <v>-23000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>436800</v>
+        <v>482200</v>
       </c>
       <c r="E41" s="3">
-        <v>172900</v>
+        <v>190800</v>
       </c>
       <c r="F41" s="3">
-        <v>53200</v>
+        <v>58700</v>
       </c>
       <c r="G41" s="3">
-        <v>114600</v>
+        <v>126500</v>
       </c>
       <c r="H41" s="3">
-        <v>30500</v>
+        <v>33600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1451000</v>
+        <v>1601700</v>
       </c>
       <c r="E42" s="3">
-        <v>524300</v>
+        <v>578800</v>
       </c>
       <c r="F42" s="3">
-        <v>494600</v>
+        <v>546000</v>
       </c>
       <c r="G42" s="3">
-        <v>36000</v>
+        <v>39800</v>
       </c>
       <c r="H42" s="3">
-        <v>11800</v>
+        <v>13100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3174000</v>
+        <v>3503600</v>
       </c>
       <c r="E43" s="3">
-        <v>2564700</v>
+        <v>2831100</v>
       </c>
       <c r="F43" s="3">
-        <v>1668500</v>
+        <v>1841800</v>
       </c>
       <c r="G43" s="3">
-        <v>917700</v>
+        <v>1013000</v>
       </c>
       <c r="H43" s="3">
-        <v>548300</v>
+        <v>605300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164300</v>
+        <v>181400</v>
       </c>
       <c r="E45" s="3">
-        <v>23700</v>
+        <v>26200</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="G45" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5226100</v>
+        <v>5768900</v>
       </c>
       <c r="E46" s="3">
-        <v>3285600</v>
+        <v>3626900</v>
       </c>
       <c r="F46" s="3">
-        <v>2220400</v>
+        <v>2451000</v>
       </c>
       <c r="G46" s="3">
-        <v>1071000</v>
+        <v>1182300</v>
       </c>
       <c r="H46" s="3">
-        <v>592500</v>
+        <v>654100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78800</v>
+        <v>87000</v>
       </c>
       <c r="E47" s="3">
-        <v>7300</v>
+        <v>8100</v>
       </c>
       <c r="F47" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="H47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>128000</v>
+        <v>141300</v>
       </c>
       <c r="E48" s="3">
-        <v>97900</v>
+        <v>108100</v>
       </c>
       <c r="F48" s="3">
-        <v>47500</v>
+        <v>52500</v>
       </c>
       <c r="G48" s="3">
-        <v>33900</v>
+        <v>37400</v>
       </c>
       <c r="H48" s="3">
-        <v>16700</v>
+        <v>18400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>185600</v>
+        <v>204900</v>
       </c>
       <c r="E49" s="3">
-        <v>66700</v>
+        <v>73600</v>
       </c>
       <c r="F49" s="3">
-        <v>54900</v>
+        <v>60600</v>
       </c>
       <c r="G49" s="3">
-        <v>41800</v>
+        <v>46100</v>
       </c>
       <c r="H49" s="3">
-        <v>42800</v>
+        <v>47200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49200</v>
+        <v>54300</v>
       </c>
       <c r="E52" s="3">
-        <v>42400</v>
+        <v>46800</v>
       </c>
       <c r="F52" s="3">
-        <v>48400</v>
+        <v>53400</v>
       </c>
       <c r="G52" s="3">
-        <v>36000</v>
+        <v>39700</v>
       </c>
       <c r="H52" s="3">
-        <v>32700</v>
+        <v>36100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5667800</v>
+        <v>6256400</v>
       </c>
       <c r="E54" s="3">
-        <v>3500000</v>
+        <v>3863500</v>
       </c>
       <c r="F54" s="3">
-        <v>2373100</v>
+        <v>2619600</v>
       </c>
       <c r="G54" s="3">
-        <v>1184600</v>
+        <v>1307600</v>
       </c>
       <c r="H54" s="3">
-        <v>685400</v>
+        <v>756600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1669700</v>
+        <v>1843100</v>
       </c>
       <c r="E57" s="3">
-        <v>1177900</v>
+        <v>1300200</v>
       </c>
       <c r="F57" s="3">
-        <v>912900</v>
+        <v>1007800</v>
       </c>
       <c r="G57" s="3">
-        <v>658900</v>
+        <v>727300</v>
       </c>
       <c r="H57" s="3">
-        <v>547600</v>
+        <v>604500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>561400</v>
+        <v>619700</v>
       </c>
       <c r="E58" s="3">
-        <v>899500</v>
+        <v>992900</v>
       </c>
       <c r="F58" s="3">
-        <v>138800</v>
+        <v>153300</v>
       </c>
       <c r="G58" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="H58" s="3">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>157600</v>
+        <v>173900</v>
       </c>
       <c r="E59" s="3">
-        <v>42100</v>
+        <v>46500</v>
       </c>
       <c r="F59" s="3">
-        <v>29100</v>
+        <v>32100</v>
       </c>
       <c r="G59" s="3">
-        <v>19700</v>
+        <v>21700</v>
       </c>
       <c r="H59" s="3">
-        <v>5600</v>
+        <v>6200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2388700</v>
+        <v>2636700</v>
       </c>
       <c r="E60" s="3">
-        <v>2119500</v>
+        <v>2339600</v>
       </c>
       <c r="F60" s="3">
-        <v>1080900</v>
+        <v>1193200</v>
       </c>
       <c r="G60" s="3">
-        <v>682600</v>
+        <v>753500</v>
       </c>
       <c r="H60" s="3">
-        <v>557300</v>
+        <v>615200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>524600</v>
+        <v>579100</v>
       </c>
       <c r="E61" s="3">
-        <v>304800</v>
+        <v>336500</v>
       </c>
       <c r="F61" s="3">
-        <v>367600</v>
+        <v>405800</v>
       </c>
       <c r="G61" s="3">
-        <v>367600</v>
+        <v>405800</v>
       </c>
       <c r="H61" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78100</v>
+        <v>86200</v>
       </c>
       <c r="E62" s="3">
-        <v>9400</v>
+        <v>10400</v>
       </c>
       <c r="F62" s="3">
-        <v>15400</v>
+        <v>17000</v>
       </c>
       <c r="G62" s="3">
-        <v>48200</v>
+        <v>53300</v>
       </c>
       <c r="H62" s="3">
-        <v>20000</v>
+        <v>22100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3016100</v>
+        <v>3329400</v>
       </c>
       <c r="E66" s="3">
-        <v>2433800</v>
+        <v>2686600</v>
       </c>
       <c r="F66" s="3">
-        <v>1463800</v>
+        <v>1615900</v>
       </c>
       <c r="G66" s="3">
-        <v>1101200</v>
+        <v>1215500</v>
       </c>
       <c r="H66" s="3">
-        <v>590900</v>
+        <v>652300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2666200</v>
+        <v>2943000</v>
       </c>
       <c r="E72" s="3">
-        <v>1079100</v>
+        <v>1191200</v>
       </c>
       <c r="F72" s="3">
-        <v>919300</v>
+        <v>1014800</v>
       </c>
       <c r="G72" s="3">
-        <v>83000</v>
+        <v>91600</v>
       </c>
       <c r="H72" s="3">
-        <v>94500</v>
+        <v>104300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2651600</v>
+        <v>2927000</v>
       </c>
       <c r="E76" s="3">
-        <v>1066200</v>
+        <v>1176900</v>
       </c>
       <c r="F76" s="3">
-        <v>909300</v>
+        <v>1003700</v>
       </c>
       <c r="G76" s="3">
-        <v>83400</v>
+        <v>92100</v>
       </c>
       <c r="H76" s="3">
-        <v>94500</v>
+        <v>104300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>152500</v>
+        <v>168300</v>
       </c>
       <c r="E81" s="3">
-        <v>143400</v>
+        <v>158300</v>
       </c>
       <c r="F81" s="3">
-        <v>53800</v>
+        <v>59400</v>
       </c>
       <c r="G81" s="3">
-        <v>-19000</v>
+        <v>-21000</v>
       </c>
       <c r="H81" s="3">
-        <v>-20900</v>
+        <v>-23000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45800</v>
+        <v>50500</v>
       </c>
       <c r="E83" s="3">
-        <v>29200</v>
+        <v>32200</v>
       </c>
       <c r="F83" s="3">
-        <v>16500</v>
+        <v>18200</v>
       </c>
       <c r="G83" s="3">
-        <v>10200</v>
+        <v>11300</v>
       </c>
       <c r="H83" s="3">
-        <v>7700</v>
+        <v>8500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10100</v>
+        <v>11100</v>
       </c>
       <c r="E89" s="3">
-        <v>-473400</v>
+        <v>-522600</v>
       </c>
       <c r="F89" s="3">
-        <v>-431200</v>
+        <v>-476000</v>
       </c>
       <c r="G89" s="3">
-        <v>-229200</v>
+        <v>-253000</v>
       </c>
       <c r="H89" s="3">
-        <v>-88100</v>
+        <v>-97200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-66400</v>
+        <v>-73300</v>
       </c>
       <c r="E91" s="3">
-        <v>-59500</v>
+        <v>-65700</v>
       </c>
       <c r="F91" s="3">
-        <v>-25200</v>
+        <v>-27800</v>
       </c>
       <c r="G91" s="3">
-        <v>-25200</v>
+        <v>-27800</v>
       </c>
       <c r="H91" s="3">
-        <v>-5600</v>
+        <v>-6200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1037000</v>
+        <v>-1144700</v>
       </c>
       <c r="E94" s="3">
-        <v>-78100</v>
+        <v>-86200</v>
       </c>
       <c r="F94" s="3">
-        <v>-488600</v>
+        <v>-539400</v>
       </c>
       <c r="G94" s="3">
-        <v>-53500</v>
+        <v>-59100</v>
       </c>
       <c r="H94" s="3">
-        <v>33900</v>
+        <v>37400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1288200</v>
+        <v>1422000</v>
       </c>
       <c r="E100" s="3">
-        <v>670900</v>
+        <v>740500</v>
       </c>
       <c r="F100" s="3">
-        <v>856000</v>
+        <v>944900</v>
       </c>
       <c r="G100" s="3">
-        <v>366600</v>
+        <v>404600</v>
       </c>
       <c r="H100" s="3">
-        <v>67500</v>
+        <v>74500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>2700</v>
-      </c>
-      <c r="E101" s="3">
-        <v>300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>2500</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>264000</v>
+        <v>291400</v>
       </c>
       <c r="E102" s="3">
-        <v>119700</v>
+        <v>132100</v>
       </c>
       <c r="F102" s="3">
-        <v>-61400</v>
+        <v>-67800</v>
       </c>
       <c r="G102" s="3">
-        <v>84100</v>
+        <v>92900</v>
       </c>
       <c r="H102" s="3">
-        <v>15600</v>
+        <v>17200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>651700</v>
+        <v>1194000</v>
       </c>
       <c r="E8" s="3">
-        <v>507600</v>
+        <v>644200</v>
       </c>
       <c r="F8" s="3">
-        <v>311200</v>
+        <v>501700</v>
       </c>
       <c r="G8" s="3">
-        <v>151100</v>
+        <v>307600</v>
       </c>
       <c r="H8" s="3">
-        <v>86700</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>149300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>85700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>151700</v>
+        <v>333800</v>
       </c>
       <c r="E9" s="3">
-        <v>84100</v>
+        <v>150000</v>
       </c>
       <c r="F9" s="3">
-        <v>63700</v>
+        <v>83200</v>
       </c>
       <c r="G9" s="3">
-        <v>44200</v>
+        <v>62900</v>
       </c>
       <c r="H9" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>43700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>500000</v>
+        <v>860200</v>
       </c>
       <c r="E10" s="3">
-        <v>423500</v>
+        <v>494200</v>
       </c>
       <c r="F10" s="3">
-        <v>247500</v>
+        <v>418600</v>
       </c>
       <c r="G10" s="3">
-        <v>106900</v>
+        <v>244700</v>
       </c>
       <c r="H10" s="3">
-        <v>60400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>105700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>59700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>15200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -924,29 +943,32 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18500</v>
+        <v>40500</v>
       </c>
       <c r="E15" s="3">
-        <v>12500</v>
+        <v>18300</v>
       </c>
       <c r="F15" s="3">
-        <v>7500</v>
+        <v>12300</v>
       </c>
       <c r="G15" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H15" s="3">
         <v>5100</v>
       </c>
-      <c r="H15" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>4400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>363700</v>
+        <v>725700</v>
       </c>
       <c r="E17" s="3">
-        <v>222900</v>
+        <v>359400</v>
       </c>
       <c r="F17" s="3">
-        <v>164600</v>
+        <v>220300</v>
       </c>
       <c r="G17" s="3">
-        <v>123100</v>
+        <v>162700</v>
       </c>
       <c r="H17" s="3">
-        <v>67900</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>121700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>67100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>288100</v>
+        <v>468300</v>
       </c>
       <c r="E18" s="3">
-        <v>284700</v>
+        <v>284800</v>
       </c>
       <c r="F18" s="3">
-        <v>146600</v>
+        <v>281400</v>
       </c>
       <c r="G18" s="3">
-        <v>27900</v>
+        <v>144900</v>
       </c>
       <c r="H18" s="3">
-        <v>18800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>27600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>18600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,28 +1083,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-65900</v>
+        <v>-664800</v>
       </c>
       <c r="E20" s="3">
-        <v>-68800</v>
+        <v>-65100</v>
       </c>
       <c r="F20" s="3">
-        <v>-59400</v>
+        <v>-68000</v>
       </c>
       <c r="G20" s="3">
-        <v>-46800</v>
+        <v>-58700</v>
       </c>
       <c r="H20" s="3">
-        <v>-48200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-46200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-47600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>273400</v>
+        <v>-97700</v>
       </c>
       <c r="E21" s="3">
-        <v>248500</v>
+        <v>269500</v>
       </c>
       <c r="F21" s="3">
-        <v>105600</v>
+        <v>245200</v>
       </c>
       <c r="G21" s="3">
-        <v>-7400</v>
+        <v>104100</v>
       </c>
       <c r="H21" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-20700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,21 +1152,24 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,35 +1182,38 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>222200</v>
+        <v>-281600</v>
       </c>
       <c r="E23" s="3">
-        <v>214900</v>
+        <v>219600</v>
       </c>
       <c r="F23" s="3">
-        <v>87200</v>
+        <v>212400</v>
       </c>
       <c r="G23" s="3">
-        <v>-18900</v>
+        <v>86200</v>
       </c>
       <c r="H23" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-18600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-29100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,30 +1224,33 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57200</v>
+        <v>-13300</v>
       </c>
       <c r="E24" s="3">
-        <v>56400</v>
+        <v>56500</v>
       </c>
       <c r="F24" s="3">
-        <v>27000</v>
+        <v>55800</v>
       </c>
       <c r="G24" s="3">
+        <v>26700</v>
+      </c>
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>165000</v>
+        <v>-268300</v>
       </c>
       <c r="E26" s="3">
-        <v>158500</v>
+        <v>163100</v>
       </c>
       <c r="F26" s="3">
-        <v>60100</v>
+        <v>156600</v>
       </c>
       <c r="G26" s="3">
-        <v>-20700</v>
+        <v>59500</v>
       </c>
       <c r="H26" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-20400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-23800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>168300</v>
+        <v>-264700</v>
       </c>
       <c r="E27" s="3">
-        <v>158300</v>
+        <v>166400</v>
       </c>
       <c r="F27" s="3">
-        <v>59400</v>
+        <v>156500</v>
       </c>
       <c r="G27" s="3">
-        <v>-21000</v>
+        <v>58700</v>
       </c>
       <c r="H27" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-20800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-22800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,29 +1512,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>65900</v>
+        <v>664800</v>
       </c>
       <c r="E32" s="3">
-        <v>68800</v>
+        <v>65100</v>
       </c>
       <c r="F32" s="3">
-        <v>59400</v>
+        <v>68000</v>
       </c>
       <c r="G32" s="3">
-        <v>46800</v>
+        <v>58700</v>
       </c>
       <c r="H32" s="3">
-        <v>48200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>46200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>47600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>168300</v>
+        <v>-264700</v>
       </c>
       <c r="E33" s="3">
-        <v>158300</v>
+        <v>166400</v>
       </c>
       <c r="F33" s="3">
-        <v>59400</v>
+        <v>156500</v>
       </c>
       <c r="G33" s="3">
-        <v>-21000</v>
+        <v>58700</v>
       </c>
       <c r="H33" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-20800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-22800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>168300</v>
+        <v>-264700</v>
       </c>
       <c r="E35" s="3">
-        <v>158300</v>
+        <v>166400</v>
       </c>
       <c r="F35" s="3">
-        <v>59400</v>
+        <v>156500</v>
       </c>
       <c r="G35" s="3">
-        <v>-21000</v>
+        <v>58700</v>
       </c>
       <c r="H35" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-20800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-22800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>482200</v>
+        <v>875700</v>
       </c>
       <c r="E41" s="3">
-        <v>190800</v>
+        <v>476600</v>
       </c>
       <c r="F41" s="3">
-        <v>58700</v>
+        <v>188600</v>
       </c>
       <c r="G41" s="3">
-        <v>126500</v>
+        <v>58000</v>
       </c>
       <c r="H41" s="3">
-        <v>33600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>125000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>33200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,29 +1765,32 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1601700</v>
+        <v>388200</v>
       </c>
       <c r="E42" s="3">
-        <v>578800</v>
+        <v>1583200</v>
       </c>
       <c r="F42" s="3">
-        <v>546000</v>
+        <v>572100</v>
       </c>
       <c r="G42" s="3">
-        <v>39800</v>
+        <v>539700</v>
       </c>
       <c r="H42" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>39300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3503600</v>
+        <v>3974100</v>
       </c>
       <c r="E43" s="3">
-        <v>2831100</v>
+        <v>3463100</v>
       </c>
       <c r="F43" s="3">
-        <v>1841800</v>
+        <v>2798300</v>
       </c>
       <c r="G43" s="3">
-        <v>1013000</v>
+        <v>1820400</v>
       </c>
       <c r="H43" s="3">
-        <v>605300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>1001300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>598300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,30 +1873,33 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>181400</v>
+        <v>597600</v>
       </c>
       <c r="E45" s="3">
-        <v>26200</v>
+        <v>179300</v>
       </c>
       <c r="F45" s="3">
-        <v>4600</v>
+        <v>25900</v>
       </c>
       <c r="G45" s="3">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5768900</v>
+        <v>5835600</v>
       </c>
       <c r="E46" s="3">
-        <v>3626900</v>
+        <v>5702200</v>
       </c>
       <c r="F46" s="3">
-        <v>2451000</v>
+        <v>3584900</v>
       </c>
       <c r="G46" s="3">
-        <v>1182300</v>
+        <v>2422600</v>
       </c>
       <c r="H46" s="3">
-        <v>654100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>1168600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>646500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,30 +1945,33 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>87000</v>
+        <v>266700</v>
       </c>
       <c r="E47" s="3">
-        <v>8100</v>
+        <v>86000</v>
       </c>
       <c r="F47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,29 +1981,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>141300</v>
+        <v>305700</v>
       </c>
       <c r="E48" s="3">
-        <v>108100</v>
+        <v>139700</v>
       </c>
       <c r="F48" s="3">
-        <v>52500</v>
+        <v>106900</v>
       </c>
       <c r="G48" s="3">
-        <v>37400</v>
+        <v>51900</v>
       </c>
       <c r="H48" s="3">
-        <v>18400</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>36900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>18200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,29 +2017,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>204900</v>
+        <v>1630400</v>
       </c>
       <c r="E49" s="3">
-        <v>73600</v>
+        <v>202500</v>
       </c>
       <c r="F49" s="3">
-        <v>60600</v>
+        <v>72800</v>
       </c>
       <c r="G49" s="3">
-        <v>46100</v>
+        <v>59900</v>
       </c>
       <c r="H49" s="3">
-        <v>47200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>45600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>46700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>54300</v>
+        <v>153400</v>
       </c>
       <c r="E52" s="3">
-        <v>46800</v>
+        <v>53600</v>
       </c>
       <c r="F52" s="3">
-        <v>53400</v>
+        <v>46300</v>
       </c>
       <c r="G52" s="3">
-        <v>39700</v>
+        <v>52800</v>
       </c>
       <c r="H52" s="3">
-        <v>36100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>39300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>35700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6256400</v>
+        <v>8191800</v>
       </c>
       <c r="E54" s="3">
-        <v>3863500</v>
+        <v>6184000</v>
       </c>
       <c r="F54" s="3">
-        <v>2619600</v>
+        <v>3818800</v>
       </c>
       <c r="G54" s="3">
-        <v>1307600</v>
+        <v>2589300</v>
       </c>
       <c r="H54" s="3">
-        <v>756600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>1292500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>747800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1843100</v>
+        <v>3135200</v>
       </c>
       <c r="E57" s="3">
-        <v>1300200</v>
+        <v>1821700</v>
       </c>
       <c r="F57" s="3">
-        <v>1007800</v>
+        <v>1285100</v>
       </c>
       <c r="G57" s="3">
-        <v>727300</v>
+        <v>996100</v>
       </c>
       <c r="H57" s="3">
-        <v>604500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>718900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>597500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,29 +2301,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>619700</v>
+        <v>754500</v>
       </c>
       <c r="E58" s="3">
-        <v>992900</v>
+        <v>612600</v>
       </c>
       <c r="F58" s="3">
-        <v>153300</v>
+        <v>981400</v>
       </c>
       <c r="G58" s="3">
+        <v>151500</v>
+      </c>
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>4400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2204,30 +2337,33 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>173900</v>
+        <v>549400</v>
       </c>
       <c r="E59" s="3">
-        <v>46500</v>
+        <v>171900</v>
       </c>
       <c r="F59" s="3">
-        <v>32100</v>
+        <v>46000</v>
       </c>
       <c r="G59" s="3">
-        <v>21700</v>
+        <v>31800</v>
       </c>
       <c r="H59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2636700</v>
+        <v>4439000</v>
       </c>
       <c r="E60" s="3">
-        <v>2339600</v>
+        <v>2606200</v>
       </c>
       <c r="F60" s="3">
-        <v>1193200</v>
+        <v>2312500</v>
       </c>
       <c r="G60" s="3">
-        <v>753500</v>
+        <v>1179300</v>
       </c>
       <c r="H60" s="3">
-        <v>615200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>744800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>608100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,29 +2409,32 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>579100</v>
+        <v>874300</v>
       </c>
       <c r="E61" s="3">
-        <v>336500</v>
+        <v>572400</v>
       </c>
       <c r="F61" s="3">
-        <v>405800</v>
+        <v>332600</v>
       </c>
       <c r="G61" s="3">
-        <v>405800</v>
+        <v>401100</v>
       </c>
       <c r="H61" s="3">
-        <v>3600</v>
+        <v>401100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2303,29 +2445,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>86200</v>
+        <v>230600</v>
       </c>
       <c r="E62" s="3">
-        <v>10400</v>
+        <v>85200</v>
       </c>
       <c r="F62" s="3">
-        <v>17000</v>
+        <v>10300</v>
       </c>
       <c r="G62" s="3">
-        <v>53300</v>
+        <v>16800</v>
       </c>
       <c r="H62" s="3">
-        <v>22100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>52600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>21800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3329400</v>
+        <v>5559900</v>
       </c>
       <c r="E66" s="3">
-        <v>2686600</v>
+        <v>3290800</v>
       </c>
       <c r="F66" s="3">
-        <v>1615900</v>
+        <v>2655500</v>
       </c>
       <c r="G66" s="3">
-        <v>1215500</v>
+        <v>1597200</v>
       </c>
       <c r="H66" s="3">
-        <v>652300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>1201500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>644700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2943000</v>
+        <v>2846300</v>
       </c>
       <c r="E72" s="3">
-        <v>1191200</v>
+        <v>2909000</v>
       </c>
       <c r="F72" s="3">
-        <v>1014800</v>
+        <v>1177400</v>
       </c>
       <c r="G72" s="3">
-        <v>91600</v>
+        <v>1003000</v>
       </c>
       <c r="H72" s="3">
-        <v>104300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>90500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>103100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2927000</v>
+        <v>2631900</v>
       </c>
       <c r="E76" s="3">
-        <v>1176900</v>
+        <v>2893200</v>
       </c>
       <c r="F76" s="3">
-        <v>1003700</v>
+        <v>1163300</v>
       </c>
       <c r="G76" s="3">
-        <v>92100</v>
+        <v>992100</v>
       </c>
       <c r="H76" s="3">
-        <v>104300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>91000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>103100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>168300</v>
+        <v>-264700</v>
       </c>
       <c r="E81" s="3">
-        <v>158300</v>
+        <v>166400</v>
       </c>
       <c r="F81" s="3">
-        <v>59400</v>
+        <v>156500</v>
       </c>
       <c r="G81" s="3">
-        <v>-21000</v>
+        <v>58700</v>
       </c>
       <c r="H81" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-20800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-22800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50500</v>
+        <v>98800</v>
       </c>
       <c r="E83" s="3">
-        <v>32200</v>
+        <v>49900</v>
       </c>
       <c r="F83" s="3">
-        <v>18200</v>
+        <v>31800</v>
       </c>
       <c r="G83" s="3">
-        <v>11300</v>
+        <v>18000</v>
       </c>
       <c r="H83" s="3">
-        <v>8500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>8400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11100</v>
+        <v>702600</v>
       </c>
       <c r="E89" s="3">
-        <v>-522600</v>
+        <v>11000</v>
       </c>
       <c r="F89" s="3">
-        <v>-476000</v>
+        <v>-516500</v>
       </c>
       <c r="G89" s="3">
-        <v>-253000</v>
+        <v>-470500</v>
       </c>
       <c r="H89" s="3">
-        <v>-97200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-250100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-96100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,29 +3365,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-73300</v>
+        <v>-210900</v>
       </c>
       <c r="E91" s="3">
-        <v>-65700</v>
+        <v>-72500</v>
       </c>
       <c r="F91" s="3">
-        <v>-27800</v>
+        <v>-65000</v>
       </c>
       <c r="G91" s="3">
-        <v>-27800</v>
+        <v>-27400</v>
       </c>
       <c r="H91" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1144700</v>
+        <v>-579900</v>
       </c>
       <c r="E94" s="3">
-        <v>-86200</v>
+        <v>-1131500</v>
       </c>
       <c r="F94" s="3">
-        <v>-539400</v>
+        <v>-85200</v>
       </c>
       <c r="G94" s="3">
-        <v>-59100</v>
+        <v>-533100</v>
       </c>
       <c r="H94" s="3">
-        <v>37400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-58400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>37000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1422000</v>
+        <v>276500</v>
       </c>
       <c r="E100" s="3">
-        <v>740500</v>
+        <v>1405600</v>
       </c>
       <c r="F100" s="3">
-        <v>944900</v>
+        <v>732000</v>
       </c>
       <c r="G100" s="3">
-        <v>404600</v>
+        <v>933900</v>
       </c>
       <c r="H100" s="3">
-        <v>74500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>400000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>73600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,30 +3702,33 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2500</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>291400</v>
+        <v>399000</v>
       </c>
       <c r="E102" s="3">
-        <v>132100</v>
+        <v>288000</v>
       </c>
       <c r="F102" s="3">
-        <v>-67800</v>
+        <v>130600</v>
       </c>
       <c r="G102" s="3">
-        <v>92900</v>
+        <v>-67000</v>
       </c>
       <c r="H102" s="3">
-        <v>17200</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>91800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>17000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1194000</v>
+        <v>1199600</v>
       </c>
       <c r="E8" s="3">
-        <v>644200</v>
+        <v>647300</v>
       </c>
       <c r="F8" s="3">
-        <v>501700</v>
+        <v>504100</v>
       </c>
       <c r="G8" s="3">
-        <v>307600</v>
+        <v>309000</v>
       </c>
       <c r="H8" s="3">
-        <v>149300</v>
+        <v>150000</v>
       </c>
       <c r="I8" s="3">
-        <v>85700</v>
+        <v>86100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>333800</v>
+        <v>335400</v>
       </c>
       <c r="E9" s="3">
-        <v>150000</v>
+        <v>150700</v>
       </c>
       <c r="F9" s="3">
-        <v>83200</v>
+        <v>83600</v>
       </c>
       <c r="G9" s="3">
-        <v>62900</v>
+        <v>63200</v>
       </c>
       <c r="H9" s="3">
-        <v>43700</v>
+        <v>43900</v>
       </c>
       <c r="I9" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>860200</v>
+        <v>864200</v>
       </c>
       <c r="E10" s="3">
-        <v>494200</v>
+        <v>496600</v>
       </c>
       <c r="F10" s="3">
-        <v>418600</v>
+        <v>420600</v>
       </c>
       <c r="G10" s="3">
-        <v>244700</v>
+        <v>245800</v>
       </c>
       <c r="H10" s="3">
-        <v>105700</v>
+        <v>106200</v>
       </c>
       <c r="I10" s="3">
-        <v>59700</v>
+        <v>60000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>40500</v>
+        <v>40700</v>
       </c>
       <c r="E15" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="F15" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="G15" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H15" s="3">
         <v>5100</v>
       </c>
       <c r="I15" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>725700</v>
+        <v>729100</v>
       </c>
       <c r="E17" s="3">
-        <v>359400</v>
+        <v>361100</v>
       </c>
       <c r="F17" s="3">
-        <v>220300</v>
+        <v>221300</v>
       </c>
       <c r="G17" s="3">
-        <v>162700</v>
+        <v>163500</v>
       </c>
       <c r="H17" s="3">
-        <v>121700</v>
+        <v>122300</v>
       </c>
       <c r="I17" s="3">
-        <v>67100</v>
+        <v>67400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>468300</v>
+        <v>470500</v>
       </c>
       <c r="E18" s="3">
-        <v>284800</v>
+        <v>286100</v>
       </c>
       <c r="F18" s="3">
-        <v>281400</v>
+        <v>282800</v>
       </c>
       <c r="G18" s="3">
-        <v>144900</v>
+        <v>145600</v>
       </c>
       <c r="H18" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="I18" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-664800</v>
+        <v>-667900</v>
       </c>
       <c r="E20" s="3">
-        <v>-65100</v>
+        <v>-65400</v>
       </c>
       <c r="F20" s="3">
-        <v>-68000</v>
+        <v>-68400</v>
       </c>
       <c r="G20" s="3">
-        <v>-58700</v>
+        <v>-59000</v>
       </c>
       <c r="H20" s="3">
-        <v>-46200</v>
+        <v>-46500</v>
       </c>
       <c r="I20" s="3">
-        <v>-47600</v>
+        <v>-47900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-97700</v>
+        <v>-98100</v>
       </c>
       <c r="E21" s="3">
-        <v>269500</v>
+        <v>270800</v>
       </c>
       <c r="F21" s="3">
-        <v>245200</v>
+        <v>246400</v>
       </c>
       <c r="G21" s="3">
-        <v>104100</v>
+        <v>104600</v>
       </c>
       <c r="H21" s="3">
         <v>-7500</v>
       </c>
       <c r="I21" s="3">
-        <v>-20700</v>
+        <v>-20800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>85100</v>
+        <v>85500</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-281600</v>
+        <v>-282900</v>
       </c>
       <c r="E23" s="3">
-        <v>219600</v>
+        <v>220700</v>
       </c>
       <c r="F23" s="3">
-        <v>212400</v>
+        <v>213400</v>
       </c>
       <c r="G23" s="3">
-        <v>86200</v>
+        <v>86600</v>
       </c>
       <c r="H23" s="3">
-        <v>-18600</v>
+        <v>-18700</v>
       </c>
       <c r="I23" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1237,13 +1237,13 @@
         <v>-13300</v>
       </c>
       <c r="E24" s="3">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="F24" s="3">
-        <v>55800</v>
+        <v>56100</v>
       </c>
       <c r="G24" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="H24" s="3">
         <v>1800</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-268300</v>
+        <v>-269500</v>
       </c>
       <c r="E26" s="3">
-        <v>163100</v>
+        <v>163900</v>
       </c>
       <c r="F26" s="3">
-        <v>156600</v>
+        <v>157400</v>
       </c>
       <c r="G26" s="3">
-        <v>59500</v>
+        <v>59700</v>
       </c>
       <c r="H26" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="I26" s="3">
-        <v>-23800</v>
+        <v>-23900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-264700</v>
+        <v>-265900</v>
       </c>
       <c r="E27" s="3">
-        <v>166400</v>
+        <v>167100</v>
       </c>
       <c r="F27" s="3">
-        <v>156500</v>
+        <v>157200</v>
       </c>
       <c r="G27" s="3">
-        <v>58700</v>
+        <v>59000</v>
       </c>
       <c r="H27" s="3">
-        <v>-20800</v>
+        <v>-20900</v>
       </c>
       <c r="I27" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>664800</v>
+        <v>667900</v>
       </c>
       <c r="E32" s="3">
-        <v>65100</v>
+        <v>65400</v>
       </c>
       <c r="F32" s="3">
-        <v>68000</v>
+        <v>68400</v>
       </c>
       <c r="G32" s="3">
-        <v>58700</v>
+        <v>59000</v>
       </c>
       <c r="H32" s="3">
-        <v>46200</v>
+        <v>46500</v>
       </c>
       <c r="I32" s="3">
-        <v>47600</v>
+        <v>47900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-264700</v>
+        <v>-265900</v>
       </c>
       <c r="E33" s="3">
-        <v>166400</v>
+        <v>167100</v>
       </c>
       <c r="F33" s="3">
-        <v>156500</v>
+        <v>157200</v>
       </c>
       <c r="G33" s="3">
-        <v>58700</v>
+        <v>59000</v>
       </c>
       <c r="H33" s="3">
-        <v>-20800</v>
+        <v>-20900</v>
       </c>
       <c r="I33" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-264700</v>
+        <v>-265900</v>
       </c>
       <c r="E35" s="3">
-        <v>166400</v>
+        <v>167100</v>
       </c>
       <c r="F35" s="3">
-        <v>156500</v>
+        <v>157200</v>
       </c>
       <c r="G35" s="3">
-        <v>58700</v>
+        <v>59000</v>
       </c>
       <c r="H35" s="3">
-        <v>-20800</v>
+        <v>-20900</v>
       </c>
       <c r="I35" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>875700</v>
+        <v>879800</v>
       </c>
       <c r="E41" s="3">
-        <v>476600</v>
+        <v>478900</v>
       </c>
       <c r="F41" s="3">
-        <v>188600</v>
+        <v>189500</v>
       </c>
       <c r="G41" s="3">
-        <v>58000</v>
+        <v>58300</v>
       </c>
       <c r="H41" s="3">
-        <v>125000</v>
+        <v>125600</v>
       </c>
       <c r="I41" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>388200</v>
+        <v>390000</v>
       </c>
       <c r="E42" s="3">
-        <v>1583200</v>
+        <v>1590700</v>
       </c>
       <c r="F42" s="3">
-        <v>572100</v>
+        <v>574800</v>
       </c>
       <c r="G42" s="3">
-        <v>539700</v>
+        <v>542200</v>
       </c>
       <c r="H42" s="3">
-        <v>39300</v>
+        <v>39500</v>
       </c>
       <c r="I42" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3974100</v>
+        <v>3992900</v>
       </c>
       <c r="E43" s="3">
-        <v>3463100</v>
+        <v>3479400</v>
       </c>
       <c r="F43" s="3">
-        <v>2798300</v>
+        <v>2811600</v>
       </c>
       <c r="G43" s="3">
-        <v>1820400</v>
+        <v>1829000</v>
       </c>
       <c r="H43" s="3">
-        <v>1001300</v>
+        <v>1006000</v>
       </c>
       <c r="I43" s="3">
-        <v>598300</v>
+        <v>601100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>597600</v>
+        <v>600500</v>
       </c>
       <c r="E45" s="3">
-        <v>179300</v>
+        <v>180100</v>
       </c>
       <c r="F45" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="G45" s="3">
         <v>4500</v>
       </c>
       <c r="H45" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I45" s="3">
         <v>2100</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5835600</v>
+        <v>5863200</v>
       </c>
       <c r="E46" s="3">
-        <v>5702200</v>
+        <v>5729100</v>
       </c>
       <c r="F46" s="3">
-        <v>3584900</v>
+        <v>3601800</v>
       </c>
       <c r="G46" s="3">
-        <v>2422600</v>
+        <v>2434100</v>
       </c>
       <c r="H46" s="3">
-        <v>1168600</v>
+        <v>1174100</v>
       </c>
       <c r="I46" s="3">
-        <v>646500</v>
+        <v>649500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>266700</v>
+        <v>268000</v>
       </c>
       <c r="E47" s="3">
-        <v>86000</v>
+        <v>86400</v>
       </c>
       <c r="F47" s="3">
         <v>8000</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>305700</v>
+        <v>307200</v>
       </c>
       <c r="E48" s="3">
-        <v>139700</v>
+        <v>140400</v>
       </c>
       <c r="F48" s="3">
-        <v>106900</v>
+        <v>107400</v>
       </c>
       <c r="G48" s="3">
-        <v>51900</v>
+        <v>52100</v>
       </c>
       <c r="H48" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="I48" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1630400</v>
+        <v>1638100</v>
       </c>
       <c r="E49" s="3">
-        <v>202500</v>
+        <v>203500</v>
       </c>
       <c r="F49" s="3">
-        <v>72800</v>
+        <v>73100</v>
       </c>
       <c r="G49" s="3">
-        <v>59900</v>
+        <v>60200</v>
       </c>
       <c r="H49" s="3">
-        <v>45600</v>
+        <v>45800</v>
       </c>
       <c r="I49" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>153400</v>
+        <v>154100</v>
       </c>
       <c r="E52" s="3">
-        <v>53600</v>
+        <v>53900</v>
       </c>
       <c r="F52" s="3">
-        <v>46300</v>
+        <v>46500</v>
       </c>
       <c r="G52" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="H52" s="3">
-        <v>39300</v>
+        <v>39500</v>
       </c>
       <c r="I52" s="3">
-        <v>35700</v>
+        <v>35800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8191800</v>
+        <v>8230500</v>
       </c>
       <c r="E54" s="3">
-        <v>6184000</v>
+        <v>6213200</v>
       </c>
       <c r="F54" s="3">
-        <v>3818800</v>
+        <v>3836800</v>
       </c>
       <c r="G54" s="3">
-        <v>2589300</v>
+        <v>2601500</v>
       </c>
       <c r="H54" s="3">
-        <v>1292500</v>
+        <v>1298600</v>
       </c>
       <c r="I54" s="3">
-        <v>747800</v>
+        <v>751300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3135200</v>
+        <v>3150000</v>
       </c>
       <c r="E57" s="3">
-        <v>1821700</v>
+        <v>1830400</v>
       </c>
       <c r="F57" s="3">
-        <v>1285100</v>
+        <v>1291200</v>
       </c>
       <c r="G57" s="3">
-        <v>996100</v>
+        <v>1000800</v>
       </c>
       <c r="H57" s="3">
-        <v>718900</v>
+        <v>722300</v>
       </c>
       <c r="I57" s="3">
-        <v>597500</v>
+        <v>600300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>754500</v>
+        <v>758100</v>
       </c>
       <c r="E58" s="3">
-        <v>612600</v>
+        <v>615400</v>
       </c>
       <c r="F58" s="3">
-        <v>981400</v>
+        <v>986100</v>
       </c>
       <c r="G58" s="3">
-        <v>151500</v>
+        <v>152200</v>
       </c>
       <c r="H58" s="3">
         <v>4400</v>
       </c>
       <c r="I58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>549400</v>
+        <v>552000</v>
       </c>
       <c r="E59" s="3">
-        <v>171900</v>
+        <v>172700</v>
       </c>
       <c r="F59" s="3">
-        <v>46000</v>
+        <v>46200</v>
       </c>
       <c r="G59" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="H59" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="I59" s="3">
         <v>6200</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4439000</v>
+        <v>4460000</v>
       </c>
       <c r="E60" s="3">
-        <v>2606200</v>
+        <v>2618500</v>
       </c>
       <c r="F60" s="3">
-        <v>2312500</v>
+        <v>2323500</v>
       </c>
       <c r="G60" s="3">
-        <v>1179300</v>
+        <v>1184900</v>
       </c>
       <c r="H60" s="3">
-        <v>744800</v>
+        <v>748300</v>
       </c>
       <c r="I60" s="3">
-        <v>608100</v>
+        <v>611000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>874300</v>
+        <v>878500</v>
       </c>
       <c r="E61" s="3">
-        <v>572400</v>
+        <v>575100</v>
       </c>
       <c r="F61" s="3">
-        <v>332600</v>
+        <v>334200</v>
       </c>
       <c r="G61" s="3">
-        <v>401100</v>
+        <v>403000</v>
       </c>
       <c r="H61" s="3">
-        <v>401100</v>
+        <v>403000</v>
       </c>
       <c r="I61" s="3">
         <v>3500</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>230600</v>
+        <v>231600</v>
       </c>
       <c r="E62" s="3">
-        <v>85200</v>
+        <v>85600</v>
       </c>
       <c r="F62" s="3">
         <v>10300</v>
       </c>
       <c r="G62" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="H62" s="3">
-        <v>52600</v>
+        <v>52900</v>
       </c>
       <c r="I62" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5559900</v>
+        <v>5586200</v>
       </c>
       <c r="E66" s="3">
-        <v>3290800</v>
+        <v>3306400</v>
       </c>
       <c r="F66" s="3">
-        <v>2655500</v>
+        <v>2668100</v>
       </c>
       <c r="G66" s="3">
-        <v>1597200</v>
+        <v>1604700</v>
       </c>
       <c r="H66" s="3">
-        <v>1201500</v>
+        <v>1207200</v>
       </c>
       <c r="I66" s="3">
-        <v>644700</v>
+        <v>647800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2846300</v>
+        <v>2859800</v>
       </c>
       <c r="E72" s="3">
-        <v>2909000</v>
+        <v>2922700</v>
       </c>
       <c r="F72" s="3">
-        <v>1177400</v>
+        <v>1183000</v>
       </c>
       <c r="G72" s="3">
-        <v>1003000</v>
+        <v>1007800</v>
       </c>
       <c r="H72" s="3">
-        <v>90500</v>
+        <v>90900</v>
       </c>
       <c r="I72" s="3">
-        <v>103100</v>
+        <v>103500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2631900</v>
+        <v>2644300</v>
       </c>
       <c r="E76" s="3">
-        <v>2893200</v>
+        <v>2906800</v>
       </c>
       <c r="F76" s="3">
-        <v>1163300</v>
+        <v>1168800</v>
       </c>
       <c r="G76" s="3">
-        <v>992100</v>
+        <v>996800</v>
       </c>
       <c r="H76" s="3">
-        <v>91000</v>
+        <v>91500</v>
       </c>
       <c r="I76" s="3">
-        <v>103100</v>
+        <v>103500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-264700</v>
+        <v>-265900</v>
       </c>
       <c r="E81" s="3">
-        <v>166400</v>
+        <v>167100</v>
       </c>
       <c r="F81" s="3">
-        <v>156500</v>
+        <v>157200</v>
       </c>
       <c r="G81" s="3">
-        <v>58700</v>
+        <v>59000</v>
       </c>
       <c r="H81" s="3">
-        <v>-20800</v>
+        <v>-20900</v>
       </c>
       <c r="I81" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>98800</v>
+        <v>99300</v>
       </c>
       <c r="E83" s="3">
-        <v>49900</v>
+        <v>50200</v>
       </c>
       <c r="F83" s="3">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="G83" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="H83" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="I83" s="3">
         <v>8400</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>702600</v>
+        <v>705900</v>
       </c>
       <c r="E89" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F89" s="3">
-        <v>-516500</v>
+        <v>-519000</v>
       </c>
       <c r="G89" s="3">
-        <v>-470500</v>
+        <v>-472700</v>
       </c>
       <c r="H89" s="3">
-        <v>-250100</v>
+        <v>-251300</v>
       </c>
       <c r="I89" s="3">
-        <v>-96100</v>
+        <v>-96600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-210900</v>
+        <v>-211900</v>
       </c>
       <c r="E91" s="3">
-        <v>-72500</v>
+        <v>-72800</v>
       </c>
       <c r="F91" s="3">
-        <v>-65000</v>
+        <v>-65300</v>
       </c>
       <c r="G91" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="H91" s="3">
-        <v>-27500</v>
+        <v>-27600</v>
       </c>
       <c r="I91" s="3">
         <v>-6200</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-579900</v>
+        <v>-582600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1131500</v>
+        <v>-1136800</v>
       </c>
       <c r="F94" s="3">
-        <v>-85200</v>
+        <v>-85600</v>
       </c>
       <c r="G94" s="3">
-        <v>-533100</v>
+        <v>-535700</v>
       </c>
       <c r="H94" s="3">
-        <v>-58400</v>
+        <v>-58600</v>
       </c>
       <c r="I94" s="3">
-        <v>37000</v>
+        <v>37200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>276500</v>
+        <v>277800</v>
       </c>
       <c r="E100" s="3">
-        <v>1405600</v>
+        <v>1412200</v>
       </c>
       <c r="F100" s="3">
-        <v>732000</v>
+        <v>735400</v>
       </c>
       <c r="G100" s="3">
-        <v>933900</v>
+        <v>938400</v>
       </c>
       <c r="H100" s="3">
-        <v>400000</v>
+        <v>401900</v>
       </c>
       <c r="I100" s="3">
-        <v>73600</v>
+        <v>74000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>399000</v>
+        <v>400900</v>
       </c>
       <c r="E102" s="3">
-        <v>288000</v>
+        <v>289400</v>
       </c>
       <c r="F102" s="3">
-        <v>130600</v>
+        <v>131200</v>
       </c>
       <c r="G102" s="3">
-        <v>-67000</v>
+        <v>-67300</v>
       </c>
       <c r="H102" s="3">
-        <v>91800</v>
+        <v>92200</v>
       </c>
       <c r="I102" s="3">
         <v>17000</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1199600</v>
+        <v>1146900</v>
       </c>
       <c r="E8" s="3">
-        <v>647300</v>
+        <v>618800</v>
       </c>
       <c r="F8" s="3">
-        <v>504100</v>
+        <v>481900</v>
       </c>
       <c r="G8" s="3">
-        <v>309000</v>
+        <v>295400</v>
       </c>
       <c r="H8" s="3">
-        <v>150000</v>
+        <v>143400</v>
       </c>
       <c r="I8" s="3">
-        <v>86100</v>
+        <v>82300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>335400</v>
+        <v>320600</v>
       </c>
       <c r="E9" s="3">
-        <v>150700</v>
+        <v>144000</v>
       </c>
       <c r="F9" s="3">
-        <v>83600</v>
+        <v>79900</v>
       </c>
       <c r="G9" s="3">
-        <v>63200</v>
+        <v>60400</v>
       </c>
       <c r="H9" s="3">
-        <v>43900</v>
+        <v>41900</v>
       </c>
       <c r="I9" s="3">
-        <v>26100</v>
+        <v>24900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>864200</v>
+        <v>826200</v>
       </c>
       <c r="E10" s="3">
-        <v>496600</v>
+        <v>474700</v>
       </c>
       <c r="F10" s="3">
-        <v>420600</v>
+        <v>402100</v>
       </c>
       <c r="G10" s="3">
-        <v>245800</v>
+        <v>235000</v>
       </c>
       <c r="H10" s="3">
-        <v>106200</v>
+        <v>101500</v>
       </c>
       <c r="I10" s="3">
-        <v>60000</v>
+        <v>57400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>40700</v>
+        <v>38900</v>
       </c>
       <c r="E15" s="3">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="F15" s="3">
-        <v>12400</v>
+        <v>11800</v>
       </c>
       <c r="G15" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="H15" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="I15" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>729100</v>
+        <v>697000</v>
       </c>
       <c r="E17" s="3">
-        <v>361100</v>
+        <v>345300</v>
       </c>
       <c r="F17" s="3">
-        <v>221300</v>
+        <v>211600</v>
       </c>
       <c r="G17" s="3">
-        <v>163500</v>
+        <v>156300</v>
       </c>
       <c r="H17" s="3">
-        <v>122300</v>
+        <v>116900</v>
       </c>
       <c r="I17" s="3">
-        <v>67400</v>
+        <v>64500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>470500</v>
+        <v>449800</v>
       </c>
       <c r="E18" s="3">
-        <v>286100</v>
+        <v>273500</v>
       </c>
       <c r="F18" s="3">
-        <v>282800</v>
+        <v>270300</v>
       </c>
       <c r="G18" s="3">
-        <v>145600</v>
+        <v>139200</v>
       </c>
       <c r="H18" s="3">
-        <v>27700</v>
+        <v>26500</v>
       </c>
       <c r="I18" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-667900</v>
+        <v>-638500</v>
       </c>
       <c r="E20" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-65400</v>
       </c>
-      <c r="F20" s="3">
-        <v>-68400</v>
-      </c>
       <c r="G20" s="3">
-        <v>-59000</v>
+        <v>-56400</v>
       </c>
       <c r="H20" s="3">
-        <v>-46500</v>
+        <v>-44400</v>
       </c>
       <c r="I20" s="3">
-        <v>-47900</v>
+        <v>-45800</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-98100</v>
+        <v>-90900</v>
       </c>
       <c r="E21" s="3">
-        <v>270800</v>
+        <v>260400</v>
       </c>
       <c r="F21" s="3">
-        <v>246400</v>
+        <v>236500</v>
       </c>
       <c r="G21" s="3">
-        <v>104600</v>
+        <v>100600</v>
       </c>
       <c r="H21" s="3">
-        <v>-7500</v>
+        <v>-6900</v>
       </c>
       <c r="I21" s="3">
-        <v>-20800</v>
+        <v>-19600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>85500</v>
+        <v>81800</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-282900</v>
+        <v>-270400</v>
       </c>
       <c r="E23" s="3">
-        <v>220700</v>
+        <v>211000</v>
       </c>
       <c r="F23" s="3">
-        <v>213400</v>
+        <v>204100</v>
       </c>
       <c r="G23" s="3">
-        <v>86600</v>
+        <v>82800</v>
       </c>
       <c r="H23" s="3">
-        <v>-18700</v>
+        <v>-17900</v>
       </c>
       <c r="I23" s="3">
-        <v>-29200</v>
+        <v>-27900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-13300</v>
+        <v>-12800</v>
       </c>
       <c r="E24" s="3">
-        <v>56800</v>
+        <v>54300</v>
       </c>
       <c r="F24" s="3">
-        <v>56100</v>
+        <v>53600</v>
       </c>
       <c r="G24" s="3">
-        <v>26800</v>
+        <v>25700</v>
       </c>
       <c r="H24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I24" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-269500</v>
+        <v>-257700</v>
       </c>
       <c r="E26" s="3">
-        <v>163900</v>
+        <v>156700</v>
       </c>
       <c r="F26" s="3">
-        <v>157400</v>
+        <v>150500</v>
       </c>
       <c r="G26" s="3">
-        <v>59700</v>
+        <v>57100</v>
       </c>
       <c r="H26" s="3">
-        <v>-20500</v>
+        <v>-19600</v>
       </c>
       <c r="I26" s="3">
-        <v>-23900</v>
+        <v>-22900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-265900</v>
+        <v>-254200</v>
       </c>
       <c r="E27" s="3">
-        <v>167100</v>
+        <v>159800</v>
       </c>
       <c r="F27" s="3">
-        <v>157200</v>
+        <v>150300</v>
       </c>
       <c r="G27" s="3">
-        <v>59000</v>
+        <v>56400</v>
       </c>
       <c r="H27" s="3">
-        <v>-20900</v>
+        <v>-20000</v>
       </c>
       <c r="I27" s="3">
-        <v>-22900</v>
+        <v>-21900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>667900</v>
+        <v>638500</v>
       </c>
       <c r="E32" s="3">
+        <v>62500</v>
+      </c>
+      <c r="F32" s="3">
         <v>65400</v>
       </c>
-      <c r="F32" s="3">
-        <v>68400</v>
-      </c>
       <c r="G32" s="3">
-        <v>59000</v>
+        <v>56400</v>
       </c>
       <c r="H32" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="I32" s="3">
-        <v>47900</v>
+        <v>45800</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-265900</v>
+        <v>-254200</v>
       </c>
       <c r="E33" s="3">
-        <v>167100</v>
+        <v>159800</v>
       </c>
       <c r="F33" s="3">
-        <v>157200</v>
+        <v>150300</v>
       </c>
       <c r="G33" s="3">
-        <v>59000</v>
+        <v>56400</v>
       </c>
       <c r="H33" s="3">
-        <v>-20900</v>
+        <v>-20000</v>
       </c>
       <c r="I33" s="3">
-        <v>-22900</v>
+        <v>-21900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-265900</v>
+        <v>-254200</v>
       </c>
       <c r="E35" s="3">
-        <v>167100</v>
+        <v>159800</v>
       </c>
       <c r="F35" s="3">
-        <v>157200</v>
+        <v>150300</v>
       </c>
       <c r="G35" s="3">
-        <v>59000</v>
+        <v>56400</v>
       </c>
       <c r="H35" s="3">
-        <v>-20900</v>
+        <v>-20000</v>
       </c>
       <c r="I35" s="3">
-        <v>-22900</v>
+        <v>-21900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>879800</v>
+        <v>841100</v>
       </c>
       <c r="E41" s="3">
-        <v>478900</v>
+        <v>457800</v>
       </c>
       <c r="F41" s="3">
-        <v>189500</v>
+        <v>181200</v>
       </c>
       <c r="G41" s="3">
-        <v>58300</v>
+        <v>55700</v>
       </c>
       <c r="H41" s="3">
-        <v>125600</v>
+        <v>120100</v>
       </c>
       <c r="I41" s="3">
-        <v>33400</v>
+        <v>31900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>390000</v>
+        <v>372900</v>
       </c>
       <c r="E42" s="3">
-        <v>1590700</v>
+        <v>1520700</v>
       </c>
       <c r="F42" s="3">
-        <v>574800</v>
+        <v>549500</v>
       </c>
       <c r="G42" s="3">
-        <v>542200</v>
+        <v>518300</v>
       </c>
       <c r="H42" s="3">
-        <v>39500</v>
+        <v>37700</v>
       </c>
       <c r="I42" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3992900</v>
+        <v>3814300</v>
       </c>
       <c r="E43" s="3">
-        <v>3479400</v>
+        <v>3326300</v>
       </c>
       <c r="F43" s="3">
-        <v>2811600</v>
+        <v>2687900</v>
       </c>
       <c r="G43" s="3">
-        <v>1829000</v>
+        <v>1748600</v>
       </c>
       <c r="H43" s="3">
-        <v>1006000</v>
+        <v>961800</v>
       </c>
       <c r="I43" s="3">
-        <v>601100</v>
+        <v>574600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600500</v>
+        <v>574000</v>
       </c>
       <c r="E45" s="3">
-        <v>180100</v>
+        <v>172200</v>
       </c>
       <c r="F45" s="3">
-        <v>26000</v>
+        <v>24900</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H45" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5863200</v>
+        <v>5602300</v>
       </c>
       <c r="E46" s="3">
-        <v>5729100</v>
+        <v>5477000</v>
       </c>
       <c r="F46" s="3">
-        <v>3601800</v>
+        <v>3443400</v>
       </c>
       <c r="G46" s="3">
-        <v>2434100</v>
+        <v>2327000</v>
       </c>
       <c r="H46" s="3">
-        <v>1174100</v>
+        <v>1122500</v>
       </c>
       <c r="I46" s="3">
-        <v>649500</v>
+        <v>621000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>268000</v>
+        <v>256200</v>
       </c>
       <c r="E47" s="3">
-        <v>86400</v>
+        <v>82600</v>
       </c>
       <c r="F47" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="G47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="H47" s="3">
-        <v>2100</v>
-      </c>
       <c r="I47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>307200</v>
+        <v>293600</v>
       </c>
       <c r="E48" s="3">
-        <v>140400</v>
+        <v>134200</v>
       </c>
       <c r="F48" s="3">
-        <v>107400</v>
+        <v>102600</v>
       </c>
       <c r="G48" s="3">
-        <v>52100</v>
+        <v>49800</v>
       </c>
       <c r="H48" s="3">
-        <v>37100</v>
+        <v>35500</v>
       </c>
       <c r="I48" s="3">
-        <v>18300</v>
+        <v>17500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1638100</v>
+        <v>1552400</v>
       </c>
       <c r="E49" s="3">
-        <v>203500</v>
+        <v>194600</v>
       </c>
       <c r="F49" s="3">
-        <v>73100</v>
+        <v>69900</v>
       </c>
       <c r="G49" s="3">
-        <v>60200</v>
+        <v>57600</v>
       </c>
       <c r="H49" s="3">
-        <v>45800</v>
+        <v>43800</v>
       </c>
       <c r="I49" s="3">
-        <v>46900</v>
+        <v>44900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>154100</v>
+        <v>175200</v>
       </c>
       <c r="E52" s="3">
-        <v>53900</v>
+        <v>51500</v>
       </c>
       <c r="F52" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="G52" s="3">
-        <v>53100</v>
+        <v>50700</v>
       </c>
       <c r="H52" s="3">
-        <v>39500</v>
+        <v>37700</v>
       </c>
       <c r="I52" s="3">
-        <v>35800</v>
+        <v>34300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8230500</v>
+        <v>7877400</v>
       </c>
       <c r="E54" s="3">
-        <v>6213200</v>
+        <v>5939900</v>
       </c>
       <c r="F54" s="3">
-        <v>3836800</v>
+        <v>3668000</v>
       </c>
       <c r="G54" s="3">
-        <v>2601500</v>
+        <v>2487000</v>
       </c>
       <c r="H54" s="3">
-        <v>1298600</v>
+        <v>1241500</v>
       </c>
       <c r="I54" s="3">
-        <v>751300</v>
+        <v>718300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3150000</v>
+        <v>3011400</v>
       </c>
       <c r="E57" s="3">
-        <v>1830400</v>
+        <v>1749800</v>
       </c>
       <c r="F57" s="3">
-        <v>1291200</v>
+        <v>1234400</v>
       </c>
       <c r="G57" s="3">
-        <v>1000800</v>
+        <v>956800</v>
       </c>
       <c r="H57" s="3">
-        <v>722300</v>
+        <v>690500</v>
       </c>
       <c r="I57" s="3">
-        <v>600300</v>
+        <v>573900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>758100</v>
+        <v>724700</v>
       </c>
       <c r="E58" s="3">
-        <v>615400</v>
+        <v>588400</v>
       </c>
       <c r="F58" s="3">
-        <v>986100</v>
+        <v>942700</v>
       </c>
       <c r="G58" s="3">
-        <v>152200</v>
+        <v>145500</v>
       </c>
       <c r="H58" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I58" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>552000</v>
+        <v>527700</v>
       </c>
       <c r="E59" s="3">
-        <v>172700</v>
+        <v>165100</v>
       </c>
       <c r="F59" s="3">
-        <v>46200</v>
+        <v>44100</v>
       </c>
       <c r="G59" s="3">
-        <v>31900</v>
+        <v>30500</v>
       </c>
       <c r="H59" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="I59" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4460000</v>
+        <v>4263800</v>
       </c>
       <c r="E60" s="3">
-        <v>2618500</v>
+        <v>2503300</v>
       </c>
       <c r="F60" s="3">
-        <v>2323500</v>
+        <v>2221200</v>
       </c>
       <c r="G60" s="3">
-        <v>1184900</v>
+        <v>1132800</v>
       </c>
       <c r="H60" s="3">
-        <v>748300</v>
+        <v>715400</v>
       </c>
       <c r="I60" s="3">
-        <v>611000</v>
+        <v>584100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>878500</v>
+        <v>839800</v>
       </c>
       <c r="E61" s="3">
-        <v>575100</v>
+        <v>549800</v>
       </c>
       <c r="F61" s="3">
-        <v>334200</v>
+        <v>319500</v>
       </c>
       <c r="G61" s="3">
-        <v>403000</v>
+        <v>385300</v>
       </c>
       <c r="H61" s="3">
-        <v>403000</v>
+        <v>385300</v>
       </c>
       <c r="I61" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>231600</v>
+        <v>224300</v>
       </c>
       <c r="E62" s="3">
-        <v>85600</v>
+        <v>81800</v>
       </c>
       <c r="F62" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="G62" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="H62" s="3">
-        <v>52900</v>
+        <v>50600</v>
       </c>
       <c r="I62" s="3">
-        <v>21900</v>
+        <v>21000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5586200</v>
+        <v>5344800</v>
       </c>
       <c r="E66" s="3">
-        <v>3306400</v>
+        <v>3160900</v>
       </c>
       <c r="F66" s="3">
-        <v>2668100</v>
+        <v>2550700</v>
       </c>
       <c r="G66" s="3">
-        <v>1604700</v>
+        <v>1534100</v>
       </c>
       <c r="H66" s="3">
-        <v>1207200</v>
+        <v>1154000</v>
       </c>
       <c r="I66" s="3">
-        <v>647800</v>
+        <v>619300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2859800</v>
+        <v>2738500</v>
       </c>
       <c r="E72" s="3">
-        <v>2922700</v>
+        <v>2794100</v>
       </c>
       <c r="F72" s="3">
-        <v>1183000</v>
+        <v>1130900</v>
       </c>
       <c r="G72" s="3">
-        <v>1007800</v>
+        <v>963400</v>
       </c>
       <c r="H72" s="3">
-        <v>90900</v>
+        <v>86900</v>
       </c>
       <c r="I72" s="3">
-        <v>103500</v>
+        <v>99000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2644300</v>
+        <v>2532500</v>
       </c>
       <c r="E76" s="3">
-        <v>2906800</v>
+        <v>2778900</v>
       </c>
       <c r="F76" s="3">
-        <v>1168800</v>
+        <v>1117400</v>
       </c>
       <c r="G76" s="3">
-        <v>996800</v>
+        <v>952900</v>
       </c>
       <c r="H76" s="3">
-        <v>91500</v>
+        <v>87400</v>
       </c>
       <c r="I76" s="3">
-        <v>103500</v>
+        <v>99000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-265900</v>
+        <v>-254200</v>
       </c>
       <c r="E81" s="3">
-        <v>167100</v>
+        <v>159800</v>
       </c>
       <c r="F81" s="3">
-        <v>157200</v>
+        <v>150300</v>
       </c>
       <c r="G81" s="3">
-        <v>59000</v>
+        <v>56400</v>
       </c>
       <c r="H81" s="3">
-        <v>-20900</v>
+        <v>-20000</v>
       </c>
       <c r="I81" s="3">
-        <v>-22900</v>
+        <v>-21900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99300</v>
+        <v>94900</v>
       </c>
       <c r="E83" s="3">
-        <v>50200</v>
+        <v>48000</v>
       </c>
       <c r="F83" s="3">
-        <v>32000</v>
+        <v>30600</v>
       </c>
       <c r="G83" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="H83" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="I83" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>705900</v>
+        <v>674800</v>
       </c>
       <c r="E89" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F89" s="3">
-        <v>-519000</v>
+        <v>-496100</v>
       </c>
       <c r="G89" s="3">
-        <v>-472700</v>
+        <v>-451900</v>
       </c>
       <c r="H89" s="3">
-        <v>-251300</v>
+        <v>-240200</v>
       </c>
       <c r="I89" s="3">
-        <v>-96600</v>
+        <v>-92300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-211900</v>
+        <v>-202600</v>
       </c>
       <c r="E91" s="3">
-        <v>-72800</v>
+        <v>-69600</v>
       </c>
       <c r="F91" s="3">
-        <v>-65300</v>
+        <v>-62400</v>
       </c>
       <c r="G91" s="3">
-        <v>-27600</v>
+        <v>-26400</v>
       </c>
       <c r="H91" s="3">
-        <v>-27600</v>
+        <v>-26400</v>
       </c>
       <c r="I91" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-582600</v>
+        <v>-557000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1136800</v>
+        <v>-1086800</v>
       </c>
       <c r="F94" s="3">
-        <v>-85600</v>
+        <v>-81900</v>
       </c>
       <c r="G94" s="3">
-        <v>-535700</v>
+        <v>-512100</v>
       </c>
       <c r="H94" s="3">
-        <v>-58600</v>
+        <v>-56100</v>
       </c>
       <c r="I94" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>277800</v>
+        <v>265600</v>
       </c>
       <c r="E100" s="3">
-        <v>1412200</v>
+        <v>1350100</v>
       </c>
       <c r="F100" s="3">
-        <v>735400</v>
+        <v>703100</v>
       </c>
       <c r="G100" s="3">
-        <v>938400</v>
+        <v>897100</v>
       </c>
       <c r="H100" s="3">
-        <v>401900</v>
+        <v>384200</v>
       </c>
       <c r="I100" s="3">
-        <v>74000</v>
+        <v>70700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3715,19 +3715,19 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
       </c>
       <c r="I101" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>400900</v>
+        <v>383300</v>
       </c>
       <c r="E102" s="3">
-        <v>289400</v>
+        <v>276600</v>
       </c>
       <c r="F102" s="3">
-        <v>131200</v>
+        <v>125400</v>
       </c>
       <c r="G102" s="3">
-        <v>-67300</v>
+        <v>-64400</v>
       </c>
       <c r="H102" s="3">
-        <v>92200</v>
+        <v>88200</v>
       </c>
       <c r="I102" s="3">
-        <v>17000</v>
+        <v>16300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1146900</v>
+        <v>1186900</v>
       </c>
       <c r="E8" s="3">
-        <v>618800</v>
+        <v>640400</v>
       </c>
       <c r="F8" s="3">
-        <v>481900</v>
+        <v>498800</v>
       </c>
       <c r="G8" s="3">
-        <v>295400</v>
+        <v>305800</v>
       </c>
       <c r="H8" s="3">
-        <v>143400</v>
+        <v>148400</v>
       </c>
       <c r="I8" s="3">
-        <v>82300</v>
+        <v>85200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>320600</v>
+        <v>331800</v>
       </c>
       <c r="E9" s="3">
-        <v>144000</v>
+        <v>149100</v>
       </c>
       <c r="F9" s="3">
-        <v>79900</v>
+        <v>82700</v>
       </c>
       <c r="G9" s="3">
-        <v>60400</v>
+        <v>62600</v>
       </c>
       <c r="H9" s="3">
-        <v>41900</v>
+        <v>43400</v>
       </c>
       <c r="I9" s="3">
-        <v>24900</v>
+        <v>25800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>826200</v>
+        <v>855100</v>
       </c>
       <c r="E10" s="3">
-        <v>474700</v>
+        <v>491300</v>
       </c>
       <c r="F10" s="3">
-        <v>402100</v>
+        <v>416100</v>
       </c>
       <c r="G10" s="3">
-        <v>235000</v>
+        <v>243200</v>
       </c>
       <c r="H10" s="3">
-        <v>101500</v>
+        <v>105000</v>
       </c>
       <c r="I10" s="3">
-        <v>57400</v>
+        <v>59400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>38900</v>
+        <v>40300</v>
       </c>
       <c r="E15" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="F15" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="G15" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="H15" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I15" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>697000</v>
+        <v>721400</v>
       </c>
       <c r="E17" s="3">
-        <v>345300</v>
+        <v>357300</v>
       </c>
       <c r="F17" s="3">
-        <v>211600</v>
+        <v>219000</v>
       </c>
       <c r="G17" s="3">
-        <v>156300</v>
+        <v>161700</v>
       </c>
       <c r="H17" s="3">
-        <v>116900</v>
+        <v>121000</v>
       </c>
       <c r="I17" s="3">
-        <v>64500</v>
+        <v>66700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>449800</v>
+        <v>465600</v>
       </c>
       <c r="E18" s="3">
-        <v>273500</v>
+        <v>283100</v>
       </c>
       <c r="F18" s="3">
-        <v>270300</v>
+        <v>279800</v>
       </c>
       <c r="G18" s="3">
-        <v>139200</v>
+        <v>144000</v>
       </c>
       <c r="H18" s="3">
-        <v>26500</v>
+        <v>27400</v>
       </c>
       <c r="I18" s="3">
-        <v>17800</v>
+        <v>18500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-638500</v>
+        <v>-660900</v>
       </c>
       <c r="E20" s="3">
-        <v>-62500</v>
+        <v>-64700</v>
       </c>
       <c r="F20" s="3">
-        <v>-65400</v>
+        <v>-67600</v>
       </c>
       <c r="G20" s="3">
-        <v>-56400</v>
+        <v>-58400</v>
       </c>
       <c r="H20" s="3">
-        <v>-44400</v>
+        <v>-46000</v>
       </c>
       <c r="I20" s="3">
-        <v>-45800</v>
+        <v>-47400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-90900</v>
+        <v>-96700</v>
       </c>
       <c r="E21" s="3">
-        <v>260400</v>
+        <v>268200</v>
       </c>
       <c r="F21" s="3">
-        <v>236500</v>
+        <v>243900</v>
       </c>
       <c r="G21" s="3">
-        <v>100600</v>
+        <v>103600</v>
       </c>
       <c r="H21" s="3">
-        <v>-6900</v>
+        <v>-7400</v>
       </c>
       <c r="I21" s="3">
-        <v>-19600</v>
+        <v>-20500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>81800</v>
+        <v>84600</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-270400</v>
+        <v>-279900</v>
       </c>
       <c r="E23" s="3">
-        <v>211000</v>
+        <v>218300</v>
       </c>
       <c r="F23" s="3">
-        <v>204100</v>
+        <v>211200</v>
       </c>
       <c r="G23" s="3">
-        <v>82800</v>
+        <v>85700</v>
       </c>
       <c r="H23" s="3">
-        <v>-17900</v>
+        <v>-18500</v>
       </c>
       <c r="I23" s="3">
-        <v>-27900</v>
+        <v>-28900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="E24" s="3">
-        <v>54300</v>
+        <v>56200</v>
       </c>
       <c r="F24" s="3">
-        <v>53600</v>
+        <v>55500</v>
       </c>
       <c r="G24" s="3">
-        <v>25700</v>
+        <v>26500</v>
       </c>
       <c r="H24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I24" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-257700</v>
+        <v>-266700</v>
       </c>
       <c r="E26" s="3">
-        <v>156700</v>
+        <v>162200</v>
       </c>
       <c r="F26" s="3">
-        <v>150500</v>
+        <v>155700</v>
       </c>
       <c r="G26" s="3">
-        <v>57100</v>
+        <v>59100</v>
       </c>
       <c r="H26" s="3">
-        <v>-19600</v>
+        <v>-20300</v>
       </c>
       <c r="I26" s="3">
-        <v>-22900</v>
+        <v>-23700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-254200</v>
+        <v>-263100</v>
       </c>
       <c r="E27" s="3">
-        <v>159800</v>
+        <v>165400</v>
       </c>
       <c r="F27" s="3">
-        <v>150300</v>
+        <v>155500</v>
       </c>
       <c r="G27" s="3">
-        <v>56400</v>
+        <v>58400</v>
       </c>
       <c r="H27" s="3">
-        <v>-20000</v>
+        <v>-20700</v>
       </c>
       <c r="I27" s="3">
-        <v>-21900</v>
+        <v>-22600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>638500</v>
+        <v>660900</v>
       </c>
       <c r="E32" s="3">
-        <v>62500</v>
+        <v>64700</v>
       </c>
       <c r="F32" s="3">
-        <v>65400</v>
+        <v>67600</v>
       </c>
       <c r="G32" s="3">
-        <v>56400</v>
+        <v>58400</v>
       </c>
       <c r="H32" s="3">
-        <v>44400</v>
+        <v>46000</v>
       </c>
       <c r="I32" s="3">
-        <v>45800</v>
+        <v>47400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-254200</v>
+        <v>-263100</v>
       </c>
       <c r="E33" s="3">
-        <v>159800</v>
+        <v>165400</v>
       </c>
       <c r="F33" s="3">
-        <v>150300</v>
+        <v>155500</v>
       </c>
       <c r="G33" s="3">
-        <v>56400</v>
+        <v>58400</v>
       </c>
       <c r="H33" s="3">
-        <v>-20000</v>
+        <v>-20700</v>
       </c>
       <c r="I33" s="3">
-        <v>-21900</v>
+        <v>-22600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-254200</v>
+        <v>-263100</v>
       </c>
       <c r="E35" s="3">
-        <v>159800</v>
+        <v>165400</v>
       </c>
       <c r="F35" s="3">
-        <v>150300</v>
+        <v>155500</v>
       </c>
       <c r="G35" s="3">
-        <v>56400</v>
+        <v>58400</v>
       </c>
       <c r="H35" s="3">
-        <v>-20000</v>
+        <v>-20700</v>
       </c>
       <c r="I35" s="3">
-        <v>-21900</v>
+        <v>-22600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>841100</v>
+        <v>870500</v>
       </c>
       <c r="E41" s="3">
-        <v>457800</v>
+        <v>473800</v>
       </c>
       <c r="F41" s="3">
-        <v>181200</v>
+        <v>187500</v>
       </c>
       <c r="G41" s="3">
-        <v>55700</v>
+        <v>57700</v>
       </c>
       <c r="H41" s="3">
-        <v>120100</v>
+        <v>124300</v>
       </c>
       <c r="I41" s="3">
-        <v>31900</v>
+        <v>33000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>372900</v>
+        <v>385900</v>
       </c>
       <c r="E42" s="3">
-        <v>1520700</v>
+        <v>1573800</v>
       </c>
       <c r="F42" s="3">
-        <v>549500</v>
+        <v>568700</v>
       </c>
       <c r="G42" s="3">
-        <v>518300</v>
+        <v>536500</v>
       </c>
       <c r="H42" s="3">
-        <v>37700</v>
+        <v>39100</v>
       </c>
       <c r="I42" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3814300</v>
+        <v>3947600</v>
       </c>
       <c r="E43" s="3">
-        <v>3326300</v>
+        <v>3442600</v>
       </c>
       <c r="F43" s="3">
-        <v>2687900</v>
+        <v>2781800</v>
       </c>
       <c r="G43" s="3">
-        <v>1748600</v>
+        <v>1809700</v>
       </c>
       <c r="H43" s="3">
-        <v>961800</v>
+        <v>995400</v>
       </c>
       <c r="I43" s="3">
-        <v>574600</v>
+        <v>594700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>574000</v>
+        <v>594100</v>
       </c>
       <c r="E45" s="3">
-        <v>172200</v>
+        <v>178200</v>
       </c>
       <c r="F45" s="3">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="G45" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I45" s="3">
         <v>2000</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5602300</v>
+        <v>5798100</v>
       </c>
       <c r="E46" s="3">
-        <v>5477000</v>
+        <v>5668500</v>
       </c>
       <c r="F46" s="3">
-        <v>3443400</v>
+        <v>3563700</v>
       </c>
       <c r="G46" s="3">
-        <v>2327000</v>
+        <v>2408300</v>
       </c>
       <c r="H46" s="3">
-        <v>1122500</v>
+        <v>1161700</v>
       </c>
       <c r="I46" s="3">
-        <v>621000</v>
+        <v>642700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>256200</v>
+        <v>265100</v>
       </c>
       <c r="E47" s="3">
-        <v>82600</v>
+        <v>85400</v>
       </c>
       <c r="F47" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>293600</v>
+        <v>303900</v>
       </c>
       <c r="E48" s="3">
-        <v>134200</v>
+        <v>138900</v>
       </c>
       <c r="F48" s="3">
-        <v>102600</v>
+        <v>106200</v>
       </c>
       <c r="G48" s="3">
-        <v>49800</v>
+        <v>51600</v>
       </c>
       <c r="H48" s="3">
-        <v>35500</v>
+        <v>36700</v>
       </c>
       <c r="I48" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1552400</v>
+        <v>1605200</v>
       </c>
       <c r="E49" s="3">
-        <v>194600</v>
+        <v>201400</v>
       </c>
       <c r="F49" s="3">
-        <v>69900</v>
+        <v>72400</v>
       </c>
       <c r="G49" s="3">
-        <v>57600</v>
+        <v>59600</v>
       </c>
       <c r="H49" s="3">
-        <v>43800</v>
+        <v>45300</v>
       </c>
       <c r="I49" s="3">
-        <v>44900</v>
+        <v>46400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>175200</v>
+        <v>181300</v>
       </c>
       <c r="E52" s="3">
-        <v>51500</v>
+        <v>53300</v>
       </c>
       <c r="F52" s="3">
-        <v>44400</v>
+        <v>46000</v>
       </c>
       <c r="G52" s="3">
-        <v>50700</v>
+        <v>52500</v>
       </c>
       <c r="H52" s="3">
-        <v>37700</v>
+        <v>39100</v>
       </c>
       <c r="I52" s="3">
-        <v>34300</v>
+        <v>35500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7877400</v>
+        <v>8151200</v>
       </c>
       <c r="E54" s="3">
-        <v>5939900</v>
+        <v>6147500</v>
       </c>
       <c r="F54" s="3">
-        <v>3668000</v>
+        <v>3796300</v>
       </c>
       <c r="G54" s="3">
-        <v>2487000</v>
+        <v>2574000</v>
       </c>
       <c r="H54" s="3">
-        <v>1241500</v>
+        <v>1284900</v>
       </c>
       <c r="I54" s="3">
-        <v>718300</v>
+        <v>743400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3011400</v>
+        <v>3116600</v>
       </c>
       <c r="E57" s="3">
-        <v>1749800</v>
+        <v>1811000</v>
       </c>
       <c r="F57" s="3">
-        <v>1234400</v>
+        <v>1277600</v>
       </c>
       <c r="G57" s="3">
-        <v>956800</v>
+        <v>990200</v>
       </c>
       <c r="H57" s="3">
-        <v>690500</v>
+        <v>714600</v>
       </c>
       <c r="I57" s="3">
-        <v>573900</v>
+        <v>594000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>724700</v>
+        <v>750000</v>
       </c>
       <c r="E58" s="3">
-        <v>588400</v>
+        <v>608900</v>
       </c>
       <c r="F58" s="3">
-        <v>942700</v>
+        <v>975600</v>
       </c>
       <c r="G58" s="3">
-        <v>145500</v>
+        <v>150600</v>
       </c>
       <c r="H58" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>527700</v>
+        <v>546100</v>
       </c>
       <c r="E59" s="3">
-        <v>165100</v>
+        <v>170900</v>
       </c>
       <c r="F59" s="3">
-        <v>44100</v>
+        <v>45700</v>
       </c>
       <c r="G59" s="3">
-        <v>30500</v>
+        <v>31600</v>
       </c>
       <c r="H59" s="3">
-        <v>20600</v>
+        <v>21400</v>
       </c>
       <c r="I59" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4263800</v>
+        <v>4412800</v>
       </c>
       <c r="E60" s="3">
-        <v>2503300</v>
+        <v>2590800</v>
       </c>
       <c r="F60" s="3">
-        <v>2221200</v>
+        <v>2298900</v>
       </c>
       <c r="G60" s="3">
-        <v>1132800</v>
+        <v>1172400</v>
       </c>
       <c r="H60" s="3">
-        <v>715400</v>
+        <v>740400</v>
       </c>
       <c r="I60" s="3">
-        <v>584100</v>
+        <v>604500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>839800</v>
+        <v>869200</v>
       </c>
       <c r="E61" s="3">
-        <v>549800</v>
+        <v>569000</v>
       </c>
       <c r="F61" s="3">
-        <v>319500</v>
+        <v>330600</v>
       </c>
       <c r="G61" s="3">
-        <v>385300</v>
+        <v>398700</v>
       </c>
       <c r="H61" s="3">
-        <v>385300</v>
+        <v>398800</v>
       </c>
       <c r="I61" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>224300</v>
+        <v>230600</v>
       </c>
       <c r="E62" s="3">
-        <v>81800</v>
+        <v>84700</v>
       </c>
       <c r="F62" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="G62" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="H62" s="3">
-        <v>50600</v>
+        <v>52300</v>
       </c>
       <c r="I62" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5344800</v>
+        <v>5530200</v>
       </c>
       <c r="E66" s="3">
-        <v>3160900</v>
+        <v>3271400</v>
       </c>
       <c r="F66" s="3">
-        <v>2550700</v>
+        <v>2639800</v>
       </c>
       <c r="G66" s="3">
-        <v>1534100</v>
+        <v>1587700</v>
       </c>
       <c r="H66" s="3">
-        <v>1154000</v>
+        <v>1194400</v>
       </c>
       <c r="I66" s="3">
-        <v>619300</v>
+        <v>640900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2738500</v>
+        <v>2834200</v>
       </c>
       <c r="E72" s="3">
-        <v>2794100</v>
+        <v>2891800</v>
       </c>
       <c r="F72" s="3">
-        <v>1130900</v>
+        <v>1170400</v>
       </c>
       <c r="G72" s="3">
-        <v>963400</v>
+        <v>997100</v>
       </c>
       <c r="H72" s="3">
-        <v>86900</v>
+        <v>90000</v>
       </c>
       <c r="I72" s="3">
-        <v>99000</v>
+        <v>102400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2532500</v>
+        <v>2621100</v>
       </c>
       <c r="E76" s="3">
-        <v>2778900</v>
+        <v>2876100</v>
       </c>
       <c r="F76" s="3">
-        <v>1117400</v>
+        <v>1156400</v>
       </c>
       <c r="G76" s="3">
-        <v>952900</v>
+        <v>986200</v>
       </c>
       <c r="H76" s="3">
-        <v>87400</v>
+        <v>90500</v>
       </c>
       <c r="I76" s="3">
-        <v>99000</v>
+        <v>102500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-254200</v>
+        <v>-263100</v>
       </c>
       <c r="E81" s="3">
-        <v>159800</v>
+        <v>165400</v>
       </c>
       <c r="F81" s="3">
-        <v>150300</v>
+        <v>155500</v>
       </c>
       <c r="G81" s="3">
-        <v>56400</v>
+        <v>58400</v>
       </c>
       <c r="H81" s="3">
-        <v>-20000</v>
+        <v>-20700</v>
       </c>
       <c r="I81" s="3">
-        <v>-21900</v>
+        <v>-22600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>94900</v>
+        <v>98200</v>
       </c>
       <c r="E83" s="3">
-        <v>48000</v>
+        <v>49600</v>
       </c>
       <c r="F83" s="3">
-        <v>30600</v>
+        <v>31600</v>
       </c>
       <c r="G83" s="3">
-        <v>17300</v>
+        <v>17900</v>
       </c>
       <c r="H83" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="I83" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>674800</v>
+        <v>698400</v>
       </c>
       <c r="E89" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="F89" s="3">
-        <v>-496100</v>
+        <v>-513500</v>
       </c>
       <c r="G89" s="3">
-        <v>-451900</v>
+        <v>-467700</v>
       </c>
       <c r="H89" s="3">
-        <v>-240200</v>
+        <v>-248600</v>
       </c>
       <c r="I89" s="3">
-        <v>-92300</v>
+        <v>-95500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-202600</v>
+        <v>-209700</v>
       </c>
       <c r="E91" s="3">
-        <v>-69600</v>
+        <v>-72100</v>
       </c>
       <c r="F91" s="3">
-        <v>-62400</v>
+        <v>-64600</v>
       </c>
       <c r="G91" s="3">
-        <v>-26400</v>
+        <v>-27300</v>
       </c>
       <c r="H91" s="3">
-        <v>-26400</v>
+        <v>-27300</v>
       </c>
       <c r="I91" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-557000</v>
+        <v>-576500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1086800</v>
+        <v>-1124800</v>
       </c>
       <c r="F94" s="3">
-        <v>-81900</v>
+        <v>-84700</v>
       </c>
       <c r="G94" s="3">
-        <v>-512100</v>
+        <v>-530000</v>
       </c>
       <c r="H94" s="3">
-        <v>-56100</v>
+        <v>-58000</v>
       </c>
       <c r="I94" s="3">
-        <v>35500</v>
+        <v>36800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>265600</v>
+        <v>274800</v>
       </c>
       <c r="E100" s="3">
-        <v>1350100</v>
+        <v>1397300</v>
       </c>
       <c r="F100" s="3">
-        <v>703100</v>
+        <v>727700</v>
       </c>
       <c r="G100" s="3">
-        <v>897100</v>
+        <v>928400</v>
       </c>
       <c r="H100" s="3">
-        <v>384200</v>
+        <v>397600</v>
       </c>
       <c r="I100" s="3">
-        <v>70700</v>
+        <v>73200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3715,13 +3715,13 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>383300</v>
+        <v>396700</v>
       </c>
       <c r="E102" s="3">
-        <v>276600</v>
+        <v>286300</v>
       </c>
       <c r="F102" s="3">
-        <v>125400</v>
+        <v>129800</v>
       </c>
       <c r="G102" s="3">
-        <v>-64400</v>
+        <v>-66600</v>
       </c>
       <c r="H102" s="3">
-        <v>88200</v>
+        <v>91300</v>
       </c>
       <c r="I102" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1186900</v>
+        <v>1997000</v>
       </c>
       <c r="E8" s="3">
-        <v>640400</v>
+        <v>1234600</v>
       </c>
       <c r="F8" s="3">
-        <v>498800</v>
+        <v>666100</v>
       </c>
       <c r="G8" s="3">
-        <v>305800</v>
+        <v>518800</v>
       </c>
       <c r="H8" s="3">
-        <v>148400</v>
+        <v>318000</v>
       </c>
       <c r="I8" s="3">
-        <v>85200</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>154400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>88600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>331800</v>
+        <v>537700</v>
       </c>
       <c r="E9" s="3">
-        <v>149100</v>
+        <v>345200</v>
       </c>
       <c r="F9" s="3">
-        <v>82700</v>
+        <v>155100</v>
       </c>
       <c r="G9" s="3">
-        <v>62600</v>
+        <v>86000</v>
       </c>
       <c r="H9" s="3">
-        <v>43400</v>
+        <v>65100</v>
       </c>
       <c r="I9" s="3">
-        <v>25800</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>45100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>855100</v>
+        <v>1459300</v>
       </c>
       <c r="E10" s="3">
-        <v>491300</v>
+        <v>889400</v>
       </c>
       <c r="F10" s="3">
-        <v>416100</v>
+        <v>511000</v>
       </c>
       <c r="G10" s="3">
-        <v>243200</v>
+        <v>432800</v>
       </c>
       <c r="H10" s="3">
-        <v>105000</v>
+        <v>253000</v>
       </c>
       <c r="I10" s="3">
-        <v>59400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>109300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>61800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,17 +926,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>15100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -937,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -946,32 +965,35 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>40300</v>
+        <v>54500</v>
       </c>
       <c r="E15" s="3">
-        <v>18200</v>
+        <v>41900</v>
       </c>
       <c r="F15" s="3">
-        <v>12300</v>
+        <v>19000</v>
       </c>
       <c r="G15" s="3">
-        <v>7400</v>
+        <v>12800</v>
       </c>
       <c r="H15" s="3">
-        <v>5000</v>
+        <v>7700</v>
       </c>
       <c r="I15" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>721400</v>
+        <v>1128800</v>
       </c>
       <c r="E17" s="3">
-        <v>357300</v>
+        <v>750300</v>
       </c>
       <c r="F17" s="3">
-        <v>219000</v>
+        <v>371700</v>
       </c>
       <c r="G17" s="3">
-        <v>161700</v>
+        <v>227800</v>
       </c>
       <c r="H17" s="3">
-        <v>121000</v>
+        <v>168200</v>
       </c>
       <c r="I17" s="3">
-        <v>66700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>125900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>69400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>465600</v>
+        <v>868200</v>
       </c>
       <c r="E18" s="3">
-        <v>283100</v>
+        <v>484200</v>
       </c>
       <c r="F18" s="3">
-        <v>279800</v>
+        <v>294400</v>
       </c>
       <c r="G18" s="3">
-        <v>144000</v>
+        <v>291000</v>
       </c>
       <c r="H18" s="3">
-        <v>27400</v>
+        <v>149800</v>
       </c>
       <c r="I18" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>28500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,31 +1116,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-660900</v>
+        <v>-815700</v>
       </c>
       <c r="E20" s="3">
-        <v>-64700</v>
+        <v>-687400</v>
       </c>
       <c r="F20" s="3">
-        <v>-67600</v>
+        <v>-67300</v>
       </c>
       <c r="G20" s="3">
-        <v>-58400</v>
+        <v>-70400</v>
       </c>
       <c r="H20" s="3">
-        <v>-46000</v>
+        <v>-60700</v>
       </c>
       <c r="I20" s="3">
-        <v>-47400</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-47800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-49300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-96700</v>
+        <v>214400</v>
       </c>
       <c r="E21" s="3">
-        <v>268200</v>
+        <v>-100400</v>
       </c>
       <c r="F21" s="3">
-        <v>243900</v>
+        <v>279000</v>
       </c>
       <c r="G21" s="3">
-        <v>103600</v>
+        <v>253700</v>
       </c>
       <c r="H21" s="3">
-        <v>-7400</v>
+        <v>107800</v>
       </c>
       <c r="I21" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-7700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-21400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,23 +1191,26 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>84600</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>130400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>88000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1185,38 +1224,41 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-279900</v>
+        <v>-78000</v>
       </c>
       <c r="E23" s="3">
-        <v>218300</v>
+        <v>-291100</v>
       </c>
       <c r="F23" s="3">
-        <v>211200</v>
+        <v>227100</v>
       </c>
       <c r="G23" s="3">
-        <v>85700</v>
+        <v>219700</v>
       </c>
       <c r="H23" s="3">
-        <v>-18500</v>
+        <v>89100</v>
       </c>
       <c r="I23" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-19300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-30100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,32 +1269,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-13200</v>
+        <v>28000</v>
       </c>
       <c r="E24" s="3">
-        <v>56200</v>
+        <v>-13700</v>
       </c>
       <c r="F24" s="3">
-        <v>55500</v>
+        <v>58400</v>
       </c>
       <c r="G24" s="3">
-        <v>26500</v>
+        <v>57700</v>
       </c>
       <c r="H24" s="3">
-        <v>1800</v>
+        <v>27600</v>
       </c>
       <c r="I24" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>1900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-5400</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-266700</v>
+        <v>-106000</v>
       </c>
       <c r="E26" s="3">
-        <v>162200</v>
+        <v>-277400</v>
       </c>
       <c r="F26" s="3">
-        <v>155700</v>
+        <v>168700</v>
       </c>
       <c r="G26" s="3">
-        <v>59100</v>
+        <v>162000</v>
       </c>
       <c r="H26" s="3">
-        <v>-20300</v>
+        <v>61500</v>
       </c>
       <c r="I26" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-21100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-24600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-263100</v>
+        <v>-104600</v>
       </c>
       <c r="E27" s="3">
-        <v>165400</v>
+        <v>-273700</v>
       </c>
       <c r="F27" s="3">
-        <v>155500</v>
+        <v>172000</v>
       </c>
       <c r="G27" s="3">
-        <v>58400</v>
+        <v>161800</v>
       </c>
       <c r="H27" s="3">
-        <v>-20700</v>
+        <v>60700</v>
       </c>
       <c r="I27" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-21500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-23500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,32 +1581,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>660900</v>
+        <v>815700</v>
       </c>
       <c r="E32" s="3">
-        <v>64700</v>
+        <v>687400</v>
       </c>
       <c r="F32" s="3">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="G32" s="3">
-        <v>58400</v>
+        <v>70400</v>
       </c>
       <c r="H32" s="3">
-        <v>46000</v>
+        <v>60700</v>
       </c>
       <c r="I32" s="3">
-        <v>47400</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>47800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>49300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-263100</v>
+        <v>-104600</v>
       </c>
       <c r="E33" s="3">
-        <v>165400</v>
+        <v>-273700</v>
       </c>
       <c r="F33" s="3">
-        <v>155500</v>
+        <v>172000</v>
       </c>
       <c r="G33" s="3">
-        <v>58400</v>
+        <v>161800</v>
       </c>
       <c r="H33" s="3">
-        <v>-20700</v>
+        <v>60700</v>
       </c>
       <c r="I33" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-21500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-23500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-263100</v>
+        <v>-104600</v>
       </c>
       <c r="E35" s="3">
-        <v>165400</v>
+        <v>-273700</v>
       </c>
       <c r="F35" s="3">
-        <v>155500</v>
+        <v>172000</v>
       </c>
       <c r="G35" s="3">
-        <v>58400</v>
+        <v>161800</v>
       </c>
       <c r="H35" s="3">
-        <v>-20700</v>
+        <v>60700</v>
       </c>
       <c r="I35" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-21500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-23500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>870500</v>
+        <v>304600</v>
       </c>
       <c r="E41" s="3">
-        <v>473800</v>
+        <v>905400</v>
       </c>
       <c r="F41" s="3">
-        <v>187500</v>
+        <v>492800</v>
       </c>
       <c r="G41" s="3">
-        <v>57700</v>
+        <v>195000</v>
       </c>
       <c r="H41" s="3">
-        <v>124300</v>
+        <v>60000</v>
       </c>
       <c r="I41" s="3">
-        <v>33000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>129300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>34400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,32 +1854,35 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>385900</v>
+        <v>695600</v>
       </c>
       <c r="E42" s="3">
-        <v>1573800</v>
+        <v>401400</v>
       </c>
       <c r="F42" s="3">
-        <v>568700</v>
+        <v>1637000</v>
       </c>
       <c r="G42" s="3">
-        <v>536500</v>
+        <v>591500</v>
       </c>
       <c r="H42" s="3">
-        <v>39100</v>
+        <v>558000</v>
       </c>
       <c r="I42" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>40600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>13400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3947600</v>
+        <v>4295900</v>
       </c>
       <c r="E43" s="3">
-        <v>3442600</v>
+        <v>4106100</v>
       </c>
       <c r="F43" s="3">
-        <v>2781800</v>
+        <v>3580800</v>
       </c>
       <c r="G43" s="3">
-        <v>1809700</v>
+        <v>2893400</v>
       </c>
       <c r="H43" s="3">
-        <v>995400</v>
+        <v>1882300</v>
       </c>
       <c r="I43" s="3">
-        <v>594700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>1035300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>618600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,32 +1971,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>594100</v>
+        <v>878600</v>
       </c>
       <c r="E45" s="3">
-        <v>178200</v>
+        <v>617900</v>
       </c>
       <c r="F45" s="3">
-        <v>25700</v>
+        <v>185400</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
+        <v>26800</v>
       </c>
       <c r="H45" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="I45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5798100</v>
+        <v>6174800</v>
       </c>
       <c r="E46" s="3">
-        <v>5668500</v>
+        <v>6030800</v>
       </c>
       <c r="F46" s="3">
-        <v>3563700</v>
+        <v>5895900</v>
       </c>
       <c r="G46" s="3">
-        <v>2408300</v>
+        <v>3706700</v>
       </c>
       <c r="H46" s="3">
-        <v>1161700</v>
+        <v>2505000</v>
       </c>
       <c r="I46" s="3">
-        <v>642700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>1208300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>668500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,33 +2049,36 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>265100</v>
+        <v>85800</v>
       </c>
       <c r="E47" s="3">
-        <v>85400</v>
+        <v>275800</v>
       </c>
       <c r="F47" s="3">
-        <v>8000</v>
+        <v>88900</v>
       </c>
       <c r="G47" s="3">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
       </c>
       <c r="I47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,32 +2088,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>303900</v>
+        <v>330500</v>
       </c>
       <c r="E48" s="3">
-        <v>138900</v>
+        <v>316100</v>
       </c>
       <c r="F48" s="3">
-        <v>106200</v>
+        <v>144500</v>
       </c>
       <c r="G48" s="3">
-        <v>51600</v>
+        <v>110500</v>
       </c>
       <c r="H48" s="3">
-        <v>36700</v>
+        <v>53600</v>
       </c>
       <c r="I48" s="3">
-        <v>18100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>38200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>18800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2020,32 +2127,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1605200</v>
+        <v>1738600</v>
       </c>
       <c r="E49" s="3">
-        <v>201400</v>
+        <v>1669600</v>
       </c>
       <c r="F49" s="3">
-        <v>72400</v>
+        <v>209400</v>
       </c>
       <c r="G49" s="3">
-        <v>59600</v>
+        <v>75300</v>
       </c>
       <c r="H49" s="3">
-        <v>45300</v>
+        <v>62000</v>
       </c>
       <c r="I49" s="3">
-        <v>46400</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>47100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>48300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>181300</v>
+        <v>178500</v>
       </c>
       <c r="E52" s="3">
-        <v>53300</v>
+        <v>188600</v>
       </c>
       <c r="F52" s="3">
-        <v>46000</v>
+        <v>55500</v>
       </c>
       <c r="G52" s="3">
-        <v>52500</v>
+        <v>47800</v>
       </c>
       <c r="H52" s="3">
-        <v>39100</v>
+        <v>54600</v>
       </c>
       <c r="I52" s="3">
-        <v>35500</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>40600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>36900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8151200</v>
+        <v>8508200</v>
       </c>
       <c r="E54" s="3">
-        <v>6147500</v>
+        <v>8478300</v>
       </c>
       <c r="F54" s="3">
-        <v>3796300</v>
+        <v>6394200</v>
       </c>
       <c r="G54" s="3">
-        <v>2574000</v>
+        <v>3948600</v>
       </c>
       <c r="H54" s="3">
-        <v>1284900</v>
+        <v>2677300</v>
       </c>
       <c r="I54" s="3">
-        <v>743400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>1336400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>773200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,31 +2398,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3116600</v>
+        <v>3459000</v>
       </c>
       <c r="E57" s="3">
-        <v>1811000</v>
+        <v>3241700</v>
       </c>
       <c r="F57" s="3">
-        <v>1277600</v>
+        <v>1883700</v>
       </c>
       <c r="G57" s="3">
-        <v>990200</v>
+        <v>1328800</v>
       </c>
       <c r="H57" s="3">
-        <v>714600</v>
+        <v>1029900</v>
       </c>
       <c r="I57" s="3">
-        <v>594000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>743300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>617800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,32 +2434,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>750000</v>
+        <v>568500</v>
       </c>
       <c r="E58" s="3">
-        <v>608900</v>
+        <v>780100</v>
       </c>
       <c r="F58" s="3">
-        <v>975600</v>
+        <v>633400</v>
       </c>
       <c r="G58" s="3">
-        <v>150600</v>
+        <v>1014800</v>
       </c>
       <c r="H58" s="3">
-        <v>4400</v>
+        <v>156600</v>
       </c>
       <c r="I58" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>546100</v>
+        <v>1042600</v>
       </c>
       <c r="E59" s="3">
-        <v>170900</v>
+        <v>568000</v>
       </c>
       <c r="F59" s="3">
-        <v>45700</v>
+        <v>177800</v>
       </c>
       <c r="G59" s="3">
-        <v>31600</v>
+        <v>47500</v>
       </c>
       <c r="H59" s="3">
-        <v>21400</v>
+        <v>32900</v>
       </c>
       <c r="I59" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4412800</v>
+        <v>5070100</v>
       </c>
       <c r="E60" s="3">
-        <v>2590800</v>
+        <v>4589900</v>
       </c>
       <c r="F60" s="3">
-        <v>2298900</v>
+        <v>2694800</v>
       </c>
       <c r="G60" s="3">
-        <v>1172400</v>
+        <v>2391100</v>
       </c>
       <c r="H60" s="3">
-        <v>740400</v>
+        <v>1219400</v>
       </c>
       <c r="I60" s="3">
-        <v>604500</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>770100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>628800</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,32 +2551,35 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>869200</v>
+        <v>549500</v>
       </c>
       <c r="E61" s="3">
-        <v>569000</v>
+        <v>904000</v>
       </c>
       <c r="F61" s="3">
-        <v>330600</v>
+        <v>591900</v>
       </c>
       <c r="G61" s="3">
-        <v>398700</v>
+        <v>343900</v>
       </c>
       <c r="H61" s="3">
-        <v>398800</v>
+        <v>414700</v>
       </c>
       <c r="I61" s="3">
-        <v>3500</v>
+        <v>414800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2448,32 +2590,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>230600</v>
+        <v>280500</v>
       </c>
       <c r="E62" s="3">
-        <v>84700</v>
+        <v>239900</v>
       </c>
       <c r="F62" s="3">
-        <v>10200</v>
+        <v>88100</v>
       </c>
       <c r="G62" s="3">
-        <v>16700</v>
+        <v>10600</v>
       </c>
       <c r="H62" s="3">
-        <v>52300</v>
+        <v>17300</v>
       </c>
       <c r="I62" s="3">
-        <v>21700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>54400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>22600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5530200</v>
+        <v>5911400</v>
       </c>
       <c r="E66" s="3">
-        <v>3271400</v>
+        <v>5752100</v>
       </c>
       <c r="F66" s="3">
-        <v>2639800</v>
+        <v>3402700</v>
       </c>
       <c r="G66" s="3">
-        <v>1587700</v>
+        <v>2745800</v>
       </c>
       <c r="H66" s="3">
-        <v>1194400</v>
+        <v>1651500</v>
       </c>
       <c r="I66" s="3">
-        <v>640900</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>1242300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>666700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2834200</v>
+        <v>2697900</v>
       </c>
       <c r="E72" s="3">
-        <v>2891800</v>
+        <v>2948000</v>
       </c>
       <c r="F72" s="3">
-        <v>1170400</v>
+        <v>3007900</v>
       </c>
       <c r="G72" s="3">
-        <v>997100</v>
+        <v>1217400</v>
       </c>
       <c r="H72" s="3">
-        <v>90000</v>
+        <v>1037100</v>
       </c>
       <c r="I72" s="3">
-        <v>102400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>93600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>106600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2621100</v>
+        <v>2596800</v>
       </c>
       <c r="E76" s="3">
-        <v>2876100</v>
+        <v>2726200</v>
       </c>
       <c r="F76" s="3">
-        <v>1156400</v>
+        <v>2991500</v>
       </c>
       <c r="G76" s="3">
-        <v>986200</v>
+        <v>1202800</v>
       </c>
       <c r="H76" s="3">
-        <v>90500</v>
+        <v>1025800</v>
       </c>
       <c r="I76" s="3">
-        <v>102500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>94100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>106600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-263100</v>
+        <v>-104600</v>
       </c>
       <c r="E81" s="3">
-        <v>165400</v>
+        <v>-273700</v>
       </c>
       <c r="F81" s="3">
-        <v>155500</v>
+        <v>172000</v>
       </c>
       <c r="G81" s="3">
-        <v>58400</v>
+        <v>161800</v>
       </c>
       <c r="H81" s="3">
-        <v>-20700</v>
+        <v>60700</v>
       </c>
       <c r="I81" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-21500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-23500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>98200</v>
+        <v>161200</v>
       </c>
       <c r="E83" s="3">
-        <v>49600</v>
+        <v>102200</v>
       </c>
       <c r="F83" s="3">
-        <v>31600</v>
+        <v>51600</v>
       </c>
       <c r="G83" s="3">
-        <v>17900</v>
+        <v>32900</v>
       </c>
       <c r="H83" s="3">
-        <v>11100</v>
+        <v>18600</v>
       </c>
       <c r="I83" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>698400</v>
+        <v>339100</v>
       </c>
       <c r="E89" s="3">
-        <v>10900</v>
+        <v>726400</v>
       </c>
       <c r="F89" s="3">
-        <v>-513500</v>
+        <v>11400</v>
       </c>
       <c r="G89" s="3">
-        <v>-467700</v>
+        <v>-534100</v>
       </c>
       <c r="H89" s="3">
-        <v>-248600</v>
+        <v>-486500</v>
       </c>
       <c r="I89" s="3">
-        <v>-95500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-258600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-99400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,31 +3585,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-209700</v>
+        <v>-84100</v>
       </c>
       <c r="E91" s="3">
-        <v>-72100</v>
+        <v>-218100</v>
       </c>
       <c r="F91" s="3">
-        <v>-64600</v>
+        <v>-74900</v>
       </c>
       <c r="G91" s="3">
-        <v>-27300</v>
+        <v>-67200</v>
       </c>
       <c r="H91" s="3">
-        <v>-27300</v>
+        <v>-28400</v>
       </c>
       <c r="I91" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-28400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-576500</v>
+        <v>-376800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1124800</v>
+        <v>-599600</v>
       </c>
       <c r="F94" s="3">
-        <v>-84700</v>
+        <v>-1169900</v>
       </c>
       <c r="G94" s="3">
-        <v>-530000</v>
+        <v>-88100</v>
       </c>
       <c r="H94" s="3">
-        <v>-58000</v>
+        <v>-551300</v>
       </c>
       <c r="I94" s="3">
-        <v>36800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-60400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>38200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>274800</v>
+        <v>-566000</v>
       </c>
       <c r="E100" s="3">
-        <v>1397300</v>
+        <v>285900</v>
       </c>
       <c r="F100" s="3">
-        <v>727700</v>
+        <v>1453300</v>
       </c>
       <c r="G100" s="3">
-        <v>928400</v>
+        <v>756900</v>
       </c>
       <c r="H100" s="3">
-        <v>397600</v>
+        <v>965700</v>
       </c>
       <c r="I100" s="3">
-        <v>73200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>413600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>76100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,32 +3950,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>2900</v>
-      </c>
       <c r="F101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>2700</v>
-      </c>
       <c r="H101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>2500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>396700</v>
+        <v>-600800</v>
       </c>
       <c r="E102" s="3">
-        <v>286300</v>
+        <v>412600</v>
       </c>
       <c r="F102" s="3">
-        <v>129800</v>
+        <v>297800</v>
       </c>
       <c r="G102" s="3">
-        <v>-66600</v>
+        <v>135000</v>
       </c>
       <c r="H102" s="3">
-        <v>91300</v>
+        <v>-69300</v>
       </c>
       <c r="I102" s="3">
-        <v>16900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>94900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>17500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1997000</v>
+        <v>2001300</v>
       </c>
       <c r="E8" s="3">
-        <v>1234600</v>
+        <v>1237300</v>
       </c>
       <c r="F8" s="3">
-        <v>666100</v>
+        <v>667600</v>
       </c>
       <c r="G8" s="3">
-        <v>518800</v>
+        <v>519900</v>
       </c>
       <c r="H8" s="3">
-        <v>318000</v>
+        <v>318700</v>
       </c>
       <c r="I8" s="3">
-        <v>154400</v>
+        <v>154700</v>
       </c>
       <c r="J8" s="3">
-        <v>88600</v>
+        <v>88800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>537700</v>
+        <v>538900</v>
       </c>
       <c r="E9" s="3">
-        <v>345200</v>
+        <v>345900</v>
       </c>
       <c r="F9" s="3">
-        <v>155100</v>
+        <v>155400</v>
       </c>
       <c r="G9" s="3">
-        <v>86000</v>
+        <v>86200</v>
       </c>
       <c r="H9" s="3">
-        <v>65100</v>
+        <v>65200</v>
       </c>
       <c r="I9" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="J9" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1459300</v>
+        <v>1462500</v>
       </c>
       <c r="E10" s="3">
-        <v>889400</v>
+        <v>891400</v>
       </c>
       <c r="F10" s="3">
-        <v>511000</v>
+        <v>512200</v>
       </c>
       <c r="G10" s="3">
-        <v>432800</v>
+        <v>433800</v>
       </c>
       <c r="H10" s="3">
-        <v>253000</v>
+        <v>253500</v>
       </c>
       <c r="I10" s="3">
-        <v>109300</v>
+        <v>109500</v>
       </c>
       <c r="J10" s="3">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -975,10 +975,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="E15" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="F15" s="3">
         <v>19000</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1128800</v>
+        <v>1131300</v>
       </c>
       <c r="E17" s="3">
-        <v>750300</v>
+        <v>752000</v>
       </c>
       <c r="F17" s="3">
-        <v>371700</v>
+        <v>372500</v>
       </c>
       <c r="G17" s="3">
-        <v>227800</v>
+        <v>228300</v>
       </c>
       <c r="H17" s="3">
-        <v>168200</v>
+        <v>168600</v>
       </c>
       <c r="I17" s="3">
-        <v>125900</v>
+        <v>126100</v>
       </c>
       <c r="J17" s="3">
-        <v>69400</v>
+        <v>69500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>868200</v>
+        <v>870000</v>
       </c>
       <c r="E18" s="3">
-        <v>484200</v>
+        <v>485300</v>
       </c>
       <c r="F18" s="3">
-        <v>294400</v>
+        <v>295100</v>
       </c>
       <c r="G18" s="3">
-        <v>291000</v>
+        <v>291600</v>
       </c>
       <c r="H18" s="3">
-        <v>149800</v>
+        <v>150100</v>
       </c>
       <c r="I18" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="J18" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-815700</v>
+        <v>-817500</v>
       </c>
       <c r="E20" s="3">
-        <v>-687400</v>
+        <v>-688900</v>
       </c>
       <c r="F20" s="3">
-        <v>-67300</v>
+        <v>-67500</v>
       </c>
       <c r="G20" s="3">
-        <v>-70400</v>
+        <v>-70500</v>
       </c>
       <c r="H20" s="3">
-        <v>-60700</v>
+        <v>-60900</v>
       </c>
       <c r="I20" s="3">
-        <v>-47800</v>
+        <v>-47900</v>
       </c>
       <c r="J20" s="3">
-        <v>-49300</v>
+        <v>-49400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>214400</v>
+        <v>214100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100400</v>
+        <v>-101200</v>
       </c>
       <c r="F21" s="3">
-        <v>279000</v>
+        <v>279300</v>
       </c>
       <c r="G21" s="3">
-        <v>253700</v>
+        <v>254100</v>
       </c>
       <c r="H21" s="3">
-        <v>107800</v>
+        <v>107900</v>
       </c>
       <c r="I21" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="J21" s="3">
         <v>-21400</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>130400</v>
+        <v>130700</v>
       </c>
       <c r="E22" s="3">
-        <v>88000</v>
+        <v>88200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-78000</v>
+        <v>-78200</v>
       </c>
       <c r="E23" s="3">
-        <v>-291100</v>
+        <v>-291800</v>
       </c>
       <c r="F23" s="3">
-        <v>227100</v>
+        <v>227600</v>
       </c>
       <c r="G23" s="3">
-        <v>219700</v>
+        <v>220100</v>
       </c>
       <c r="H23" s="3">
-        <v>89100</v>
+        <v>89300</v>
       </c>
       <c r="I23" s="3">
         <v>-19300</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="E24" s="3">
-        <v>-13700</v>
+        <v>-13800</v>
       </c>
       <c r="F24" s="3">
-        <v>58400</v>
+        <v>58600</v>
       </c>
       <c r="G24" s="3">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="H24" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="I24" s="3">
         <v>1900</v>
       </c>
       <c r="J24" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-106000</v>
+        <v>-106200</v>
       </c>
       <c r="E26" s="3">
-        <v>-277400</v>
+        <v>-278000</v>
       </c>
       <c r="F26" s="3">
-        <v>168700</v>
+        <v>169000</v>
       </c>
       <c r="G26" s="3">
-        <v>162000</v>
+        <v>162300</v>
       </c>
       <c r="H26" s="3">
-        <v>61500</v>
+        <v>61600</v>
       </c>
       <c r="I26" s="3">
-        <v>-21100</v>
+        <v>-21200</v>
       </c>
       <c r="J26" s="3">
-        <v>-24600</v>
+        <v>-24700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-104600</v>
+        <v>-104800</v>
       </c>
       <c r="E27" s="3">
-        <v>-273700</v>
+        <v>-274300</v>
       </c>
       <c r="F27" s="3">
-        <v>172000</v>
+        <v>172400</v>
       </c>
       <c r="G27" s="3">
-        <v>161800</v>
+        <v>162100</v>
       </c>
       <c r="H27" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="I27" s="3">
         <v>-21500</v>
       </c>
       <c r="J27" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>815700</v>
+        <v>817500</v>
       </c>
       <c r="E32" s="3">
-        <v>687400</v>
+        <v>688900</v>
       </c>
       <c r="F32" s="3">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="G32" s="3">
-        <v>70400</v>
+        <v>70500</v>
       </c>
       <c r="H32" s="3">
-        <v>60700</v>
+        <v>60900</v>
       </c>
       <c r="I32" s="3">
-        <v>47800</v>
+        <v>47900</v>
       </c>
       <c r="J32" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-104600</v>
+        <v>-104800</v>
       </c>
       <c r="E33" s="3">
-        <v>-273700</v>
+        <v>-274300</v>
       </c>
       <c r="F33" s="3">
-        <v>172000</v>
+        <v>172400</v>
       </c>
       <c r="G33" s="3">
-        <v>161800</v>
+        <v>162100</v>
       </c>
       <c r="H33" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="I33" s="3">
         <v>-21500</v>
       </c>
       <c r="J33" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-104600</v>
+        <v>-104800</v>
       </c>
       <c r="E35" s="3">
-        <v>-273700</v>
+        <v>-274300</v>
       </c>
       <c r="F35" s="3">
-        <v>172000</v>
+        <v>172400</v>
       </c>
       <c r="G35" s="3">
-        <v>161800</v>
+        <v>162100</v>
       </c>
       <c r="H35" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="I35" s="3">
         <v>-21500</v>
       </c>
       <c r="J35" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>304600</v>
+        <v>305300</v>
       </c>
       <c r="E41" s="3">
-        <v>905400</v>
+        <v>907400</v>
       </c>
       <c r="F41" s="3">
-        <v>492800</v>
+        <v>493900</v>
       </c>
       <c r="G41" s="3">
-        <v>195000</v>
+        <v>195500</v>
       </c>
       <c r="H41" s="3">
-        <v>60000</v>
+        <v>60100</v>
       </c>
       <c r="I41" s="3">
-        <v>129300</v>
+        <v>129600</v>
       </c>
       <c r="J41" s="3">
         <v>34400</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>695600</v>
+        <v>697100</v>
       </c>
       <c r="E42" s="3">
-        <v>401400</v>
+        <v>402300</v>
       </c>
       <c r="F42" s="3">
-        <v>1637000</v>
+        <v>1640600</v>
       </c>
       <c r="G42" s="3">
-        <v>591500</v>
+        <v>592800</v>
       </c>
       <c r="H42" s="3">
-        <v>558000</v>
+        <v>559200</v>
       </c>
       <c r="I42" s="3">
-        <v>40600</v>
+        <v>40700</v>
       </c>
       <c r="J42" s="3">
         <v>13400</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4295900</v>
+        <v>4305300</v>
       </c>
       <c r="E43" s="3">
-        <v>4106100</v>
+        <v>4115000</v>
       </c>
       <c r="F43" s="3">
-        <v>3580800</v>
+        <v>3588600</v>
       </c>
       <c r="G43" s="3">
-        <v>2893400</v>
+        <v>2899800</v>
       </c>
       <c r="H43" s="3">
-        <v>1882300</v>
+        <v>1886400</v>
       </c>
       <c r="I43" s="3">
-        <v>1035300</v>
+        <v>1037600</v>
       </c>
       <c r="J43" s="3">
-        <v>618600</v>
+        <v>620000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,13 +1981,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>878600</v>
+        <v>880600</v>
       </c>
       <c r="E45" s="3">
-        <v>617900</v>
+        <v>619300</v>
       </c>
       <c r="F45" s="3">
-        <v>185400</v>
+        <v>185800</v>
       </c>
       <c r="G45" s="3">
         <v>26800</v>
@@ -1996,7 +1996,7 @@
         <v>4700</v>
       </c>
       <c r="I45" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J45" s="3">
         <v>2100</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6174800</v>
+        <v>6188300</v>
       </c>
       <c r="E46" s="3">
-        <v>6030800</v>
+        <v>6044000</v>
       </c>
       <c r="F46" s="3">
-        <v>5895900</v>
+        <v>5908800</v>
       </c>
       <c r="G46" s="3">
-        <v>3706700</v>
+        <v>3714800</v>
       </c>
       <c r="H46" s="3">
-        <v>2505000</v>
+        <v>2510400</v>
       </c>
       <c r="I46" s="3">
-        <v>1208300</v>
+        <v>1210900</v>
       </c>
       <c r="J46" s="3">
-        <v>668500</v>
+        <v>669900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,13 +2059,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>85800</v>
+        <v>86000</v>
       </c>
       <c r="E47" s="3">
-        <v>275800</v>
+        <v>276400</v>
       </c>
       <c r="F47" s="3">
-        <v>88900</v>
+        <v>89100</v>
       </c>
       <c r="G47" s="3">
         <v>8300</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>330500</v>
+        <v>331300</v>
       </c>
       <c r="E48" s="3">
-        <v>316100</v>
+        <v>316800</v>
       </c>
       <c r="F48" s="3">
-        <v>144500</v>
+        <v>144800</v>
       </c>
       <c r="G48" s="3">
-        <v>110500</v>
+        <v>110700</v>
       </c>
       <c r="H48" s="3">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="I48" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="J48" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1738600</v>
+        <v>1742300</v>
       </c>
       <c r="E49" s="3">
-        <v>1669600</v>
+        <v>1673300</v>
       </c>
       <c r="F49" s="3">
-        <v>209400</v>
+        <v>209900</v>
       </c>
       <c r="G49" s="3">
-        <v>75300</v>
+        <v>75400</v>
       </c>
       <c r="H49" s="3">
-        <v>62000</v>
+        <v>62100</v>
       </c>
       <c r="I49" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="J49" s="3">
-        <v>48300</v>
+        <v>48400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>178500</v>
+        <v>178900</v>
       </c>
       <c r="E52" s="3">
-        <v>188600</v>
+        <v>189000</v>
       </c>
       <c r="F52" s="3">
-        <v>55500</v>
+        <v>55600</v>
       </c>
       <c r="G52" s="3">
-        <v>47800</v>
+        <v>47900</v>
       </c>
       <c r="H52" s="3">
-        <v>54600</v>
+        <v>54700</v>
       </c>
       <c r="I52" s="3">
-        <v>40600</v>
+        <v>40700</v>
       </c>
       <c r="J52" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8508200</v>
+        <v>8526800</v>
       </c>
       <c r="E54" s="3">
-        <v>8478300</v>
+        <v>8496900</v>
       </c>
       <c r="F54" s="3">
-        <v>6394200</v>
+        <v>6408200</v>
       </c>
       <c r="G54" s="3">
-        <v>3948600</v>
+        <v>3957200</v>
       </c>
       <c r="H54" s="3">
-        <v>2677300</v>
+        <v>2683100</v>
       </c>
       <c r="I54" s="3">
-        <v>1336400</v>
+        <v>1339400</v>
       </c>
       <c r="J54" s="3">
-        <v>773200</v>
+        <v>774900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3459000</v>
+        <v>3466600</v>
       </c>
       <c r="E57" s="3">
-        <v>3241700</v>
+        <v>3248800</v>
       </c>
       <c r="F57" s="3">
-        <v>1883700</v>
+        <v>1887800</v>
       </c>
       <c r="G57" s="3">
-        <v>1328800</v>
+        <v>1331700</v>
       </c>
       <c r="H57" s="3">
-        <v>1029900</v>
+        <v>1032200</v>
       </c>
       <c r="I57" s="3">
-        <v>743300</v>
+        <v>744900</v>
       </c>
       <c r="J57" s="3">
-        <v>617800</v>
+        <v>619100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,19 +2444,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>568500</v>
+        <v>569700</v>
       </c>
       <c r="E58" s="3">
-        <v>780100</v>
+        <v>781800</v>
       </c>
       <c r="F58" s="3">
-        <v>633400</v>
+        <v>634800</v>
       </c>
       <c r="G58" s="3">
-        <v>1014800</v>
+        <v>1017000</v>
       </c>
       <c r="H58" s="3">
-        <v>156600</v>
+        <v>157000</v>
       </c>
       <c r="I58" s="3">
         <v>4500</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1042600</v>
+        <v>1044900</v>
       </c>
       <c r="E59" s="3">
-        <v>568000</v>
+        <v>569300</v>
       </c>
       <c r="F59" s="3">
-        <v>177800</v>
+        <v>178200</v>
       </c>
       <c r="G59" s="3">
-        <v>47500</v>
+        <v>47600</v>
       </c>
       <c r="H59" s="3">
         <v>32900</v>
       </c>
       <c r="I59" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="J59" s="3">
         <v>6400</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5070100</v>
+        <v>5081100</v>
       </c>
       <c r="E60" s="3">
-        <v>4589900</v>
+        <v>4599900</v>
       </c>
       <c r="F60" s="3">
-        <v>2694800</v>
+        <v>2700700</v>
       </c>
       <c r="G60" s="3">
-        <v>2391100</v>
+        <v>2396400</v>
       </c>
       <c r="H60" s="3">
-        <v>1219400</v>
+        <v>1222100</v>
       </c>
       <c r="I60" s="3">
-        <v>770100</v>
+        <v>771700</v>
       </c>
       <c r="J60" s="3">
-        <v>628800</v>
+        <v>630100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>549500</v>
+        <v>550700</v>
       </c>
       <c r="E61" s="3">
-        <v>904000</v>
+        <v>906000</v>
       </c>
       <c r="F61" s="3">
-        <v>591900</v>
+        <v>593200</v>
       </c>
       <c r="G61" s="3">
-        <v>343900</v>
+        <v>344600</v>
       </c>
       <c r="H61" s="3">
-        <v>414700</v>
+        <v>415700</v>
       </c>
       <c r="I61" s="3">
-        <v>414800</v>
+        <v>415700</v>
       </c>
       <c r="J61" s="3">
         <v>3600</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>280500</v>
+        <v>281100</v>
       </c>
       <c r="E62" s="3">
-        <v>239900</v>
+        <v>240400</v>
       </c>
       <c r="F62" s="3">
-        <v>88100</v>
+        <v>88300</v>
       </c>
       <c r="G62" s="3">
         <v>10600</v>
       </c>
       <c r="H62" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="I62" s="3">
-        <v>54400</v>
+        <v>54500</v>
       </c>
       <c r="J62" s="3">
         <v>22600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5911400</v>
+        <v>5924300</v>
       </c>
       <c r="E66" s="3">
-        <v>5752100</v>
+        <v>5764700</v>
       </c>
       <c r="F66" s="3">
-        <v>3402700</v>
+        <v>3410100</v>
       </c>
       <c r="G66" s="3">
-        <v>2745800</v>
+        <v>2751800</v>
       </c>
       <c r="H66" s="3">
-        <v>1651500</v>
+        <v>1655100</v>
       </c>
       <c r="I66" s="3">
-        <v>1242300</v>
+        <v>1245000</v>
       </c>
       <c r="J66" s="3">
-        <v>666700</v>
+        <v>668100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2697900</v>
+        <v>2703800</v>
       </c>
       <c r="E72" s="3">
-        <v>2948000</v>
+        <v>2954400</v>
       </c>
       <c r="F72" s="3">
-        <v>3007900</v>
+        <v>3014400</v>
       </c>
       <c r="G72" s="3">
-        <v>1217400</v>
+        <v>1220100</v>
       </c>
       <c r="H72" s="3">
-        <v>1037100</v>
+        <v>1039400</v>
       </c>
       <c r="I72" s="3">
-        <v>93600</v>
+        <v>93800</v>
       </c>
       <c r="J72" s="3">
-        <v>106600</v>
+        <v>106800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2596800</v>
+        <v>2602500</v>
       </c>
       <c r="E76" s="3">
-        <v>2726200</v>
+        <v>2732200</v>
       </c>
       <c r="F76" s="3">
-        <v>2991500</v>
+        <v>2998000</v>
       </c>
       <c r="G76" s="3">
-        <v>1202800</v>
+        <v>1205500</v>
       </c>
       <c r="H76" s="3">
-        <v>1025800</v>
+        <v>1028000</v>
       </c>
       <c r="I76" s="3">
-        <v>94100</v>
+        <v>94300</v>
       </c>
       <c r="J76" s="3">
-        <v>106600</v>
+        <v>106800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-104600</v>
+        <v>-104800</v>
       </c>
       <c r="E81" s="3">
-        <v>-273700</v>
+        <v>-274300</v>
       </c>
       <c r="F81" s="3">
-        <v>172000</v>
+        <v>172400</v>
       </c>
       <c r="G81" s="3">
-        <v>161800</v>
+        <v>162100</v>
       </c>
       <c r="H81" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="I81" s="3">
         <v>-21500</v>
       </c>
       <c r="J81" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,16 +3302,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>161200</v>
+        <v>161500</v>
       </c>
       <c r="E83" s="3">
-        <v>102200</v>
+        <v>102400</v>
       </c>
       <c r="F83" s="3">
-        <v>51600</v>
+        <v>51700</v>
       </c>
       <c r="G83" s="3">
-        <v>32900</v>
+        <v>33000</v>
       </c>
       <c r="H83" s="3">
         <v>18600</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>339100</v>
+        <v>339800</v>
       </c>
       <c r="E89" s="3">
-        <v>726400</v>
+        <v>728000</v>
       </c>
       <c r="F89" s="3">
         <v>11400</v>
       </c>
       <c r="G89" s="3">
-        <v>-534100</v>
+        <v>-535200</v>
       </c>
       <c r="H89" s="3">
-        <v>-486500</v>
+        <v>-487600</v>
       </c>
       <c r="I89" s="3">
-        <v>-258600</v>
+        <v>-259200</v>
       </c>
       <c r="J89" s="3">
-        <v>-99400</v>
+        <v>-99600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84100</v>
+        <v>-84300</v>
       </c>
       <c r="E91" s="3">
-        <v>-218100</v>
+        <v>-218600</v>
       </c>
       <c r="F91" s="3">
-        <v>-74900</v>
+        <v>-75100</v>
       </c>
       <c r="G91" s="3">
-        <v>-67200</v>
+        <v>-67300</v>
       </c>
       <c r="H91" s="3">
         <v>-28400</v>
       </c>
       <c r="I91" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="J91" s="3">
         <v>-6400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-376800</v>
+        <v>-377700</v>
       </c>
       <c r="E94" s="3">
-        <v>-599600</v>
+        <v>-600900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1169900</v>
+        <v>-1172500</v>
       </c>
       <c r="G94" s="3">
-        <v>-88100</v>
+        <v>-88300</v>
       </c>
       <c r="H94" s="3">
-        <v>-551300</v>
+        <v>-552500</v>
       </c>
       <c r="I94" s="3">
-        <v>-60400</v>
+        <v>-60500</v>
       </c>
       <c r="J94" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-566000</v>
+        <v>-567200</v>
       </c>
       <c r="E100" s="3">
-        <v>285900</v>
+        <v>286500</v>
       </c>
       <c r="F100" s="3">
-        <v>1453300</v>
+        <v>1456500</v>
       </c>
       <c r="G100" s="3">
-        <v>756900</v>
+        <v>758500</v>
       </c>
       <c r="H100" s="3">
-        <v>965700</v>
+        <v>967800</v>
       </c>
       <c r="I100" s="3">
-        <v>413600</v>
+        <v>414500</v>
       </c>
       <c r="J100" s="3">
-        <v>76100</v>
+        <v>76300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-600800</v>
+        <v>-602100</v>
       </c>
       <c r="E102" s="3">
-        <v>412600</v>
+        <v>413500</v>
       </c>
       <c r="F102" s="3">
-        <v>297800</v>
+        <v>298500</v>
       </c>
       <c r="G102" s="3">
-        <v>135000</v>
+        <v>135300</v>
       </c>
       <c r="H102" s="3">
-        <v>-69300</v>
+        <v>-69400</v>
       </c>
       <c r="I102" s="3">
-        <v>94900</v>
+        <v>95100</v>
       </c>
       <c r="J102" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/STNE_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2001300</v>
+        <v>2038900</v>
       </c>
       <c r="E8" s="3">
-        <v>1237300</v>
+        <v>1260500</v>
       </c>
       <c r="F8" s="3">
-        <v>667600</v>
+        <v>680100</v>
       </c>
       <c r="G8" s="3">
-        <v>519900</v>
+        <v>529700</v>
       </c>
       <c r="H8" s="3">
-        <v>318700</v>
+        <v>324700</v>
       </c>
       <c r="I8" s="3">
-        <v>154700</v>
+        <v>157600</v>
       </c>
       <c r="J8" s="3">
-        <v>88800</v>
+        <v>90500</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>538900</v>
+        <v>549000</v>
       </c>
       <c r="E9" s="3">
-        <v>345900</v>
+        <v>352400</v>
       </c>
       <c r="F9" s="3">
-        <v>155400</v>
+        <v>158300</v>
       </c>
       <c r="G9" s="3">
-        <v>86200</v>
+        <v>87800</v>
       </c>
       <c r="H9" s="3">
-        <v>65200</v>
+        <v>66400</v>
       </c>
       <c r="I9" s="3">
-        <v>45200</v>
+        <v>46100</v>
       </c>
       <c r="J9" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1462500</v>
+        <v>1489900</v>
       </c>
       <c r="E10" s="3">
-        <v>891400</v>
+        <v>908100</v>
       </c>
       <c r="F10" s="3">
-        <v>512200</v>
+        <v>521800</v>
       </c>
       <c r="G10" s="3">
-        <v>433800</v>
+        <v>441900</v>
       </c>
       <c r="H10" s="3">
-        <v>253500</v>
+        <v>258300</v>
       </c>
       <c r="I10" s="3">
-        <v>109500</v>
+        <v>111600</v>
       </c>
       <c r="J10" s="3">
-        <v>61900</v>
+        <v>63100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -939,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>54600</v>
+        <v>55600</v>
       </c>
       <c r="E15" s="3">
-        <v>42000</v>
+        <v>42800</v>
       </c>
       <c r="F15" s="3">
-        <v>19000</v>
+        <v>19300</v>
       </c>
       <c r="G15" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="H15" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I15" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J15" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1131300</v>
+        <v>1152500</v>
       </c>
       <c r="E17" s="3">
-        <v>752000</v>
+        <v>766100</v>
       </c>
       <c r="F17" s="3">
-        <v>372500</v>
+        <v>379500</v>
       </c>
       <c r="G17" s="3">
-        <v>228300</v>
+        <v>232600</v>
       </c>
       <c r="H17" s="3">
-        <v>168600</v>
+        <v>171800</v>
       </c>
       <c r="I17" s="3">
-        <v>126100</v>
+        <v>128500</v>
       </c>
       <c r="J17" s="3">
-        <v>69500</v>
+        <v>70800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>870000</v>
+        <v>886400</v>
       </c>
       <c r="E18" s="3">
-        <v>485300</v>
+        <v>494400</v>
       </c>
       <c r="F18" s="3">
-        <v>295100</v>
+        <v>300600</v>
       </c>
       <c r="G18" s="3">
-        <v>291600</v>
+        <v>297100</v>
       </c>
       <c r="H18" s="3">
-        <v>150100</v>
+        <v>153000</v>
       </c>
       <c r="I18" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="J18" s="3">
-        <v>19300</v>
+        <v>19600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-817500</v>
+        <v>-832900</v>
       </c>
       <c r="E20" s="3">
-        <v>-688900</v>
+        <v>-701800</v>
       </c>
       <c r="F20" s="3">
-        <v>-67500</v>
+        <v>-68700</v>
       </c>
       <c r="G20" s="3">
-        <v>-70500</v>
+        <v>-71800</v>
       </c>
       <c r="H20" s="3">
-        <v>-60900</v>
+        <v>-62000</v>
       </c>
       <c r="I20" s="3">
-        <v>-47900</v>
+        <v>-48800</v>
       </c>
       <c r="J20" s="3">
-        <v>-49400</v>
+        <v>-50300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>214100</v>
+        <v>218100</v>
       </c>
       <c r="E21" s="3">
-        <v>-101200</v>
+        <v>-103000</v>
       </c>
       <c r="F21" s="3">
-        <v>279300</v>
+        <v>284600</v>
       </c>
       <c r="G21" s="3">
-        <v>254100</v>
+        <v>258900</v>
       </c>
       <c r="H21" s="3">
-        <v>107900</v>
+        <v>109900</v>
       </c>
       <c r="I21" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="J21" s="3">
-        <v>-21400</v>
+        <v>-21800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>130700</v>
+        <v>133100</v>
       </c>
       <c r="E22" s="3">
-        <v>88200</v>
+        <v>89900</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-78200</v>
+        <v>-79600</v>
       </c>
       <c r="E23" s="3">
-        <v>-291800</v>
+        <v>-297200</v>
       </c>
       <c r="F23" s="3">
-        <v>227600</v>
+        <v>231900</v>
       </c>
       <c r="G23" s="3">
-        <v>220100</v>
+        <v>224300</v>
       </c>
       <c r="H23" s="3">
-        <v>89300</v>
+        <v>91000</v>
       </c>
       <c r="I23" s="3">
-        <v>-19300</v>
+        <v>-19700</v>
       </c>
       <c r="J23" s="3">
-        <v>-30100</v>
+        <v>-30700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="E24" s="3">
-        <v>-13800</v>
+        <v>-14000</v>
       </c>
       <c r="F24" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="G24" s="3">
-        <v>57800</v>
+        <v>58900</v>
       </c>
       <c r="H24" s="3">
-        <v>27700</v>
+        <v>28200</v>
       </c>
       <c r="I24" s="3">
         <v>1900</v>
       </c>
       <c r="J24" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-106200</v>
+        <v>-108200</v>
       </c>
       <c r="E26" s="3">
-        <v>-278000</v>
+        <v>-283200</v>
       </c>
       <c r="F26" s="3">
-        <v>169000</v>
+        <v>172200</v>
       </c>
       <c r="G26" s="3">
-        <v>162300</v>
+        <v>165400</v>
       </c>
       <c r="H26" s="3">
-        <v>61600</v>
+        <v>62800</v>
       </c>
       <c r="I26" s="3">
-        <v>-21200</v>
+        <v>-21600</v>
       </c>
       <c r="J26" s="3">
-        <v>-24700</v>
+        <v>-25100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-104800</v>
+        <v>-106800</v>
       </c>
       <c r="E27" s="3">
-        <v>-274300</v>
+        <v>-279400</v>
       </c>
       <c r="F27" s="3">
-        <v>172400</v>
+        <v>175600</v>
       </c>
       <c r="G27" s="3">
-        <v>162100</v>
+        <v>165200</v>
       </c>
       <c r="H27" s="3">
-        <v>60800</v>
+        <v>62000</v>
       </c>
       <c r="I27" s="3">
-        <v>-21500</v>
+        <v>-21900</v>
       </c>
       <c r="J27" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>817500</v>
+        <v>832900</v>
       </c>
       <c r="E32" s="3">
-        <v>688900</v>
+        <v>701800</v>
       </c>
       <c r="F32" s="3">
-        <v>67500</v>
+        <v>68700</v>
       </c>
       <c r="G32" s="3">
-        <v>70500</v>
+        <v>71800</v>
       </c>
       <c r="H32" s="3">
-        <v>60900</v>
+        <v>62000</v>
       </c>
       <c r="I32" s="3">
-        <v>47900</v>
+        <v>48800</v>
       </c>
       <c r="J32" s="3">
-        <v>49400</v>
+        <v>50300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-104800</v>
+        <v>-106800</v>
       </c>
       <c r="E33" s="3">
-        <v>-274300</v>
+        <v>-279400</v>
       </c>
       <c r="F33" s="3">
-        <v>172400</v>
+        <v>175600</v>
       </c>
       <c r="G33" s="3">
-        <v>162100</v>
+        <v>165200</v>
       </c>
       <c r="H33" s="3">
-        <v>60800</v>
+        <v>62000</v>
       </c>
       <c r="I33" s="3">
-        <v>-21500</v>
+        <v>-21900</v>
       </c>
       <c r="J33" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-104800</v>
+        <v>-106800</v>
       </c>
       <c r="E35" s="3">
-        <v>-274300</v>
+        <v>-279400</v>
       </c>
       <c r="F35" s="3">
-        <v>172400</v>
+        <v>175600</v>
       </c>
       <c r="G35" s="3">
-        <v>162100</v>
+        <v>165200</v>
       </c>
       <c r="H35" s="3">
-        <v>60800</v>
+        <v>62000</v>
       </c>
       <c r="I35" s="3">
-        <v>-21500</v>
+        <v>-21900</v>
       </c>
       <c r="J35" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>305300</v>
+        <v>311000</v>
       </c>
       <c r="E41" s="3">
-        <v>907400</v>
+        <v>924400</v>
       </c>
       <c r="F41" s="3">
-        <v>493900</v>
+        <v>503200</v>
       </c>
       <c r="G41" s="3">
-        <v>195500</v>
+        <v>199100</v>
       </c>
       <c r="H41" s="3">
-        <v>60100</v>
+        <v>61300</v>
       </c>
       <c r="I41" s="3">
-        <v>129600</v>
+        <v>132000</v>
       </c>
       <c r="J41" s="3">
-        <v>34400</v>
+        <v>35100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>697100</v>
+        <v>710200</v>
       </c>
       <c r="E42" s="3">
-        <v>402300</v>
+        <v>409800</v>
       </c>
       <c r="F42" s="3">
-        <v>1640600</v>
+        <v>1671400</v>
       </c>
       <c r="G42" s="3">
-        <v>592800</v>
+        <v>603900</v>
       </c>
       <c r="H42" s="3">
-        <v>559200</v>
+        <v>569700</v>
       </c>
       <c r="I42" s="3">
-        <v>40700</v>
+        <v>41500</v>
       </c>
       <c r="J42" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4305300</v>
+        <v>4386100</v>
       </c>
       <c r="E43" s="3">
-        <v>4115000</v>
+        <v>4192300</v>
       </c>
       <c r="F43" s="3">
-        <v>3588600</v>
+        <v>3656000</v>
       </c>
       <c r="G43" s="3">
-        <v>2899800</v>
+        <v>2954200</v>
       </c>
       <c r="H43" s="3">
-        <v>1886400</v>
+        <v>1921800</v>
       </c>
       <c r="I43" s="3">
-        <v>1037600</v>
+        <v>1057100</v>
       </c>
       <c r="J43" s="3">
-        <v>620000</v>
+        <v>631600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>880600</v>
+        <v>897100</v>
       </c>
       <c r="E45" s="3">
-        <v>619300</v>
+        <v>630900</v>
       </c>
       <c r="F45" s="3">
-        <v>185800</v>
+        <v>189300</v>
       </c>
       <c r="G45" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="H45" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I45" s="3">
         <v>3100</v>
       </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6188300</v>
+        <v>6304500</v>
       </c>
       <c r="E46" s="3">
-        <v>6044000</v>
+        <v>6157500</v>
       </c>
       <c r="F46" s="3">
-        <v>5908800</v>
+        <v>6019800</v>
       </c>
       <c r="G46" s="3">
-        <v>3714800</v>
+        <v>3784600</v>
       </c>
       <c r="H46" s="3">
-        <v>2510400</v>
+        <v>2557600</v>
       </c>
       <c r="I46" s="3">
-        <v>1210900</v>
+        <v>1233700</v>
       </c>
       <c r="J46" s="3">
-        <v>669900</v>
+        <v>682500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86000</v>
+        <v>87600</v>
       </c>
       <c r="E47" s="3">
-        <v>276400</v>
+        <v>281600</v>
       </c>
       <c r="F47" s="3">
-        <v>89100</v>
+        <v>90700</v>
       </c>
       <c r="G47" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>331300</v>
+        <v>337500</v>
       </c>
       <c r="E48" s="3">
-        <v>316800</v>
+        <v>322700</v>
       </c>
       <c r="F48" s="3">
-        <v>144800</v>
+        <v>147500</v>
       </c>
       <c r="G48" s="3">
-        <v>110700</v>
+        <v>112800</v>
       </c>
       <c r="H48" s="3">
-        <v>53700</v>
+        <v>54800</v>
       </c>
       <c r="I48" s="3">
-        <v>38300</v>
+        <v>39000</v>
       </c>
       <c r="J48" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1742300</v>
+        <v>1775100</v>
       </c>
       <c r="E49" s="3">
-        <v>1673300</v>
+        <v>1704700</v>
       </c>
       <c r="F49" s="3">
-        <v>209900</v>
+        <v>213800</v>
       </c>
       <c r="G49" s="3">
-        <v>75400</v>
+        <v>76800</v>
       </c>
       <c r="H49" s="3">
-        <v>62100</v>
+        <v>63300</v>
       </c>
       <c r="I49" s="3">
-        <v>47200</v>
+        <v>48100</v>
       </c>
       <c r="J49" s="3">
-        <v>48400</v>
+        <v>49300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>178900</v>
+        <v>182300</v>
       </c>
       <c r="E52" s="3">
-        <v>189000</v>
+        <v>192500</v>
       </c>
       <c r="F52" s="3">
-        <v>55600</v>
+        <v>56600</v>
       </c>
       <c r="G52" s="3">
-        <v>47900</v>
+        <v>48800</v>
       </c>
       <c r="H52" s="3">
-        <v>54700</v>
+        <v>55800</v>
       </c>
       <c r="I52" s="3">
-        <v>40700</v>
+        <v>41500</v>
       </c>
       <c r="J52" s="3">
-        <v>37000</v>
+        <v>37700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8526800</v>
+        <v>8686900</v>
       </c>
       <c r="E54" s="3">
-        <v>8496900</v>
+        <v>8656400</v>
       </c>
       <c r="F54" s="3">
-        <v>6408200</v>
+        <v>6528500</v>
       </c>
       <c r="G54" s="3">
-        <v>3957200</v>
+        <v>4031500</v>
       </c>
       <c r="H54" s="3">
-        <v>2683100</v>
+        <v>2733500</v>
       </c>
       <c r="I54" s="3">
-        <v>1339400</v>
+        <v>1364500</v>
       </c>
       <c r="J54" s="3">
-        <v>774900</v>
+        <v>789500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3466600</v>
+        <v>3531700</v>
       </c>
       <c r="E57" s="3">
-        <v>3248800</v>
+        <v>3309800</v>
       </c>
       <c r="F57" s="3">
-        <v>1887800</v>
+        <v>1923200</v>
       </c>
       <c r="G57" s="3">
-        <v>1331700</v>
+        <v>1356700</v>
       </c>
       <c r="H57" s="3">
-        <v>1032200</v>
+        <v>1051600</v>
       </c>
       <c r="I57" s="3">
-        <v>744900</v>
+        <v>758900</v>
       </c>
       <c r="J57" s="3">
-        <v>619100</v>
+        <v>630800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>569700</v>
+        <v>580400</v>
       </c>
       <c r="E58" s="3">
-        <v>781800</v>
+        <v>796500</v>
       </c>
       <c r="F58" s="3">
-        <v>634800</v>
+        <v>646700</v>
       </c>
       <c r="G58" s="3">
-        <v>1017000</v>
+        <v>1036100</v>
       </c>
       <c r="H58" s="3">
-        <v>157000</v>
+        <v>159900</v>
       </c>
       <c r="I58" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1044900</v>
+        <v>1064500</v>
       </c>
       <c r="E59" s="3">
-        <v>569300</v>
+        <v>580000</v>
       </c>
       <c r="F59" s="3">
-        <v>178200</v>
+        <v>181500</v>
       </c>
       <c r="G59" s="3">
-        <v>47600</v>
+        <v>48500</v>
       </c>
       <c r="H59" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="I59" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="J59" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5081100</v>
+        <v>5176600</v>
       </c>
       <c r="E60" s="3">
-        <v>4599900</v>
+        <v>4686300</v>
       </c>
       <c r="F60" s="3">
-        <v>2700700</v>
+        <v>2751400</v>
       </c>
       <c r="G60" s="3">
-        <v>2396400</v>
+        <v>2441300</v>
       </c>
       <c r="H60" s="3">
-        <v>1222100</v>
+        <v>1245000</v>
       </c>
       <c r="I60" s="3">
-        <v>771700</v>
+        <v>786200</v>
       </c>
       <c r="J60" s="3">
-        <v>630100</v>
+        <v>642000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>550700</v>
+        <v>561100</v>
       </c>
       <c r="E61" s="3">
-        <v>906000</v>
+        <v>923000</v>
       </c>
       <c r="F61" s="3">
-        <v>593200</v>
+        <v>604300</v>
       </c>
       <c r="G61" s="3">
-        <v>344600</v>
+        <v>351100</v>
       </c>
       <c r="H61" s="3">
-        <v>415700</v>
+        <v>423500</v>
       </c>
       <c r="I61" s="3">
-        <v>415700</v>
+        <v>423500</v>
       </c>
       <c r="J61" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>281100</v>
+        <v>286400</v>
       </c>
       <c r="E62" s="3">
-        <v>240400</v>
+        <v>244900</v>
       </c>
       <c r="F62" s="3">
-        <v>88300</v>
+        <v>90000</v>
       </c>
       <c r="G62" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="H62" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="I62" s="3">
-        <v>54500</v>
+        <v>55600</v>
       </c>
       <c r="J62" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5924300</v>
+        <v>6035600</v>
       </c>
       <c r="E66" s="3">
-        <v>5764700</v>
+        <v>5872900</v>
       </c>
       <c r="F66" s="3">
-        <v>3410100</v>
+        <v>3474200</v>
       </c>
       <c r="G66" s="3">
-        <v>2751800</v>
+        <v>2803400</v>
       </c>
       <c r="H66" s="3">
-        <v>1655100</v>
+        <v>1686100</v>
       </c>
       <c r="I66" s="3">
-        <v>1245000</v>
+        <v>1268400</v>
       </c>
       <c r="J66" s="3">
-        <v>668100</v>
+        <v>680700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2703800</v>
+        <v>2754500</v>
       </c>
       <c r="E72" s="3">
-        <v>2954400</v>
+        <v>3009900</v>
       </c>
       <c r="F72" s="3">
-        <v>3014400</v>
+        <v>3071000</v>
       </c>
       <c r="G72" s="3">
-        <v>1220100</v>
+        <v>1243000</v>
       </c>
       <c r="H72" s="3">
-        <v>1039400</v>
+        <v>1058900</v>
       </c>
       <c r="I72" s="3">
-        <v>93800</v>
+        <v>95600</v>
       </c>
       <c r="J72" s="3">
-        <v>106800</v>
+        <v>108800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2602500</v>
+        <v>2651400</v>
       </c>
       <c r="E76" s="3">
-        <v>2732200</v>
+        <v>2783500</v>
       </c>
       <c r="F76" s="3">
-        <v>2998000</v>
+        <v>3054300</v>
       </c>
       <c r="G76" s="3">
-        <v>1205500</v>
+        <v>1228100</v>
       </c>
       <c r="H76" s="3">
-        <v>1028000</v>
+        <v>1047300</v>
       </c>
       <c r="I76" s="3">
-        <v>94300</v>
+        <v>96100</v>
       </c>
       <c r="J76" s="3">
-        <v>106800</v>
+        <v>108800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-104800</v>
+        <v>-106800</v>
       </c>
       <c r="E81" s="3">
-        <v>-274300</v>
+        <v>-279400</v>
       </c>
       <c r="F81" s="3">
-        <v>172400</v>
+        <v>175600</v>
       </c>
       <c r="G81" s="3">
-        <v>162100</v>
+        <v>165200</v>
       </c>
       <c r="H81" s="3">
-        <v>60800</v>
+        <v>62000</v>
       </c>
       <c r="I81" s="3">
-        <v>-21500</v>
+        <v>-21900</v>
       </c>
       <c r="J81" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>161500</v>
+        <v>164600</v>
       </c>
       <c r="E83" s="3">
-        <v>102400</v>
+        <v>104300</v>
       </c>
       <c r="F83" s="3">
-        <v>51700</v>
+        <v>52700</v>
       </c>
       <c r="G83" s="3">
-        <v>33000</v>
+        <v>33600</v>
       </c>
       <c r="H83" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="I83" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="J83" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>339800</v>
+        <v>346200</v>
       </c>
       <c r="E89" s="3">
-        <v>728000</v>
+        <v>741700</v>
       </c>
       <c r="F89" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="G89" s="3">
-        <v>-535200</v>
+        <v>-545300</v>
       </c>
       <c r="H89" s="3">
-        <v>-487600</v>
+        <v>-496700</v>
       </c>
       <c r="I89" s="3">
-        <v>-259200</v>
+        <v>-264000</v>
       </c>
       <c r="J89" s="3">
-        <v>-99600</v>
+        <v>-101500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84300</v>
+        <v>-85900</v>
       </c>
       <c r="E91" s="3">
-        <v>-218600</v>
+        <v>-222700</v>
       </c>
       <c r="F91" s="3">
-        <v>-75100</v>
+        <v>-76500</v>
       </c>
       <c r="G91" s="3">
-        <v>-67300</v>
+        <v>-68600</v>
       </c>
       <c r="H91" s="3">
-        <v>-28400</v>
+        <v>-29000</v>
       </c>
       <c r="I91" s="3">
-        <v>-28500</v>
+        <v>-29000</v>
       </c>
       <c r="J91" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-377700</v>
+        <v>-384800</v>
       </c>
       <c r="E94" s="3">
-        <v>-600900</v>
+        <v>-612200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1172500</v>
+        <v>-1194500</v>
       </c>
       <c r="G94" s="3">
-        <v>-88300</v>
+        <v>-90000</v>
       </c>
       <c r="H94" s="3">
-        <v>-552500</v>
+        <v>-562800</v>
       </c>
       <c r="I94" s="3">
-        <v>-60500</v>
+        <v>-61600</v>
       </c>
       <c r="J94" s="3">
-        <v>38300</v>
+        <v>39100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-567200</v>
+        <v>-577800</v>
       </c>
       <c r="E100" s="3">
-        <v>286500</v>
+        <v>291900</v>
       </c>
       <c r="F100" s="3">
-        <v>1456500</v>
+        <v>1483900</v>
       </c>
       <c r="G100" s="3">
-        <v>758500</v>
+        <v>772700</v>
       </c>
       <c r="H100" s="3">
-        <v>967800</v>
+        <v>986000</v>
       </c>
       <c r="I100" s="3">
-        <v>414500</v>
+        <v>422200</v>
       </c>
       <c r="J100" s="3">
-        <v>76300</v>
+        <v>77700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,13 +3960,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
@@ -3978,7 +3978,7 @@
         <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-602100</v>
+        <v>-613400</v>
       </c>
       <c r="E102" s="3">
-        <v>413500</v>
+        <v>421300</v>
       </c>
       <c r="F102" s="3">
-        <v>298500</v>
+        <v>304100</v>
       </c>
       <c r="G102" s="3">
-        <v>135300</v>
+        <v>137900</v>
       </c>
       <c r="H102" s="3">
-        <v>-69400</v>
+        <v>-70700</v>
       </c>
       <c r="I102" s="3">
-        <v>95100</v>
+        <v>96900</v>
       </c>
       <c r="J102" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
